--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0FF14-012C-0146-A3FA-6955D1ED4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4F568-4816-A240-BD20-88608CF5D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$65</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="472">
   <si>
     <t>city</t>
   </si>
@@ -221,9 +221,6 @@
   <si>
     <t>Khipro Sanghar Sindh:
 Raher, Near Khipro city a minor 11 years old Hindu Kolhi girl Asho d/o Haryo Kolhi was kiddnapped by Mam Abdul Rehman Pathan her parents reached at Police station, Police denied to lodged complent against accused.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ</t>
   </si>
   <si>
     <t>case_3</t>
@@ -386,17 +383,9 @@
     <t>rape, murder, suicide</t>
   </si>
   <si>
-    <t>Amir Ali Arisar</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1600068903404609536?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ</t>
   </si>
   <si>
-    <t>Khipro Sanghar Sindh Pakistan 
-Lachmi d/o Jahman Das Meghwar, w/o Esir Das, found hanging in her home. 
-Esir went to Karachi for work…</t>
-  </si>
-  <si>
     <t>https://www.opindia.com/2023/01/pakistan-hindu-man-killed-by-islamists-for-resisting-abduction-of-his-sister-activist-alleges-police-apathy/</t>
   </si>
   <si>
@@ -407,12 +396,6 @@
   </si>
   <si>
     <t>Abducted</t>
-  </si>
-  <si>
-    <t>gang rape</t>
-  </si>
-  <si>
-    <t>brahim Mungreo and Panhun Mungreo, 1 more</t>
   </si>
   <si>
     <t>Mirpur Khas
@@ -420,9 +403,6 @@
     #JusticeForShantiJogi</t>
   </si>
   <si>
-    <t>https://twitter.com/NarainDasBheel8/status/1617145239617118210?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1616763153458626561?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ</t>
   </si>
   <si>
@@ -436,9 +416,6 @@
   </si>
   <si>
     <t>Rakshana</t>
-  </si>
-  <si>
-    <t>Wazir Ali</t>
   </si>
   <si>
     <t>Tando Allah Yar City Court</t>
@@ -557,9 +534,6 @@
     <t>Gouri</t>
   </si>
   <si>
-    <t>Ahsan Machhi</t>
-  </si>
-  <si>
     <t>Missing</t>
   </si>
   <si>
@@ -573,11 +547,6 @@
   </si>
   <si>
     <t>Maheshwari</t>
-  </si>
-  <si>
-    <t>Sonu/Urmila Mehshwari’s age is established as 15 years old according to the medical report.
-The family hoped that a girl would be returned to them.
-She was abducted from Karachi on December 19, 2022.</t>
   </si>
   <si>
     <t>https://twitter.com/NarainDasBheel8/status/1613240855975845901?s=20&amp;t=EqQ5jcnK36bzUJy8PuZbAg</t>
@@ -626,9 +595,6 @@
   </si>
   <si>
     <t>Kumari</t>
-  </si>
-  <si>
-    <t>https://twitter.com/NarainDasBheel8/status/1612031515785072643?s=20&amp;t=37g10exefm4l7cU-JhUmkg</t>
   </si>
   <si>
     <t>Ghotki Dargah Bharerchadi Sharif</t>
@@ -1164,9 +1130,6 @@
     <t>Jasodhan</t>
   </si>
   <si>
-    <t>Amnah</t>
-  </si>
-  <si>
     <t>case_49</t>
   </si>
   <si>
@@ -1231,9 +1194,6 @@
     <t>Reema</t>
   </si>
   <si>
-    <t>Ali Hasan Lashari</t>
-  </si>
-  <si>
     <t>Mother of three children. Already married</t>
   </si>
   <si>
@@ -1265,17 +1225,10 @@
     <t>Ali Ghulam Tahim</t>
   </si>
   <si>
-    <t>https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg
-http://fb.watch/fWwJnc76yF/</t>
-  </si>
-  <si>
     <t>Matli, Khoso colony, Tando Ghulam Ali</t>
   </si>
   <si>
     <t>case_53</t>
-  </si>
-  <si>
-    <t>Karampur</t>
   </si>
   <si>
     <t>Dadu</t>
@@ -1317,17 +1270,6 @@
   </si>
   <si>
     <t>https://twitter.com/NarainDasBheel8/status/1594309096454336512?s=20&amp;t=37g10exefm4l7cU-JhUmkg</t>
-  </si>
-  <si>
-    <t>Tando Ghulam Ali: cases of abduction of minor Hindu girls #Nisha and #Hina have been closed due to false police reports and false challans.The girls have been handed over to kidnappers in Sindh.The Hindu community continues to face injustice and cruelty,but the government,courts.
-Born on Nov 11, 2011</t>
-  </si>
-  <si>
-    <t>Tando Ghulam Ali: cases of abduction of minor Hindu girls #Nisha and #Hina have been closed due to false police reports and false challans.The girls have been handed over to kidnappers in Sindh.The Hindu community continues to face injustice and cruelty,but the government,courts.
-On October 14 Hina Kolhi, a resident of Khosa Colony of Tando Ghulam Ali, was kidnapped, forcibly converted to Islam, and married to one Mustafa Dahokar.
-Cruelty and injustice to the Hindu community in Tandoghulam Ali Badin
-The hospital staff took a huge bribe from the criminals who kidnapped our daughters and handed over our 13-year-old innocent daughter #Hina to the accused as 19-year-old,which is complete cruelty and injustice
-Born on November 11, 2009</t>
   </si>
   <si>
     <t>case_56</t>
@@ -1353,6 +1295,282 @@
   </si>
   <si>
     <t>Khairpur</t>
+  </si>
+  <si>
+    <t>Rashid, Ashad s/o Saleh Muhammad</t>
+  </si>
+  <si>
+    <t>Sonu/Urmila Mehshwari’s age is established as 15 years old according to the medical report.
+The family hoped that a girl would be returned to them.
+She was abducted from Karachi on December 19, 2022.
+Another report mentions a different name for perpetrator - reason to believe there were more than one.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1620824942068776961</t>
+  </si>
+  <si>
+    <t>Rohri</t>
+  </si>
+  <si>
+    <t>Abid Ali Panjabi</t>
+  </si>
+  <si>
+    <t>Matli</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1620824942068776961/</t>
+  </si>
+  <si>
+    <t>d/o Tamil Bheel</t>
+  </si>
+  <si>
+    <t>M. Ahsan Machhi</t>
+  </si>
+  <si>
+    <t>Jamna</t>
+  </si>
+  <si>
+    <t>d/o Tolio Kolhi</t>
+  </si>
+  <si>
+    <t>Wazir Ali Machi</t>
+  </si>
+  <si>
+    <t>Ibrahim Mungreo and Panhun Mungreo, 1 more</t>
+  </si>
+  <si>
+    <t>Gang rape</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1617145239617118210?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ
+https://twitter.com/NarainDasBheel8/status/1620824942068776961/</t>
+  </si>
+  <si>
+    <t>d/o Ratan Bheel</t>
+  </si>
+  <si>
+    <t>d/o Haryo Kolhi</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ
+https://twitter.com/NarainDasBheel8/status/1620824942068776961/</t>
+  </si>
+  <si>
+    <t>d/o Narain Meghwar</t>
+  </si>
+  <si>
+    <t>Amir Ali Arisar, M. Azeem Khoso</t>
+  </si>
+  <si>
+    <t>Khipro Sanghar Sindh Pakistan 
+Lachmi d/o Jahman Das Meghwar, w/o Esir Das, found hanging in her home. 
+Esir went to Karachi for work…
+Another report mentions a different perpetrator - reason to believe there were multiple</t>
+  </si>
+  <si>
+    <t>case_57</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>Abdul Rahoof, Riyaz</t>
+  </si>
+  <si>
+    <t>case_58</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>Sattar, Asif</t>
+  </si>
+  <si>
+    <t>case_59</t>
+  </si>
+  <si>
+    <t>a father of seven children Muslim Man</t>
+  </si>
+  <si>
+    <t>Kunri Umarkot Sindh:
+ A few days ago, a father of seven children Muslim Man abducted a 16-year-old Hindu Meghwar girl from a village near Kunri city and took her with the intention of converting her religion and marrying her.
+ #SaveMinoritiesGirls
+#StopForcedConversions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1590318807612284928?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>case_60</t>
+  </si>
+  <si>
+    <t>w/o Natho Meghwar</t>
+  </si>
+  <si>
+    <t>Sanghar Sindh:
+In late night  Mashooque Javed and Bolu entered in the house of Hindu Natho Meghwar and tried to raped his wife or resit they beaten poor Nathu and his wife with sticks when she resisted.</t>
+  </si>
+  <si>
+    <t>Mashooque Javed, Bolu</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1590198856494419968?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>case_61</t>
+  </si>
+  <si>
+    <t>Tando Ghulam Ali: cases of abduction of minor Hindu girls #Nisha and #Hina have been closed due to false police reports and false challans.The girls have been handed over to kidnappers in Sindh.The Hindu community continues to face injustice and cruelty,but the government,courts.
+On October 14 Hina Kolhi, a resident of Khosa Colony of Tando Ghulam Ali, was kidnapped, forcibly converted to Islam, and married to one Mustafa Dahokar.
+Cruelty and injustice to the Hindu community in Tandoghulam Ali Badin
+The hospital staff took a huge bribe from the criminals who kidnapped our daughters and handed over our 13-year-old innocent daughter #Hina to the accused as 19-year-old,which is complete cruelty and injustice
+Born on November 11, 2009
+Tando Ghulam Ali Badin Sindh:
+FIR has been registered against abduction of two minor Sindhi Hindu girls, 11-year-old Nisha Kolhi and 13-year-old Hina Kolhi, who were abducted from Tando Ghulam Ali.</t>
+  </si>
+  <si>
+    <t>Tando Ghulam Ali: cases of abduction of minor Hindu girls #Nisha and #Hina have been closed due to false police reports and false challans.The girls have been handed over to kidnappers in Sindh.The Hindu community continues to face injustice and cruelty,but the government,courts.
+Tando Ghulam Ali Badin Sindh:
+FIR has been registered against abduction of two minor Sindhi Hindu girls, 11-year-old Nisha Kolhi and 13-year-old Hina Kolhi, who were abducted from Tando Ghulam Ali.
+Born on Nov 11, 2011</t>
+  </si>
+  <si>
+    <t>Karampur Sindh:
+A few days ago,the resident of Gehe Mahalla Karampur who mysteriously disappeared #Hindu Girl #Anusha daughter Sarvanand,
+Mian Javed Ahmad Qadri, has changed her religion.There are reports of marriage with Muslim Man after conversion</t>
+  </si>
+  <si>
+    <t>d/o Sarvanand</t>
+  </si>
+  <si>
+    <t>Gehe Mahalla, Karampur</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg
+https://twitter.com/NarainDasBheel8/status/1589679365151162368?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>Ghulam Murtaza Lashari</t>
+  </si>
+  <si>
+    <t>Pir Jan Agha Jan Sarhandi</t>
+  </si>
+  <si>
+    <t>Samaro Dargah</t>
+  </si>
+  <si>
+    <t>Amnah/Amina</t>
+  </si>
+  <si>
+    <t>d/o Kodo Bheel</t>
+  </si>
+  <si>
+    <t>02-11-2022 Kot Ghulam Mohammad Mirpurkhas Sindh:
+Wagherjii resident #Hindu woman Amiyan Kolhi converted into Islam and married to Naseem S/O Wahid Lagari.
+Married to Naseem on November 2, 2022</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1588084668078997506?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg
+http://fb.watch/fWwJnc76yF/
+https://twitter.com/NarainDasBheel8/status/1586539869404381185?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>29 Oct '22 Sagir Colony, Jhuddo, Mirpurkhas, Sindh:
+Hindu girl Guddi Kohli abducted, Sufi Pir Ayub Jan Sarhandi Dargah was forcibly changed in Samaro and married to kidnapper Gul Thahim.
+ Qaumi News Pakistan</t>
+  </si>
+  <si>
+    <t>Pir Ayub Jan Sarhandi Dargah</t>
+  </si>
+  <si>
+    <t>Ali Hasan Lashari Baloch</t>
+  </si>
+  <si>
+    <t>Pir Bharchundi Sharif Dargah</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg
+https://twitter.com/NarainDasBheel8/status/1586537431087685635?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>Chhachro Tharparkar Sindh
+A dead body of #Hindu women Dhiya Bheel found in water well.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1586392612021207040?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>Chhachro</t>
+  </si>
+  <si>
+    <t>Dhiya</t>
+  </si>
+  <si>
+    <t>case_62</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1584633428208939008?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>13-10-2022 kunri Umerkot Sindh:
+Syed Ghanur Shah, a married 22-year-old young Hindu woman, Raave w/o Dhanji Kolhi, dead body has been recovered from her house.
+#SaveMinoritiesInPakistan</t>
+  </si>
+  <si>
+    <t>Raave</t>
+  </si>
+  <si>
+    <t>w/o Dhanji Kolhi</t>
+  </si>
+  <si>
+    <t>case_63</t>
+  </si>
+  <si>
+    <t>Chhachro Tharparkar Sindh :
+The body of 19-year-old Hindu Manisha Meghwar, a young woman, was recovered from a well in Ririado village.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1584630296908951552?s=20&amp;t=eFsnFAdyEXqFSa0JLbCyJQ</t>
+  </si>
+  <si>
+    <t>case_64</t>
+  </si>
+  <si>
+    <t>Bahwalpur</t>
+  </si>
+  <si>
+    <t>Chak 108, Yazman Mandi</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1576598638230441985?s=20&amp;t=IdJzbEvQHvaB5ORKnVHZ_g</t>
+  </si>
+  <si>
+    <t>Kulsoom Bai</t>
+  </si>
+  <si>
+    <t>10 September 2022
+Yazman, Bahawalpur Punjab Pakistan,
+Kulsoom Mai, a Hindu woman was hanged upside down undressed, tortured and raped for just asking for asking labour,
+6-7 men were involved</t>
+  </si>
+  <si>
+    <t>Hanged upside down undressed, tortured and raped</t>
+  </si>
+  <si>
+    <t>d/o Maru Bheel</t>
+  </si>
+  <si>
+    <t>December, 2021</t>
+  </si>
+  <si>
+    <t>Mian Mithoo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1612031515785072643?s=20&amp;t=37g10exefm4l7cU-JhUmkg
+https://twitter.com/voice_minority/status/1347411421932494851?s=20&amp;t=Z5hu76J6UO7-KqG7vnfo7A</t>
   </si>
 </sst>
 </file>
@@ -1749,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1761,6 +1979,7 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="39" customWidth="1"/>
+    <col min="36" max="36" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -1801,7 +2020,7 @@
         <v>30</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>45</v>
@@ -1858,7 +2077,7 @@
         <v>14</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>15</v>
@@ -1991,7 +2210,7 @@
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>409</v>
       </c>
       <c r="M3">
         <v>11</v>
@@ -2026,8 +2245,8 @@
       <c r="AI3" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>60</v>
+      <c r="AJ3" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="AL3" t="s">
         <v>24</v>
@@ -2035,10 +2254,10 @@
     </row>
     <row r="4" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2056,10 +2275,10 @@
         <v>44887</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -2071,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI4" t="s">
         <v>21</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AL4" t="s">
         <v>24</v>
@@ -2088,7 +2307,7 @@
     </row>
     <row r="5" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -2100,31 +2319,31 @@
         <v>44954</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AI5" t="s">
         <v>21</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="s">
         <v>24</v>
@@ -2132,13 +2351,13 @@
     </row>
     <row r="6" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -2153,16 +2372,16 @@
         <v>44952</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="N6">
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -2177,22 +2396,25 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AI6" t="s">
         <v>21</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="AL6" t="s">
         <v>24</v>
@@ -2200,13 +2422,13 @@
     </row>
     <row r="7" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -2221,7 +2443,7 @@
         <v>44948</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -2233,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s">
         <v>21</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s">
         <v>24</v>
@@ -2247,10 +2469,10 @@
     </row>
     <row r="8" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -2274,10 +2496,10 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -2292,21 +2514,21 @@
         <v>1</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s">
         <v>21</v>
       </c>
       <c r="AJ8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" t="s">
         <v>87</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -2320,14 +2542,14 @@
       <c r="F9">
         <v>69.737735412018196</v>
       </c>
-      <c r="G9" s="2">
-        <v>44545</v>
+      <c r="G9" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
@@ -2336,33 +2558,33 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI9" t="s">
         <v>21</v>
       </c>
       <c r="AJ9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL9" t="s">
         <v>94</v>
-      </c>
-      <c r="AK9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -2380,19 +2602,19 @@
         <v>45285</v>
       </c>
       <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
         <v>102</v>
-      </c>
-      <c r="P10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
-        <v>103</v>
       </c>
       <c r="Y10" t="b">
         <v>1</v>
@@ -2413,30 +2635,30 @@
         <v>1</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s">
         <v>21</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -2451,16 +2673,16 @@
         <v>44909</v>
       </c>
       <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>411</v>
+      </c>
+      <c r="P11" t="s">
         <v>108</v>
       </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>109</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -2469,22 +2691,22 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="AB11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>114</v>
+        <v>413</v>
       </c>
       <c r="AI11" t="s">
         <v>21</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s">
         <v>24</v>
@@ -2492,28 +2714,37 @@
     </row>
     <row r="12" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
+      <c r="E12">
+        <v>25.306425978254399</v>
+      </c>
+      <c r="F12">
+        <v>69.455883963308693</v>
+      </c>
       <c r="G12" s="2">
         <v>44947</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T12" t="b">
         <v>1</v>
@@ -2522,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="Y12" t="b">
         <v>1</v>
@@ -2540,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AI12" t="s">
         <v>21</v>
       </c>
-      <c r="AJ12" s="3" t="s">
-        <v>122</v>
+      <c r="AJ12" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s">
         <v>24</v>
@@ -2557,13 +2788,13 @@
     </row>
     <row r="13" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -2577,11 +2808,14 @@
       <c r="G13" s="2">
         <v>44942</v>
       </c>
+      <c r="I13" t="s">
+        <v>402</v>
+      </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R13" t="b">
         <v>1</v>
@@ -2590,13 +2824,13 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AB13" t="b">
         <v>1</v>
@@ -2611,13 +2845,16 @@
         <v>1</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AI13" t="s">
         <v>21</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="AL13" t="s">
         <v>24</v>
@@ -2625,10 +2862,10 @@
     </row>
     <row r="14" spans="1:38" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -2646,19 +2883,19 @@
         <v>44923</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -2673,16 +2910,16 @@
         <v>1</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AI14" t="s">
         <v>21</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s">
         <v>24</v>
@@ -2690,13 +2927,13 @@
     </row>
     <row r="15" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -2708,16 +2945,16 @@
         <v>69.411348052444694</v>
       </c>
       <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" t="s">
         <v>138</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>145</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -2732,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="b">
         <v>1</v>
@@ -2741,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AI15" t="s">
         <v>21</v>
       </c>
       <c r="AJ15" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s">
         <v>24</v>
@@ -2755,13 +2992,13 @@
     </row>
     <row r="16" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -2776,7 +3013,7 @@
         <v>44934</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
         <v>33</v>
@@ -2788,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R16" t="b">
         <v>1</v>
@@ -2797,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="b">
         <v>1</v>
@@ -2815,27 +3052,27 @@
         <v>1</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AI16" t="s">
         <v>21</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2850,16 +3087,16 @@
         <v>68.660286746199205</v>
       </c>
       <c r="G17" s="2">
-        <v>44848</v>
+        <v>44852</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M17">
         <v>13</v>
@@ -2868,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
@@ -2880,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Y17" t="b">
         <v>1</v>
@@ -2898,27 +3135,27 @@
         <v>1</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="AI17" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>328</v>
+        <v>147</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="AL17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="238" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="255" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2933,16 +3170,16 @@
         <v>68.660286746199205</v>
       </c>
       <c r="G18" s="2">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K18" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M18">
         <v>11</v>
@@ -2951,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
@@ -2960,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Y18" t="b">
         <v>1</v>
@@ -2978,13 +3215,13 @@
         <v>1</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="AI18" t="s">
         <v>21</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AL18" t="s">
         <v>24</v>
@@ -2992,10 +3229,10 @@
     </row>
     <row r="19" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -3013,16 +3250,16 @@
         <v>44921</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Q19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -3031,33 +3268,33 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>166</v>
+        <v>401</v>
       </c>
       <c r="AD19" t="b">
         <v>1</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AI19" t="s">
         <v>21</v>
       </c>
       <c r="AJ19" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AL19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -3072,22 +3309,22 @@
         <v>44914</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M20">
         <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
@@ -3096,25 +3333,28 @@
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="Y20" t="b">
         <v>1</v>
       </c>
       <c r="AB20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="b">
         <v>1</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="AI20" t="s">
         <v>21</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="AL20" t="s">
         <v>24</v>
@@ -3122,13 +3362,13 @@
     </row>
     <row r="21" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -3143,10 +3383,10 @@
         <v>44784</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q21" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T21" t="b">
         <v>1</v>
@@ -3161,13 +3401,13 @@
         <v>1</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AI21" t="s">
         <v>21</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AL21" t="s">
         <v>24</v>
@@ -3175,16 +3415,16 @@
     </row>
     <row r="22" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E22">
         <v>29.5557738233809</v>
@@ -3193,34 +3433,37 @@
         <v>67.882346988242901</v>
       </c>
       <c r="G22" s="2">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q22" t="s">
+        <v>171</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
         <v>180</v>
       </c>
-      <c r="T22" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" t="s">
-        <v>190</v>
-      </c>
       <c r="Y22" t="b">
         <v>1</v>
       </c>
       <c r="Z22" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>470</v>
       </c>
       <c r="AB22" t="b">
         <v>1</v>
@@ -3232,16 +3475,16 @@
         <v>1</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AI22" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="3" t="s">
-        <v>188</v>
+      <c r="AJ22" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s">
         <v>24</v>
@@ -3249,13 +3492,13 @@
     </row>
     <row r="23" spans="1:38" ht="238" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -3270,19 +3513,19 @@
         <v>44933</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3291,22 +3534,22 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Y23" t="b">
         <v>0</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AI23" t="s">
         <v>21</v>
       </c>
       <c r="AJ23" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s">
         <v>24</v>
@@ -3314,13 +3557,13 @@
     </row>
     <row r="24" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -3335,16 +3578,16 @@
         <v>44933</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="T24" t="b">
         <v>1</v>
@@ -3353,22 +3596,22 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="b">
         <v>0</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AI24" t="s">
         <v>21</v>
       </c>
       <c r="AJ24" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AL24" t="s">
         <v>24</v>
@@ -3376,13 +3619,13 @@
     </row>
     <row r="25" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -3397,16 +3640,16 @@
         <v>44933</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q25" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="T25" t="b">
         <v>1</v>
@@ -3415,22 +3658,22 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Y25" t="b">
         <v>0</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AI25" t="s">
         <v>21</v>
       </c>
       <c r="AJ25" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AL25" t="s">
         <v>24</v>
@@ -3438,13 +3681,13 @@
     </row>
     <row r="26" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -3459,10 +3702,10 @@
         <v>44667</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M26">
         <v>14</v>
@@ -3471,10 +3714,10 @@
         <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R26" t="b">
         <v>1</v>
@@ -3483,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
       </c>
       <c r="Z26" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB26" t="b">
         <v>1</v>
@@ -3507,16 +3750,16 @@
         <v>1</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AI26" t="s">
         <v>21</v>
       </c>
       <c r="AJ26" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s">
         <v>24</v>
@@ -3524,40 +3767,40 @@
     </row>
     <row r="27" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="E27">
-        <v>24.923381663278999</v>
+        <v>25.043130075080299</v>
       </c>
       <c r="F27">
-        <v>67.087889698241199</v>
+        <v>68.658763445378696</v>
       </c>
       <c r="G27" s="2">
         <v>44932</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M27">
         <v>14</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R27" t="b">
         <v>1</v>
@@ -3565,17 +3808,23 @@
       <c r="T27" t="b">
         <v>1</v>
       </c>
+      <c r="W27" t="s">
+        <v>397</v>
+      </c>
       <c r="Y27" t="b">
         <v>1</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AI27" t="s">
         <v>21</v>
       </c>
       <c r="AJ27" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="AL27" t="s">
         <v>24</v>
@@ -3583,10 +3832,10 @@
     </row>
     <row r="28" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -3604,22 +3853,22 @@
         <v>44931</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M28">
         <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AB28" t="b">
         <v>1</v>
@@ -3628,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AI28" t="s">
         <v>21</v>
       </c>
       <c r="AJ28" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s">
         <v>24</v>
@@ -3642,31 +3891,46 @@
     </row>
     <row r="29" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>27.686786422891</v>
+      </c>
+      <c r="F29">
+        <v>68.893456329401502</v>
       </c>
       <c r="G29" s="2">
         <v>44930</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="N29">
         <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q29" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3678,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="Z29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AB29" t="b">
         <v>1</v>
@@ -3693,13 +3957,16 @@
         <v>1</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AI29" t="s">
         <v>21</v>
       </c>
       <c r="AJ29" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="AL29" t="s">
         <v>24</v>
@@ -3707,13 +3974,13 @@
     </row>
     <row r="30" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -3728,10 +3995,10 @@
         <v>44915</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M30">
         <v>13</v>
@@ -3740,10 +4007,10 @@
         <v>13</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q30" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
@@ -3752,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Y30" t="b">
         <v>1</v>
@@ -3767,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AI30" t="s">
         <v>21</v>
       </c>
       <c r="AJ30" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s">
         <v>24</v>
@@ -3781,16 +4048,16 @@
     </row>
     <row r="31" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E31">
         <v>28.260044969103699</v>
@@ -3802,16 +4069,16 @@
         <v>44918</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q31" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
@@ -3820,25 +4087,25 @@
         <v>1</v>
       </c>
       <c r="Z31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="AC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="AI31" t="s">
         <v>21</v>
       </c>
       <c r="AJ31" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s">
         <v>24</v>
@@ -3846,10 +4113,10 @@
     </row>
     <row r="32" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -3864,22 +4131,22 @@
         <v>44915</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q32" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="b">
         <v>1</v>
       </c>
       <c r="Z32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AC32" t="b">
         <v>1</v>
@@ -3888,13 +4155,13 @@
         <v>1</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AI32" t="s">
         <v>21</v>
       </c>
       <c r="AJ32" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AL32" t="s">
         <v>24</v>
@@ -3902,13 +4169,13 @@
     </row>
     <row r="33" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -3923,13 +4190,13 @@
         <v>44785</v>
       </c>
       <c r="H33" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M33">
         <v>13</v>
@@ -3938,10 +4205,10 @@
         <v>18</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R33" t="b">
         <v>1</v>
@@ -3956,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -3977,16 +4244,16 @@
         <v>1</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AI33" t="s">
         <v>21</v>
       </c>
       <c r="AJ33" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AL33" t="s">
         <v>24</v>
@@ -3994,13 +4261,13 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -4015,7 +4282,7 @@
         <v>44854</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
         <v>33</v>
@@ -4024,10 +4291,10 @@
         <v>14</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q34" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R34" t="b">
         <v>1</v>
@@ -4036,16 +4303,16 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
       </c>
       <c r="Z34" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AA34" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AC34" t="b">
         <v>1</v>
@@ -4060,24 +4327,24 @@
         <v>1</v>
       </c>
       <c r="AI34" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AJ34" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -4092,25 +4359,25 @@
         <v>44853</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M35">
         <v>17</v>
       </c>
       <c r="O35" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R35" t="b">
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AD35" t="b">
         <v>1</v>
@@ -4122,24 +4389,24 @@
         <v>1</v>
       </c>
       <c r="AI35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -4154,25 +4421,25 @@
         <v>44853</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M36">
         <v>18</v>
       </c>
       <c r="O36" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R36" t="b">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AD36" t="b">
         <v>1</v>
@@ -4184,21 +4451,21 @@
         <v>1</v>
       </c>
       <c r="AI36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AJ36" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AL36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -4210,13 +4477,13 @@
         <v>68.542726879871694</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J37" t="s">
         <v>33</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R37" t="b">
         <v>0</v>
@@ -4225,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AD37" t="b">
         <v>1</v>
@@ -4237,27 +4504,27 @@
         <v>1</v>
       </c>
       <c r="AH37" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AI37" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ37" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -4269,45 +4536,45 @@
         <v>67.726593792750194</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="T38" t="b">
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AD38" t="b">
         <v>1</v>
       </c>
       <c r="AH38" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AI38" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -4319,7 +4586,7 @@
         <v>70.177657039311001</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
@@ -4328,30 +4595,30 @@
         <v>14</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AD39" t="b">
         <v>1</v>
       </c>
       <c r="AI39" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ39" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL39" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -4363,33 +4630,33 @@
         <v>69.043115588859393</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AD40" t="b">
         <v>1</v>
       </c>
       <c r="AI40" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL40" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -4401,33 +4668,33 @@
         <v>69.043115588859393</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AD41" t="b">
         <v>1</v>
       </c>
       <c r="AI41" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ41" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL41" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -4442,7 +4709,7 @@
         <v>44904</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
         <v>56</v>
@@ -4451,7 +4718,7 @@
         <v>15</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R42" t="b">
         <v>1</v>
@@ -4460,19 +4727,19 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AD42" t="b">
         <v>1</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AI42" t="s">
         <v>21</v>
       </c>
       <c r="AJ42" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s">
         <v>24</v>
@@ -4480,10 +4747,10 @@
     </row>
     <row r="43" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -4501,16 +4768,16 @@
         <v>44904</v>
       </c>
       <c r="I43" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q43" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
@@ -4525,13 +4792,13 @@
         <v>1</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AI43" t="s">
         <v>21</v>
       </c>
       <c r="AJ43" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AL43" t="s">
         <v>24</v>
@@ -4539,10 +4806,10 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -4557,13 +4824,13 @@
         <v>44900</v>
       </c>
       <c r="I44" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R44" t="b">
         <v>0</v>
@@ -4578,13 +4845,13 @@
         <v>1</v>
       </c>
       <c r="AH44" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AI44" t="s">
         <v>21</v>
       </c>
       <c r="AJ44" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AL44" t="s">
         <v>24</v>
@@ -4592,10 +4859,10 @@
     </row>
     <row r="45" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -4613,16 +4880,16 @@
         <v>44891</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J45" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q45" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="S45" t="b">
         <v>1</v>
@@ -4634,13 +4901,13 @@
         <v>1</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AI45" t="s">
         <v>21</v>
       </c>
       <c r="AJ45" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s">
         <v>24</v>
@@ -4648,13 +4915,13 @@
     </row>
     <row r="46" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -4669,16 +4936,16 @@
         <v>44891</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J46" t="s">
         <v>33</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R46" t="b">
         <v>0</v>
@@ -4702,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AI46" t="s">
         <v>21</v>
       </c>
       <c r="AJ46" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AL46" t="s">
         <v>24</v>
@@ -4716,10 +4983,10 @@
     </row>
     <row r="47" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>39</v>
@@ -4737,16 +5004,16 @@
         <v>44890</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R47" t="b">
         <v>0</v>
@@ -4761,10 +5028,10 @@
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W47" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Y47" t="b">
         <v>1</v>
@@ -4776,13 +5043,13 @@
         <v>1</v>
       </c>
       <c r="AH47" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AI47" t="s">
         <v>21</v>
       </c>
       <c r="AJ47" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AL47" t="s">
         <v>24</v>
@@ -4790,13 +5057,13 @@
     </row>
     <row r="48" spans="1:38" ht="170" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -4808,29 +5075,29 @@
         <v>69.806400998791403</v>
       </c>
       <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA48" t="s">
         <v>346</v>
       </c>
-      <c r="J48" t="s">
-        <v>76</v>
-      </c>
-      <c r="P48" t="s">
-        <v>155</v>
-      </c>
-      <c r="T48" t="b">
-        <v>1</v>
-      </c>
-      <c r="W48" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>357</v>
-      </c>
       <c r="AB48" t="b">
         <v>1</v>
       </c>
@@ -4841,16 +5108,16 @@
         <v>1</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AI48" t="s">
         <v>21</v>
       </c>
       <c r="AJ48" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AK48" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AL48" t="s">
         <v>24</v>
@@ -4858,10 +5125,10 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -4876,22 +5143,25 @@
         <v>69.377192279353196</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>351</v>
+        <v>439</v>
+      </c>
+      <c r="L49" t="s">
+        <v>378</v>
       </c>
       <c r="M49">
         <v>17</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q49" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R49" t="b">
         <v>1</v>
@@ -4899,10 +5169,22 @@
       <c r="T49" t="b">
         <v>1</v>
       </c>
+      <c r="W49" t="s">
+        <v>436</v>
+      </c>
       <c r="Y49" t="b">
         <v>1</v>
       </c>
+      <c r="Z49" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>437</v>
+      </c>
       <c r="AB49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="b">
         <v>1</v>
       </c>
       <c r="AD49" t="b">
@@ -4912,21 +5194,21 @@
         <v>21</v>
       </c>
       <c r="AJ49" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AL49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
@@ -4938,19 +5220,19 @@
         <v>69.294060335015104</v>
       </c>
       <c r="G50" s="2">
-        <v>44831</v>
+        <v>44863</v>
       </c>
       <c r="I50" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q50" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R50" t="b">
         <v>1</v>
@@ -4959,36 +5241,48 @@
         <v>1</v>
       </c>
       <c r="W50" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="Y50" t="b">
         <v>1</v>
       </c>
+      <c r="Z50" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>445</v>
+      </c>
       <c r="AB50" t="b">
         <v>1</v>
       </c>
+      <c r="AC50" t="b">
+        <v>1</v>
+      </c>
       <c r="AD50" t="b">
         <v>1</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="AI50" t="s">
         <v>21</v>
       </c>
       <c r="AJ50" s="5" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="AL50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
@@ -4999,23 +5293,26 @@
       <c r="F51">
         <v>68.951911936509504</v>
       </c>
+      <c r="G51" s="2">
+        <v>44867</v>
+      </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
         <v>56</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q51" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T51" t="b">
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Y51" t="b">
         <v>1</v>
@@ -5025,12 +5322,18 @@
       </c>
       <c r="AD51" t="b">
         <v>1</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="AI51" t="s">
         <v>21</v>
       </c>
       <c r="AJ51" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="AK51" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="AL51" t="s">
         <v>24</v>
@@ -5038,13 +5341,13 @@
     </row>
     <row r="52" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
@@ -5059,22 +5362,22 @@
         <v>44886</v>
       </c>
       <c r="I52" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J52" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q52" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T52" t="b">
         <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Y52" t="b">
         <v>1</v>
@@ -5086,30 +5389,30 @@
         <v>1</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AI52" t="s">
         <v>21</v>
       </c>
       <c r="AJ52" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
         <v>36</v>
@@ -5121,26 +5424,29 @@
         <v>69.180585555158899</v>
       </c>
       <c r="I53" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q53" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T53" t="b">
         <v>1</v>
       </c>
       <c r="W53" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="Y53" t="b">
         <v>1</v>
       </c>
+      <c r="Z53" t="s">
+        <v>447</v>
+      </c>
       <c r="AB53" t="b">
         <v>1</v>
       </c>
@@ -5148,27 +5454,27 @@
         <v>1</v>
       </c>
       <c r="AH53" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AI53" t="s">
         <v>21</v>
       </c>
-      <c r="AJ53" s="3" t="s">
-        <v>347</v>
+      <c r="AJ53" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="AL53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="C54" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
@@ -5180,13 +5486,16 @@
         <v>67.845934573462898</v>
       </c>
       <c r="I54" t="s">
-        <v>388</v>
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q54" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T54" t="b">
         <v>1</v>
@@ -5195,19 +5504,22 @@
         <v>1</v>
       </c>
       <c r="AA54" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AC54" t="b">
         <v>1</v>
       </c>
       <c r="AD54" t="b">
         <v>1</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="AI54" t="s">
         <v>21</v>
       </c>
-      <c r="AJ54" s="3" t="s">
-        <v>347</v>
+      <c r="AJ54" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="AL54" t="s">
         <v>24</v>
@@ -5215,13 +5527,13 @@
     </row>
     <row r="55" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
         <v>36</v>
@@ -5236,28 +5548,28 @@
         <v>44850</v>
       </c>
       <c r="I55" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q55" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T55" t="b">
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="Y55" t="b">
         <v>1</v>
@@ -5266,16 +5578,16 @@
         <v>1</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AI55" t="s">
         <v>21</v>
       </c>
       <c r="AJ55" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AK55" s="3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="AL55" t="s">
         <v>24</v>
@@ -5283,13 +5595,13 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s">
         <v>36</v>
@@ -5307,10 +5619,10 @@
         <v>33</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q56" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T56" t="b">
         <v>1</v>
@@ -5325,7 +5637,7 @@
         <v>21</v>
       </c>
       <c r="AJ56" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AL56" t="s">
         <v>24</v>
@@ -5333,13 +5645,13 @@
     </row>
     <row r="57" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
         <v>36</v>
@@ -5354,37 +5666,419 @@
         <v>44848</v>
       </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J57" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q57" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
       </c>
       <c r="AD57" t="b">
         <v>1</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AI57" t="s">
         <v>21</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>163</v>
+      </c>
+      <c r="W58" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s">
+        <v>418</v>
+      </c>
+      <c r="J59" t="s">
+        <v>163</v>
+      </c>
+      <c r="W59" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>25.180609689283699</v>
+      </c>
+      <c r="F60">
+        <v>69.562032999241197</v>
+      </c>
+      <c r="G60" s="2">
+        <v>44874</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>171</v>
+      </c>
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>26.0444107003479</v>
+      </c>
+      <c r="F61">
+        <v>68.948457779214607</v>
+      </c>
+      <c r="G61" s="2">
+        <v>44873</v>
+      </c>
+      <c r="J61" t="s">
+        <v>425</v>
+      </c>
+      <c r="P61" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>129</v>
+      </c>
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>451</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62">
+        <v>25.115936213732201</v>
+      </c>
+      <c r="F62">
+        <v>70.256023730442294</v>
+      </c>
+      <c r="G62" s="2">
+        <v>44863</v>
+      </c>
+      <c r="I62" t="s">
+        <v>452</v>
+      </c>
+      <c r="J62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" t="s">
+        <v>108</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>25.180920386050101</v>
+      </c>
+      <c r="F63">
+        <v>69.561775507194994</v>
+      </c>
+      <c r="G63" s="2">
+        <v>44847</v>
+      </c>
+      <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
+        <v>457</v>
+      </c>
+      <c r="N63">
+        <v>22</v>
+      </c>
+      <c r="P63" t="s">
+        <v>108</v>
+      </c>
+      <c r="S63" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>25.115936213732201</v>
+      </c>
+      <c r="F64">
+        <v>70.256023730442294</v>
+      </c>
+      <c r="G64" s="2">
+        <v>44858</v>
+      </c>
+      <c r="I64" t="s">
+        <v>415</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64">
+        <v>19</v>
+      </c>
+      <c r="P64" t="s">
+        <v>108</v>
+      </c>
+      <c r="S64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" t="s">
+        <v>463</v>
+      </c>
+      <c r="C65" t="s">
+        <v>462</v>
+      </c>
+      <c r="D65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65">
+        <v>29.101389427692101</v>
+      </c>
+      <c r="F65">
+        <v>71.647138525426101</v>
+      </c>
+      <c r="G65" s="2">
+        <v>44814</v>
+      </c>
+      <c r="I65" t="s">
+        <v>465</v>
+      </c>
+      <c r="P65" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>109</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL56" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AL65" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
-    <hyperlink ref="AJ3" r:id="rId1" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
+    <hyperlink ref="AJ3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AJ4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
     <hyperlink ref="AJ5" r:id="rId3" xr:uid="{A7CB8724-DE61-7B49-850A-BBE20429E8E4}"/>
     <hyperlink ref="AJ6" r:id="rId4" xr:uid="{683C164F-92E3-8E47-9259-7AA4246BF544}"/>
@@ -5394,7 +6088,7 @@
     <hyperlink ref="AK9" r:id="rId8" xr:uid="{A2F11EA9-22B8-194C-ABB5-3FF508FA2A76}"/>
     <hyperlink ref="AJ10" r:id="rId9" xr:uid="{180303AC-33CE-414E-87CD-8E0A43BCAE77}"/>
     <hyperlink ref="AJ11" r:id="rId10" xr:uid="{692DAE26-8BE0-1A4E-833A-A04B95428029}"/>
-    <hyperlink ref="AJ12" r:id="rId11" xr:uid="{1A7C0ADC-15DF-524C-931F-E59788F5DC8B}"/>
+    <hyperlink ref="AJ12" r:id="rId11" display="https://twitter.com/NarainDasBheel8/status/1617145239617118210?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{1A7C0ADC-15DF-524C-931F-E59788F5DC8B}"/>
     <hyperlink ref="AK12" r:id="rId12" xr:uid="{F29BD285-0258-2D4E-BBDE-077B602C3270}"/>
     <hyperlink ref="AJ13" r:id="rId13" xr:uid="{FF7D4B4B-CE95-284B-A5C5-A96B8A0041A2}"/>
     <hyperlink ref="AJ14" r:id="rId14" xr:uid="{DF133C59-454E-8F49-B1D5-5950F767A95D}"/>
@@ -5407,7 +6101,7 @@
     <hyperlink ref="AJ19" r:id="rId21" xr:uid="{26BE1506-3D2F-7544-86B5-1D44633BF9DD}"/>
     <hyperlink ref="AJ20" r:id="rId22" xr:uid="{1A763510-0993-6849-8881-3659C0A38EA6}"/>
     <hyperlink ref="AJ21" r:id="rId23" xr:uid="{7DD21854-B1C0-2D43-9317-18B94B8D98D5}"/>
-    <hyperlink ref="AJ22" r:id="rId24" xr:uid="{73DD6798-87F4-7649-B407-4D4CE7BDCAF2}"/>
+    <hyperlink ref="AJ22" r:id="rId24" display="https://twitter.com/NarainDasBheel8/status/1612031515785072643?s=20&amp;t=37g10exefm4l7cU-JhUmkg" xr:uid="{73DD6798-87F4-7649-B407-4D4CE7BDCAF2}"/>
     <hyperlink ref="AK22" r:id="rId25" xr:uid="{E1077AC5-401D-CA4D-9C92-492C739D656C}"/>
     <hyperlink ref="AJ23" r:id="rId26" xr:uid="{F38FF6A6-8217-4240-BCF8-AFC9EB6B3F72}"/>
     <hyperlink ref="AK23" r:id="rId27" display="https://twitter.com/NarainDasBheel8/status/1610857790909648900?s=20&amp;t=37g10exefm4l7cU-JhUmkg" xr:uid="{23B64387-AA48-5248-A8CB-797ECD2D1DF9}"/>
@@ -5446,13 +6140,27 @@
     <hyperlink ref="AK48" r:id="rId60" xr:uid="{63A5FDA6-95A9-5649-9C92-534C998A6E6C}"/>
     <hyperlink ref="AJ52" r:id="rId61" xr:uid="{7C6683F3-99F4-D941-AF2F-B0A6AD052FC1}"/>
     <hyperlink ref="AK52" r:id="rId62" xr:uid="{9A9D1F5C-76AE-D840-AB09-418DA5D6D903}"/>
-    <hyperlink ref="AJ53" r:id="rId63" xr:uid="{D33B5C6B-0882-5040-84AF-5BDA1BBD5AC4}"/>
+    <hyperlink ref="AJ53" r:id="rId63" display="https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg" xr:uid="{D33B5C6B-0882-5040-84AF-5BDA1BBD5AC4}"/>
     <hyperlink ref="AK33" r:id="rId64" xr:uid="{1BA1533D-E75D-994D-890C-32EBAF2A4018}"/>
-    <hyperlink ref="AJ54" r:id="rId65" xr:uid="{D2BB9451-3364-1045-A6A4-D8E69777A81F}"/>
+    <hyperlink ref="AJ54" r:id="rId65" display="https://twitter.com/NarainDasBheel8/status/1595317492171345921?s=20&amp;t=37g10exefm4l7cU-JhUmkg" xr:uid="{D2BB9451-3364-1045-A6A4-D8E69777A81F}"/>
     <hyperlink ref="AK55" r:id="rId66" xr:uid="{7CD51FFE-2865-C24F-9A8E-EB416AF4CCB1}"/>
     <hyperlink ref="AJ55" r:id="rId67" xr:uid="{C8A2366A-AB63-334D-BC85-63BB4625E1AD}"/>
     <hyperlink ref="AJ56" r:id="rId68" xr:uid="{63404FAC-1C8A-4543-B7FA-9939801864E0}"/>
     <hyperlink ref="AJ57" r:id="rId69" xr:uid="{FC0391D8-5F1A-C545-9994-D93F3B49CA98}"/>
+    <hyperlink ref="AK20" r:id="rId70" xr:uid="{A3DAB126-38F8-1C44-97DD-6E5E5D3BAC5D}"/>
+    <hyperlink ref="AK27" r:id="rId71" xr:uid="{FEBA0A9A-7F5D-4841-9D24-2FB06AF772C6}"/>
+    <hyperlink ref="AK29" r:id="rId72" xr:uid="{1C508DB3-D6D2-EB45-90BA-AD0CCAAA56C6}"/>
+    <hyperlink ref="AK13" r:id="rId73" xr:uid="{C63A3578-87B4-684B-B9D0-E569DFFC9BD0}"/>
+    <hyperlink ref="AK6" r:id="rId74" xr:uid="{4CED7E55-F239-214D-85D9-B278CBEDFB1C}"/>
+    <hyperlink ref="AJ58" r:id="rId75" xr:uid="{5EC5D5E6-73FF-9749-A424-CD4DCB2D5882}"/>
+    <hyperlink ref="AJ59" r:id="rId76" xr:uid="{62278E1F-5271-CA4D-86FD-0871F5D61997}"/>
+    <hyperlink ref="AJ60" r:id="rId77" xr:uid="{37519BC1-99FF-9741-95AE-6A91816EE79B}"/>
+    <hyperlink ref="AJ61" r:id="rId78" xr:uid="{CEEE15E3-81F9-454A-B6EA-12B34FD88344}"/>
+    <hyperlink ref="AK51" r:id="rId79" xr:uid="{621D5B2A-41FF-9C4D-ACF8-39939AE84FF1}"/>
+    <hyperlink ref="AJ62" r:id="rId80" xr:uid="{6DB76745-48BF-1A41-9D1D-A7E34536349C}"/>
+    <hyperlink ref="AJ63" r:id="rId81" xr:uid="{6251C1C3-FA6F-9647-A588-734760DE1FFA}"/>
+    <hyperlink ref="AJ64" r:id="rId82" xr:uid="{D0821144-3AAE-034A-BFB2-18846C0A7AD9}"/>
+    <hyperlink ref="AJ65" r:id="rId83" xr:uid="{5BACCFC3-3E71-7440-926C-B6580C9AA540}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4F568-4816-A240-BD20-88608CF5D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4703E77F-15EE-5C48-9D90-9EC663053995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="492">
   <si>
     <t>city</t>
   </si>
@@ -1571,6 +1571,69 @@
   <si>
     <t>https://twitter.com/NarainDasBheel8/status/1612031515785072643?s=20&amp;t=37g10exefm4l7cU-JhUmkg
 https://twitter.com/voice_minority/status/1347411421932494851?s=20&amp;t=Z5hu76J6UO7-KqG7vnfo7A</t>
+  </si>
+  <si>
+    <t>case_65</t>
+  </si>
+  <si>
+    <t>Karishma</t>
+  </si>
+  <si>
+    <t>d/o Ramesh Bheel</t>
+  </si>
+  <si>
+    <t>Naukot</t>
+  </si>
+  <si>
+    <t>Kanwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer Ayoub Jaan Sarhandi </t>
+  </si>
+  <si>
+    <t>Naukot Mirpurkhas Sindh:
+18-2-2023 A minor Hindu girl Karishma d/o Ramesh Bheel, has been converted to Islam at gargha of peer Ayoub Jaan Sarhandi and became Kanwal, and now she will be married to the kidnapper.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1627272301275234304</t>
+  </si>
+  <si>
+    <t>case_66</t>
+  </si>
+  <si>
+    <t>Sohbatpur</t>
+  </si>
+  <si>
+    <t>Jaffarabad</t>
+  </si>
+  <si>
+    <t>Kumari d/o Bhag Chand</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Bibi</t>
+  </si>
+  <si>
+    <t>Amir Nawaz s/o Ali Nawaz</t>
+  </si>
+  <si>
+    <t>53501-0341993-5</t>
+  </si>
+  <si>
+    <t>53201-4229617-6</t>
+  </si>
+  <si>
+    <t>Another Pak Hindu minor girl Kanwal kumari abducted, converted to Islam &amp; forced into Nikah sl@very by abductor Amir Nawaz. Her Muslim name is Aisha Bibi. Another addition to statistics.
+Pakistan on ethnic cleansing spree of Hindus. Does anyone care?
+Source: Pak Hindu activists</t>
+  </si>
+  <si>
+    <t>https://twitter.com/pakistan_untold/status/1639300494245130242</t>
+  </si>
+  <si>
+    <t>Pakistan Untold</t>
   </si>
 </sst>
 </file>
@@ -1967,12 +2030,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AL65"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -3490,7 +3553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="238" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="221" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>185</v>
       </c>
@@ -6073,6 +6136,145 @@
       </c>
       <c r="AL65" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" t="s">
+        <v>475</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66">
+        <v>24.854103363133799</v>
+      </c>
+      <c r="F66">
+        <v>69.403801880405993</v>
+      </c>
+      <c r="G66" s="2">
+        <v>44975</v>
+      </c>
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>474</v>
+      </c>
+      <c r="K66" t="s">
+        <v>476</v>
+      </c>
+      <c r="N66">
+        <v>19</v>
+      </c>
+      <c r="P66" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>171</v>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" ht="170" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>480</v>
+      </c>
+      <c r="B67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" t="s">
+        <v>482</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67">
+        <v>28.517991037086102</v>
+      </c>
+      <c r="F67">
+        <v>68.543819106223594</v>
+      </c>
+      <c r="G67" s="2">
+        <v>43880</v>
+      </c>
+      <c r="H67" t="s">
+        <v>488</v>
+      </c>
+      <c r="I67" t="s">
+        <v>476</v>
+      </c>
+      <c r="J67" t="s">
+        <v>483</v>
+      </c>
+      <c r="K67" t="s">
+        <v>484</v>
+      </c>
+      <c r="L67" t="s">
+        <v>485</v>
+      </c>
+      <c r="P67" t="s">
+        <v>148</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="s">
+        <v>486</v>
+      </c>
+      <c r="X67" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6161,6 +6363,8 @@
     <hyperlink ref="AJ63" r:id="rId81" xr:uid="{6251C1C3-FA6F-9647-A588-734760DE1FFA}"/>
     <hyperlink ref="AJ64" r:id="rId82" xr:uid="{D0821144-3AAE-034A-BFB2-18846C0A7AD9}"/>
     <hyperlink ref="AJ65" r:id="rId83" xr:uid="{5BACCFC3-3E71-7440-926C-B6580C9AA540}"/>
+    <hyperlink ref="AJ66" r:id="rId84" xr:uid="{A7FC2155-852B-E34D-8C7A-1747F199DEF3}"/>
+    <hyperlink ref="AJ67" r:id="rId85" xr:uid="{E438BF62-D038-9A4B-9903-FE3E0C247D62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4703E77F-15EE-5C48-9D90-9EC663053995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D9668B-C0FF-474F-8A20-50913440E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="536">
   <si>
     <t>city</t>
   </si>
@@ -1634,6 +1634,169 @@
   </si>
   <si>
     <t>Pakistan Untold</t>
+  </si>
+  <si>
+    <t>case_67</t>
+  </si>
+  <si>
+    <t>Soorath D/o Chandiram</t>
+  </si>
+  <si>
+    <t>Islamkot Tharparkar Sindh:
+A minor Hindu girl Soorath D/o Chandiram Meghwar, a resident of near Islamkot,Thar was converted to Islam by Pir John Agha Jaan Sirhandi, and after conversion to Islam,was married to Araz Muhammad Adhijo.
+Look at the girl's face😭 #StopForcedConversions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1646962577086337024</t>
+  </si>
+  <si>
+    <t>Araz Muhammad Adhijo</t>
+  </si>
+  <si>
+    <t>case_68</t>
+  </si>
+  <si>
+    <t>Nilan</t>
+  </si>
+  <si>
+    <t>Altaf Tingri</t>
+  </si>
+  <si>
+    <t>Haji Sultan Tingri, NauKot</t>
+  </si>
+  <si>
+    <t>Naukot Mirpurkhas Sindh:
+A minor Hindu girl Nilan Kolhi, a 12-year-old was abducted by Altaf Tingri and his accomplices from the village of Haji Sultan Tingri near Naon Kot.
+Parents are protesting 
+#StopForcedConversions
+#saveminoritygirls
+#SaveMinoritiesInPakistan
+The kidnapping and abduction case of Nilan Kolhi, a 12-year-old minor Hindu girl kidnapped from Nayon Kot, has been registered against four accused. The parents said that the girl's age is 12-13 years, but Police have mentioned 17-18 years in FIR.
+#HinduLivesMatters
+Is this the age of marriage for God sake please have mercy on us.
+This is innocent minor Hindu girl Neelan who was abducted from the village of Sultan Tingri near Naon Kot, converted and married to Altaf Tingri at the residence of Pir Agha Jan Sirhandi. #StopForcedConversions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1646923715991461906</t>
+  </si>
+  <si>
+    <t>Pir Agha Jan Sirhandi</t>
+  </si>
+  <si>
+    <t>case_69</t>
+  </si>
+  <si>
+    <t>Lohana</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1646549413148360716</t>
+  </si>
+  <si>
+    <t>Kayanat</t>
+  </si>
+  <si>
+    <t>Dargahe-e-Aliya Qadriya Pir Adbul Sattar Shah Sahib Bharchundi Sharif Kashmore Sindh</t>
+  </si>
+  <si>
+    <t>Sajjad Maher</t>
+  </si>
+  <si>
+    <t>Mian Javed Ahmed Dharki</t>
+  </si>
+  <si>
+    <t>Lohana Mohallah, Diplo</t>
+  </si>
+  <si>
+    <t>Suman d/o Chetan Das</t>
+  </si>
+  <si>
+    <t>Blackmail</t>
+  </si>
+  <si>
+    <t>Suman Lohana got married off to a Muslim man named Sajjad Maher but she didn't know what was his family name.
+ Those who beat the drums of free will — Or call our work untrue. They should watch a video: How Hindu girls are threatened.
+@VeengasJ
+ #StopForcedconversions
+Suman Lohana got married off to a Muslim man named Sajjad Maher but she didn't know what was his family name.
+ Those who beat the drums of free will — Or call our work untrue. They should watch a video: How Hindu girls are threatened.
+#HinduLivesMatters 
+ #StopForcedconversions
+Diplo Tharparkar Simran was blackmailed then forcefully converted at  Bharchondi Sharif Pir Mian Javed Ahmad Qadri and converted to Islam.  It is said that a few days ago the girl was blackmailed by recording her video.</t>
+  </si>
+  <si>
+    <t>case_70</t>
+  </si>
+  <si>
+    <t>Khamisa, New Karachi</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>case_71</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1646042305709703169</t>
+  </si>
+  <si>
+    <t>Karachi Sindh:
+A case of abduction of two innocent children, including #Komal and #Sapna, married women kidnapped from Khamisa village of New Karachi, has been registered.
+#StopForcedConversions
+#SaveMinoritiesInPakistan
+Two married Hindu girls, Komal and Sapna, a 2-year-old girl, and a 6-year-old boy, have been kidnapped from Khamisa village of New Karachi Gabol police station.
+ The girls who went to drop off their children at school on Monday could not be found after 38 hours
+@DMCSindhPolice</t>
+  </si>
+  <si>
+    <t>Abducted with children: 2 year old girl and 6 year old boy</t>
+  </si>
+  <si>
+    <t>Khipro</t>
+  </si>
+  <si>
+    <t>case_72</t>
+  </si>
+  <si>
+    <t>Rape by multiple people - reported</t>
+  </si>
+  <si>
+    <t>Khipro Sanghar Sindh:
+A few days ago, the kidnapped Hindu girl #Meena_Kolhi reached her home. She says that after she was abducted and forcefully converted to islam, she was married to Iqbal Bhambhro was r@ped by many peoples.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1645683663361777666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iqbal Bhambhro </t>
+  </si>
+  <si>
+    <t>case_73</t>
+  </si>
+  <si>
+    <t>Odero Lal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1645472745143037952</t>
+  </si>
+  <si>
+    <t>Odero Lal Sindh:
+Hindu Woman Kimi Kohli daughter of Prabhu Kohli has been forcibly married, Abdul Qadir Jamaili, and converted to Islam in Odero Lal Village, Matiari, Sindh.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Kimi d/o Prabhu</t>
+  </si>
+  <si>
+    <t>Abdul Qadir Jamaili</t>
+  </si>
+  <si>
+    <t>Matiari</t>
   </si>
 </sst>
 </file>
@@ -2030,18 +2193,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="39" customWidth="1"/>
+    <col min="34" max="34" width="68.5" customWidth="1"/>
     <col min="36" max="36" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6277,8 +6440,451 @@
         <v>491</v>
       </c>
     </row>
+    <row r="68" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>492</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68">
+        <v>24.7013538352372</v>
+      </c>
+      <c r="F68">
+        <v>70.178246087842894</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45030</v>
+      </c>
+      <c r="I68" t="s">
+        <v>493</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" t="s">
+        <v>148</v>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>497</v>
+      </c>
+      <c r="B69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>24.8544148627875</v>
+      </c>
+      <c r="F69">
+        <v>69.403823333331204</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45029</v>
+      </c>
+      <c r="I69" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" t="s">
+        <v>56</v>
+      </c>
+      <c r="M69">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>18</v>
+      </c>
+      <c r="O69" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" t="s">
+        <v>148</v>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" t="b">
+        <v>1</v>
+      </c>
+      <c r="U69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>504</v>
+      </c>
+      <c r="B70" t="s">
+        <v>511</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>24.465818593723601</v>
+      </c>
+      <c r="F70">
+        <v>69.581820097988697</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45029</v>
+      </c>
+      <c r="I70" t="s">
+        <v>512</v>
+      </c>
+      <c r="J70" t="s">
+        <v>505</v>
+      </c>
+      <c r="K70" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" t="s">
+        <v>505</v>
+      </c>
+      <c r="P70" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>513</v>
+      </c>
+      <c r="T70" t="b">
+        <v>1</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" ht="289" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>24.876792872024801</v>
+      </c>
+      <c r="F71">
+        <v>67.012587953649998</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45028</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="P71" t="s">
+        <v>145</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>519</v>
+      </c>
+      <c r="B72" t="s">
+        <v>516</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>24.876792872024801</v>
+      </c>
+      <c r="F72">
+        <v>67.012587953649998</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45028</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="P72" t="s">
+        <v>145</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" t="s">
+        <v>523</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <v>25.825517270327602</v>
+      </c>
+      <c r="F73">
+        <v>69.376996268782406</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45027</v>
+      </c>
+      <c r="I73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>109</v>
+      </c>
+      <c r="T73" t="b">
+        <v>1</v>
+      </c>
+      <c r="U73" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>525</v>
+      </c>
+      <c r="W73" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" t="s">
+        <v>535</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>25.697672024927201</v>
+      </c>
+      <c r="F74">
+        <v>68.560491611914898</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45026</v>
+      </c>
+      <c r="I74" t="s">
+        <v>533</v>
+      </c>
+      <c r="J74" t="s">
+        <v>56</v>
+      </c>
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+      <c r="W74" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL65" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AL73" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AJ3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AJ4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -6365,6 +6971,12 @@
     <hyperlink ref="AJ65" r:id="rId83" xr:uid="{5BACCFC3-3E71-7440-926C-B6580C9AA540}"/>
     <hyperlink ref="AJ66" r:id="rId84" xr:uid="{A7FC2155-852B-E34D-8C7A-1747F199DEF3}"/>
     <hyperlink ref="AJ67" r:id="rId85" xr:uid="{E438BF62-D038-9A4B-9903-FE3E0C247D62}"/>
+    <hyperlink ref="AJ68" r:id="rId86" xr:uid="{914F219E-A6E6-0046-AE1B-44B37AAD693D}"/>
+    <hyperlink ref="AJ69" r:id="rId87" xr:uid="{DFF22F7F-3432-0946-BC7F-7B1F85101742}"/>
+    <hyperlink ref="AJ70" r:id="rId88" xr:uid="{DC427C4B-39B9-AB49-B5BA-15F10979AC98}"/>
+    <hyperlink ref="AJ71" r:id="rId89" xr:uid="{B0216B79-0468-2D41-92BF-3C82914A10DF}"/>
+    <hyperlink ref="AJ73" r:id="rId90" xr:uid="{5940FE61-4D36-F740-8EA4-FF0BF0B77607}"/>
+    <hyperlink ref="AJ74" r:id="rId91" xr:uid="{F850490C-9ED2-A84E-8070-C7A5FCC211DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D9668B-C0FF-474F-8A20-50913440E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D09CA-50E6-EE4F-9A77-352F6E720975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="671">
   <si>
     <t>city</t>
   </si>
@@ -1798,12 +1798,470 @@
   <si>
     <t>Matiari</t>
   </si>
+  <si>
+    <t>case_74</t>
+  </si>
+  <si>
+    <t>Tharparkar Sindh:
+Abducted Hindu minor girl, Leelan d/o Karamchand Meghwar of Kankio village, converted to Islam and married Niaz Ahmad.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1663950417099907072</t>
+  </si>
+  <si>
+    <t>Leelan d/o Karamchand</t>
+  </si>
+  <si>
+    <t>Kantio</t>
+  </si>
+  <si>
+    <t>Niaz Ahmed</t>
+  </si>
+  <si>
+    <t>case_75</t>
+  </si>
+  <si>
+    <t>Ghotki</t>
+  </si>
+  <si>
+    <t>Zarina</t>
+  </si>
+  <si>
+    <t>Killing</t>
+  </si>
+  <si>
+    <t>Ghotki Sindh;
+The horrifying and heart-wrenching incident in Ghotki! A brave Hindu woman, #Zarina_Bheel, was killed while defending her daughter from abduction. It's appalling that justice is yet to be served, and the accused must be held accountable for their heinous act</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1662774102535331840</t>
+  </si>
+  <si>
+    <t>Killed while trying to avoid abduction of her daughter</t>
+  </si>
+  <si>
+    <t>case_76</t>
+  </si>
+  <si>
+    <t>Daharki</t>
+  </si>
+  <si>
+    <t>Dharki, Sindh
+A married Hindu woman, Sangeeta Oad, has been converted and married at Bharchundi Dargha of Mian Javeed Ahemd Qadri; her abductor's name has not been revealed.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1661212480046080001</t>
+  </si>
+  <si>
+    <t>Sangeeta</t>
+  </si>
+  <si>
+    <t>Oad</t>
+  </si>
+  <si>
+    <t>case_77</t>
+  </si>
+  <si>
+    <t>Pithoro,Umarkot Sindh
+A Hindu girl Hasena Oad has been abducted by Shokat shar and 4 others by gun point,father of girl filed complaint at police station against 5 accused belonging to the Shar community.Girl will forcibly married to shokat shar father told
+#StopForcedConversions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1659524774811299841</t>
+  </si>
+  <si>
+    <t>Haseena</t>
+  </si>
+  <si>
+    <t>Shokat Shar</t>
+  </si>
+  <si>
+    <t>case_78</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1659249097818112007</t>
+  </si>
+  <si>
+    <t>Badin Sindh:
+A minor Hindu girl Tooti d/o Babu Maheshwari, a resident of Kareo Ghanwar Gharibabad, was abducted a few days ago now she has been converted to Islam and married to Fida Hussain Khaskheli.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Kario Ghanwar</t>
+  </si>
+  <si>
+    <t>Tooti d/o Babu</t>
+  </si>
+  <si>
+    <t>Fida Hussain Khaskheli</t>
+  </si>
+  <si>
+    <t>case_79</t>
+  </si>
+  <si>
+    <t>Mirpurkhas Sindh:
+Dharmi Bheel, a married woman of Mirpurkhas phuladio was abducted and married to Muslim Mir Muhammad Shar after converting the religion in Pir Ayub Jan Sirhandi Samaro.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1658537910491045896</t>
+  </si>
+  <si>
+    <t>Mir Muhammad Shar</t>
+  </si>
+  <si>
+    <t>Pir Ayub Jan Sirhandi</t>
+  </si>
+  <si>
+    <t>Dharmi</t>
+  </si>
+  <si>
+    <t>Phuladio</t>
+  </si>
+  <si>
+    <t>case_80</t>
+  </si>
+  <si>
+    <t>Karachi Haji Mureed Village Goli Mar Chowrangi</t>
+  </si>
+  <si>
+    <t>w/o Ramji Meghwar</t>
+  </si>
+  <si>
+    <t>44103-5532996-6</t>
+  </si>
+  <si>
+    <t>Rida Bai</t>
+  </si>
+  <si>
+    <t>Resident of Mohallah Sattar Nagar D.B.P. Mirpur Khan</t>
+  </si>
+  <si>
+    <t>case_81</t>
+  </si>
+  <si>
+    <t>Meeran</t>
+  </si>
+  <si>
+    <t>d/o Ramji Meghwar</t>
+  </si>
+  <si>
+    <t>Karachi Sindh:
+It is very sad to say that what is happening every day, Karachi Haji Mureed Village Goli Mar Chowrangi, since 7-05-2023 the whole family of #Ramji_Meghwar is missing, he is worried and tired from the police station for a week. No response yet.....</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1657429814377168898</t>
+  </si>
+  <si>
+    <t>few days ago we highlighted the case of a Hindu family kidnapped from Karachi. Now it is heard that they have converted.Why are Hindus attacked,Specially,Sindh province has more cases of religious conversion.
+Meeran 14y,Priya 12y ,Sanju 11y, Amarlal 9y,Jairam,Gopal, are included.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1658409406365589505</t>
+  </si>
+  <si>
+    <t>case_82</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Linked to case 80</t>
+  </si>
+  <si>
+    <t>case_83</t>
+  </si>
+  <si>
+    <t>Pooja Kumari</t>
+  </si>
+  <si>
+    <t>d/o Kanhaiya Lal Meghwar</t>
+  </si>
+  <si>
+    <t>Sanghar Sindh:
+Pooja kumari d/o khaniya Kal meghwar, With victims of force conversion at High Court of Sindh at Hyderabad, their Daughter has been forcefully abducted and converted to Islam.
+ #StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1657076074453549057</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1655466135523827712</t>
+  </si>
+  <si>
+    <t>Kotari Hyderabad Sindh:
+Hindu girl Meena Kumari, d/o  Mangal das Meghwar, who was abducted three days ago from Kotari, Sindh has not yet been recovered.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>case_84</t>
+  </si>
+  <si>
+    <t>Kotri</t>
+  </si>
+  <si>
+    <t>Jamshoro</t>
+  </si>
+  <si>
+    <t>Meena Kumari</t>
+  </si>
+  <si>
+    <t>d/o  Mangal das Meghwar</t>
+  </si>
+  <si>
+    <t>Muzamil Mianwali</t>
+  </si>
+  <si>
+    <t>case_85</t>
+  </si>
+  <si>
+    <t>Karachi Sindh:
+Now that daily killings and cruelty have become a daily routine for Hindus, at night again, an innocent A Hindu girl Jiya Hari Maheshwari, was kidnapped by Muzamil Mianwali from Dariyaabad area of ​​Lyari.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1654548585730527232</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>d/o Hari Maheshwari</t>
+  </si>
+  <si>
+    <t>Daryabad</t>
+  </si>
+  <si>
+    <t>case_86</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>Dino Bheel</t>
+  </si>
+  <si>
+    <t>Deharki Sindh:
+27 April A Hindu girl Devi d/o Dino Bheel abducted from Dehrki Sindh, converted in Rahim Yar Khan was married to Muhammed Ali, a resident of Punjab.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1654357488693571584</t>
+  </si>
+  <si>
+    <t>Misbah</t>
+  </si>
+  <si>
+    <t>Talha Umar</t>
+  </si>
+  <si>
+    <t>435030530295-3</t>
+  </si>
+  <si>
+    <t>case_87</t>
+  </si>
+  <si>
+    <t>Mirpurkhas Sindh:
+A minor Hindu Ggirl Lachmi d/o Pahalwan Bhaat resident of sindhri, Sindh has been converted to Islam by Molvi Munir Ahmed of Rahim yar khan Punjab and married of to Imtiaz Ali. Lachmi became Aisha Bibi.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1653979445567590404</t>
+  </si>
+  <si>
+    <t>d/o Pahalwan Bhaat</t>
+  </si>
+  <si>
+    <t>Sindhre</t>
+  </si>
+  <si>
+    <t>Munir Ahmed</t>
+  </si>
+  <si>
+    <t>Rahim Yar Khan, Punjab</t>
+  </si>
+  <si>
+    <t>Imtiaz Ali</t>
+  </si>
+  <si>
+    <t>Bhaat</t>
+  </si>
+  <si>
+    <t>case_88</t>
+  </si>
+  <si>
+    <t>Umerkot Samaro Sindh:
+The 16-year-old Hindu girl Hina Maharaj d/o Kasturo Maharaj, was abducted and converted and married  to Gulam Mustafa Brohi.
+#StopForcedConversions
+#HinduLivesMatters</t>
+  </si>
+  <si>
+    <t>Maharaj</t>
+  </si>
+  <si>
+    <t>d/o Kasturo Maharaj</t>
+  </si>
+  <si>
+    <t>Gulam Mustafa Brohi</t>
+  </si>
+  <si>
+    <t>Fatema</t>
+  </si>
+  <si>
+    <t>case_89</t>
+  </si>
+  <si>
+    <t>Sanghar sindh:
+Another married Hindu girl Ganga d/o Chetan bheel from Jhole twon was abducted 3 days ago and converted to Islam.
+Petition has been filed in court.
+#StopForcedConversions
+#HinduLivesMatters</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1653319169138479108</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1653076299307528192</t>
+  </si>
+  <si>
+    <t>Ganga</t>
+  </si>
+  <si>
+    <t>d/o Chetan bheel</t>
+  </si>
+  <si>
+    <t>Jhol</t>
+  </si>
+  <si>
+    <t>case_90</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1653032129486266368</t>
+  </si>
+  <si>
+    <t>Karachi Sindh:
+A minor Hindu girl Pars d/o Morji Maheshwari, a minor Sindhi Hindu daughter of the resident of Ghulam Shah Lane Lyari, was kidnapped 15 days ago. Now the daughter has changed her religion and got married. We appeal to the higher authorities to return our daughter.</t>
+  </si>
+  <si>
+    <t>Ghulam Shah Lane, Lyari</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>d/o Moorjee Maheshwari</t>
+  </si>
+  <si>
+    <t>New Dambalu, Tando Ghulam Ali Sindh:
+The Hindu girl Resham Kolhi has been converted to Islam at Pir Ayub Jan Sirhandi. Resham became Ayesha, and married off to Shah Nawaz Dars, a resident of New Dambalu.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1652938928087859202</t>
+  </si>
+  <si>
+    <t>case_91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Dambalu, Tando Ghulam Ali </t>
+  </si>
+  <si>
+    <t>Resham</t>
+  </si>
+  <si>
+    <t>Shaikh</t>
+  </si>
+  <si>
+    <t>d/o Pardesi Kolhi</t>
+  </si>
+  <si>
+    <t>Shahnawaz s/o Jani Dars</t>
+  </si>
+  <si>
+    <t>41103-5869377-5</t>
+  </si>
+  <si>
+    <t>case_92</t>
+  </si>
+  <si>
+    <t>Mithi Tharparkar Sindh:
+Minor girl Gudi Kolhi and her parents are being pressured by the criminals to hand over the Gudi to the criminals. Sindh government and human rights institutions should take action and save this minority girl as much as possible.
+#StopForcedConversions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1651469763472932870</t>
+  </si>
+  <si>
+    <t>Gudi</t>
+  </si>
+  <si>
+    <t>Harassment</t>
+  </si>
+  <si>
+    <t>case_93</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1651202209487388674</t>
+  </si>
+  <si>
+    <t>Khanpur Maher Sindh 
+The minor Hindu girl Payal who was recovered from Karachi after being abducted from Khanpur Mehar appeared before the magistrate girl has given a statement in the court that she wants to go with her parents.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Khanpur Mahar</t>
+  </si>
+  <si>
+    <t>Payal Kumari</t>
+  </si>
+  <si>
+    <t>Theft</t>
+  </si>
+  <si>
+    <t>case_94</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1649092599050031105</t>
+  </si>
+  <si>
+    <t>Jhol Sanghar Sindh
+A Hindu girl who converted to Islam about 4 months ago became Hassina.
+Now her husband Azmat Mari divorced her on the advice of influential people.
+He left her parents home.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Hassina</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Abandonment</t>
+  </si>
+  <si>
+    <t>Azmat Mari</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1823,6 +2281,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1864,7 +2329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1878,6 +2343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2193,17 +2659,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="68.5" customWidth="1"/>
     <col min="36" max="36" width="40.1640625" customWidth="1"/>
   </cols>
@@ -2324,7 +2791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2410,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2478,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2531,7 +2998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2575,7 +3042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2646,7 +3113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +3160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="187" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2752,7 +3219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -2805,7 +3272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -2876,7 +3343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2938,7 +3405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3012,7 +3479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -3086,7 +3553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="170" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3151,7 +3618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -3216,7 +3683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -3293,7 +3760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="323" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -3376,7 +3843,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="255" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -3453,7 +3920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -3512,7 +3979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="204" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -3586,7 +4053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -3716,7 +4183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="221" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>185</v>
       </c>
@@ -3781,7 +4248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -3843,7 +4310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -3905,7 +4372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -3991,7 +4458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -4056,7 +4523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>216</v>
       </c>
@@ -4115,7 +4582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>228</v>
       </c>
@@ -4198,7 +4665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -4272,7 +4739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -4337,7 +4804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -4393,7 +4860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>256</v>
       </c>
@@ -4912,7 +5379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>293</v>
       </c>
@@ -4971,7 +5438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>298</v>
       </c>
@@ -5083,7 +5550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>308</v>
       </c>
@@ -5139,7 +5606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>313</v>
       </c>
@@ -5207,7 +5674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>331</v>
       </c>
@@ -5281,7 +5748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="170" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>334</v>
       </c>
@@ -5426,7 +5893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>341</v>
       </c>
@@ -5500,7 +5967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>344</v>
       </c>
@@ -5565,7 +6032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>352</v>
       </c>
@@ -5692,7 +6159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>372</v>
       </c>
@@ -5751,7 +6218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>375</v>
       </c>
@@ -5869,7 +6336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>386</v>
       </c>
@@ -5986,7 +6453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>420</v>
       </c>
@@ -6042,7 +6509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>424</v>
       </c>
@@ -6092,7 +6559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>429</v>
       </c>
@@ -6139,7 +6606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>453</v>
       </c>
@@ -6192,7 +6659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>458</v>
       </c>
@@ -6245,7 +6712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>461</v>
       </c>
@@ -6301,7 +6768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>472</v>
       </c>
@@ -6369,7 +6836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="170" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>480</v>
       </c>
@@ -6440,7 +6907,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="153" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>492</v>
       </c>
@@ -6508,7 +6975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="306" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>497</v>
       </c>
@@ -6591,7 +7058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="356" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -6671,7 +7138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="289" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="238" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>515</v>
       </c>
@@ -6883,8 +7350,1355 @@
         <v>24</v>
       </c>
     </row>
+    <row r="75" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>536</v>
+      </c>
+      <c r="B75" t="s">
+        <v>540</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>25.1725001479894</v>
+      </c>
+      <c r="F75">
+        <v>69.9697921381387</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45077</v>
+      </c>
+      <c r="I75" t="s">
+        <v>539</v>
+      </c>
+      <c r="J75" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" t="s">
+        <v>148</v>
+      </c>
+      <c r="T75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>542</v>
+      </c>
+      <c r="B76" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76" t="s">
+        <v>543</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76">
+        <v>28.027125086794001</v>
+      </c>
+      <c r="F76">
+        <v>69.326548803422796</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45074</v>
+      </c>
+      <c r="I76" t="s">
+        <v>544</v>
+      </c>
+      <c r="J76" t="s">
+        <v>75</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="s">
+        <v>545</v>
+      </c>
+      <c r="T76" t="b">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>549</v>
+      </c>
+      <c r="B77" t="s">
+        <v>550</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>28.0400028999934</v>
+      </c>
+      <c r="F77">
+        <v>69.681262299376399</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45069</v>
+      </c>
+      <c r="I77" t="s">
+        <v>553</v>
+      </c>
+      <c r="J77" t="s">
+        <v>554</v>
+      </c>
+      <c r="O77" t="s">
+        <v>554</v>
+      </c>
+      <c r="P77" t="s">
+        <v>148</v>
+      </c>
+      <c r="T77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>555</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78">
+        <v>25.5107279994685</v>
+      </c>
+      <c r="F78">
+        <v>69.375502379351104</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45065</v>
+      </c>
+      <c r="I78" t="s">
+        <v>558</v>
+      </c>
+      <c r="J78" t="s">
+        <v>554</v>
+      </c>
+      <c r="O78" t="s">
+        <v>554</v>
+      </c>
+      <c r="P78" t="s">
+        <v>148</v>
+      </c>
+      <c r="T78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>560</v>
+      </c>
+      <c r="B79" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>24.805026282253099</v>
+      </c>
+      <c r="F79">
+        <v>68.605046445490302</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45047</v>
+      </c>
+      <c r="I79" t="s">
+        <v>564</v>
+      </c>
+      <c r="J79" t="s">
+        <v>163</v>
+      </c>
+      <c r="O79" t="s">
+        <v>163</v>
+      </c>
+      <c r="P79" t="s">
+        <v>148</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>566</v>
+      </c>
+      <c r="B80" t="s">
+        <v>572</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80">
+        <v>25.506926869862799</v>
+      </c>
+      <c r="F80">
+        <v>69.014789570376706</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45062</v>
+      </c>
+      <c r="I80" t="s">
+        <v>571</v>
+      </c>
+      <c r="J80" t="s">
+        <v>75</v>
+      </c>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="s">
+        <v>148</v>
+      </c>
+      <c r="W80" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA80" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>573</v>
+      </c>
+      <c r="B81" t="s">
+        <v>574</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81">
+        <v>24.8858632112047</v>
+      </c>
+      <c r="F81">
+        <v>67.016539957141106</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45053</v>
+      </c>
+      <c r="H81" t="s">
+        <v>576</v>
+      </c>
+      <c r="I81" t="s">
+        <v>577</v>
+      </c>
+      <c r="J81" t="s">
+        <v>575</v>
+      </c>
+      <c r="O81" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" t="s">
+        <v>148</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>579</v>
+      </c>
+      <c r="B82" t="s">
+        <v>574</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82">
+        <v>24.8858632112047</v>
+      </c>
+      <c r="F82">
+        <v>67.016539957141106</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45053</v>
+      </c>
+      <c r="I82" t="s">
+        <v>580</v>
+      </c>
+      <c r="J82" t="s">
+        <v>581</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="O82" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82" t="s">
+        <v>148</v>
+      </c>
+      <c r="R82" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ82" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>586</v>
+      </c>
+      <c r="B83" t="s">
+        <v>574</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83">
+        <v>24.8858632112047</v>
+      </c>
+      <c r="F83">
+        <v>67.016539957141106</v>
+      </c>
+      <c r="G83" s="2">
+        <v>45053</v>
+      </c>
+      <c r="I83" t="s">
+        <v>587</v>
+      </c>
+      <c r="J83" t="s">
+        <v>581</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+      <c r="O83" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" t="s">
+        <v>148</v>
+      </c>
+      <c r="R83" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ83" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>589</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>26.043720730451401</v>
+      </c>
+      <c r="F84">
+        <v>68.947643411108999</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45058</v>
+      </c>
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="O84" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" t="s">
+        <v>148</v>
+      </c>
+      <c r="T84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>596</v>
+      </c>
+      <c r="B85" t="s">
+        <v>597</v>
+      </c>
+      <c r="C85" t="s">
+        <v>598</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85">
+        <v>25.3497190987339</v>
+      </c>
+      <c r="F85">
+        <v>68.275171571302593</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45054</v>
+      </c>
+      <c r="I85" t="s">
+        <v>599</v>
+      </c>
+      <c r="J85" t="s">
+        <v>600</v>
+      </c>
+      <c r="O85" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ85" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>602</v>
+      </c>
+      <c r="B86" t="s">
+        <v>607</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86">
+        <v>24.8619403009107</v>
+      </c>
+      <c r="F86">
+        <v>66.989857731213306</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45051</v>
+      </c>
+      <c r="I86" t="s">
+        <v>605</v>
+      </c>
+      <c r="J86" t="s">
+        <v>606</v>
+      </c>
+      <c r="O86" t="s">
+        <v>163</v>
+      </c>
+      <c r="P86" t="s">
+        <v>145</v>
+      </c>
+      <c r="W86" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ86" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>608</v>
+      </c>
+      <c r="B87" t="s">
+        <v>550</v>
+      </c>
+      <c r="C87" t="s">
+        <v>543</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87">
+        <v>28.0389423129139</v>
+      </c>
+      <c r="F87">
+        <v>69.680403992567904</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45043</v>
+      </c>
+      <c r="H87" t="s">
+        <v>615</v>
+      </c>
+      <c r="I87" t="s">
+        <v>609</v>
+      </c>
+      <c r="J87" t="s">
+        <v>610</v>
+      </c>
+      <c r="K87" t="s">
+        <v>613</v>
+      </c>
+      <c r="L87" t="s">
+        <v>485</v>
+      </c>
+      <c r="N87">
+        <v>25</v>
+      </c>
+      <c r="O87" t="s">
+        <v>75</v>
+      </c>
+      <c r="P87" t="s">
+        <v>148</v>
+      </c>
+      <c r="T87" t="b">
+        <v>1</v>
+      </c>
+      <c r="W87" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ87" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>616</v>
+      </c>
+      <c r="B88" t="s">
+        <v>620</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88">
+        <v>25.708638069404401</v>
+      </c>
+      <c r="F88">
+        <v>69.128214440080299</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45050</v>
+      </c>
+      <c r="I88" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" t="s">
+        <v>619</v>
+      </c>
+      <c r="K88" t="s">
+        <v>484</v>
+      </c>
+      <c r="L88" t="s">
+        <v>485</v>
+      </c>
+      <c r="O88" t="s">
+        <v>624</v>
+      </c>
+      <c r="P88" t="s">
+        <v>148</v>
+      </c>
+      <c r="T88" t="b">
+        <v>1</v>
+      </c>
+      <c r="W88" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>625</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89">
+        <v>25.2842319888404</v>
+      </c>
+      <c r="F89">
+        <v>69.393353732141904</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45047</v>
+      </c>
+      <c r="I89" t="s">
+        <v>149</v>
+      </c>
+      <c r="J89" t="s">
+        <v>628</v>
+      </c>
+      <c r="K89" t="s">
+        <v>630</v>
+      </c>
+      <c r="M89">
+        <v>16</v>
+      </c>
+      <c r="O89" t="s">
+        <v>627</v>
+      </c>
+      <c r="P89" t="s">
+        <v>148</v>
+      </c>
+      <c r="R89" t="b">
+        <v>1</v>
+      </c>
+      <c r="T89" t="b">
+        <v>1</v>
+      </c>
+      <c r="W89" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ89" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>631</v>
+      </c>
+      <c r="B90" t="s">
+        <v>637</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <v>25.957355271358502</v>
+      </c>
+      <c r="F90">
+        <v>68.899901277480495</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45047</v>
+      </c>
+      <c r="I90" t="s">
+        <v>635</v>
+      </c>
+      <c r="J90" t="s">
+        <v>636</v>
+      </c>
+      <c r="O90" t="s">
+        <v>75</v>
+      </c>
+      <c r="P90" t="s">
+        <v>148</v>
+      </c>
+      <c r="R90" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ90" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>638</v>
+      </c>
+      <c r="B91" t="s">
+        <v>641</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91">
+        <v>24.865590617612899</v>
+      </c>
+      <c r="F91">
+        <v>67.000666654225299</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45031</v>
+      </c>
+      <c r="I91" t="s">
+        <v>642</v>
+      </c>
+      <c r="J91" t="s">
+        <v>643</v>
+      </c>
+      <c r="M91">
+        <v>17</v>
+      </c>
+      <c r="N91">
+        <v>17</v>
+      </c>
+      <c r="O91" t="s">
+        <v>163</v>
+      </c>
+      <c r="P91" t="s">
+        <v>148</v>
+      </c>
+      <c r="R91" t="b">
+        <v>1</v>
+      </c>
+      <c r="S91" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ91" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>646</v>
+      </c>
+      <c r="B92" t="s">
+        <v>647</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92">
+        <v>25.124166742391601</v>
+      </c>
+      <c r="F92">
+        <v>68.891285334593704</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45044</v>
+      </c>
+      <c r="I92" t="s">
+        <v>648</v>
+      </c>
+      <c r="J92" t="s">
+        <v>650</v>
+      </c>
+      <c r="K92" t="s">
+        <v>377</v>
+      </c>
+      <c r="L92" t="s">
+        <v>649</v>
+      </c>
+      <c r="N92">
+        <v>22</v>
+      </c>
+      <c r="O92" t="s">
+        <v>56</v>
+      </c>
+      <c r="P92" t="s">
+        <v>148</v>
+      </c>
+      <c r="S92" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" t="b">
+        <v>1</v>
+      </c>
+      <c r="W92" t="s">
+        <v>651</v>
+      </c>
+      <c r="X92" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ92" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>653</v>
+      </c>
+      <c r="B93" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93">
+        <v>24.744765889774701</v>
+      </c>
+      <c r="F93">
+        <v>69.805283959458194</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45037</v>
+      </c>
+      <c r="I93" t="s">
+        <v>656</v>
+      </c>
+      <c r="J93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" t="s">
+        <v>657</v>
+      </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ93" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>658</v>
+      </c>
+      <c r="B94" t="s">
+        <v>661</v>
+      </c>
+      <c r="C94" t="s">
+        <v>543</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94">
+        <v>27.8440081598979</v>
+      </c>
+      <c r="F94">
+        <v>69.414288955958995</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45040</v>
+      </c>
+      <c r="I94" t="s">
+        <v>662</v>
+      </c>
+      <c r="J94" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" t="s">
+        <v>33</v>
+      </c>
+      <c r="P94" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>663</v>
+      </c>
+      <c r="T94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ94" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>664</v>
+      </c>
+      <c r="B95" t="s">
+        <v>637</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95">
+        <v>25.957585848306</v>
+      </c>
+      <c r="F95">
+        <v>68.899858074783097</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45036</v>
+      </c>
+      <c r="I95" t="s">
+        <v>668</v>
+      </c>
+      <c r="J95" t="s">
+        <v>668</v>
+      </c>
+      <c r="K95" t="s">
+        <v>667</v>
+      </c>
+      <c r="P95" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>669</v>
+      </c>
+      <c r="T95" t="b">
+        <v>1</v>
+      </c>
+      <c r="W95" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ95" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL73" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AL93" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AJ3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AJ4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -6977,6 +8791,27 @@
     <hyperlink ref="AJ71" r:id="rId89" xr:uid="{B0216B79-0468-2D41-92BF-3C82914A10DF}"/>
     <hyperlink ref="AJ73" r:id="rId90" xr:uid="{5940FE61-4D36-F740-8EA4-FF0BF0B77607}"/>
     <hyperlink ref="AJ74" r:id="rId91" xr:uid="{F850490C-9ED2-A84E-8070-C7A5FCC211DA}"/>
+    <hyperlink ref="AJ75" r:id="rId92" xr:uid="{6BDB9790-FD26-4D41-A106-3C7C6F3988DB}"/>
+    <hyperlink ref="AJ76" r:id="rId93" xr:uid="{AACE243D-6C85-6846-B043-6504F9FFB186}"/>
+    <hyperlink ref="AJ77" r:id="rId94" xr:uid="{84A4A856-EEDF-F544-AB1B-EC545161E0E2}"/>
+    <hyperlink ref="AJ78" r:id="rId95" xr:uid="{64B3A3F7-EF2C-7E41-BCAB-C81070AA386A}"/>
+    <hyperlink ref="AJ79" r:id="rId96" xr:uid="{0EA01EE8-3788-B14F-8981-AC25C7530375}"/>
+    <hyperlink ref="AJ80" r:id="rId97" xr:uid="{A0D1A6D3-CB4D-9947-AB5C-0795C9734323}"/>
+    <hyperlink ref="AJ81" r:id="rId98" xr:uid="{9E16C8D2-482E-E641-B629-3B281A2B176F}"/>
+    <hyperlink ref="AJ82" r:id="rId99" xr:uid="{D203862B-EB55-B74A-B762-57DAFBAA9D35}"/>
+    <hyperlink ref="AJ83" r:id="rId100" xr:uid="{CBCC7836-256D-1F44-AF55-8AE15C15B2D8}"/>
+    <hyperlink ref="AJ84" r:id="rId101" xr:uid="{3A6CB738-EDFE-7949-895D-51A2CBB498A2}"/>
+    <hyperlink ref="AJ85" r:id="rId102" xr:uid="{2AE63782-04E1-F843-8B77-DC5921608932}"/>
+    <hyperlink ref="AJ86" r:id="rId103" xr:uid="{94A09300-0A22-4542-8B49-039987568A7F}"/>
+    <hyperlink ref="AJ87" r:id="rId104" xr:uid="{A83F027B-0ACC-7E47-B96F-176BFBA656C8}"/>
+    <hyperlink ref="AJ88" r:id="rId105" xr:uid="{12425F19-FD98-7544-B45C-08577EABC483}"/>
+    <hyperlink ref="AJ89" r:id="rId106" xr:uid="{CB5D1E8F-408D-1541-AA99-ED89C69AAB8B}"/>
+    <hyperlink ref="AJ90" r:id="rId107" xr:uid="{442CFEF9-53D7-4F43-98E9-2F2ACB01550D}"/>
+    <hyperlink ref="AJ91" r:id="rId108" xr:uid="{82346E6E-4C6A-7A47-BBDE-607E8279831C}"/>
+    <hyperlink ref="AJ92" r:id="rId109" xr:uid="{343F6CD9-A3A4-9449-99AE-03A0FF2FF4BE}"/>
+    <hyperlink ref="AJ93" r:id="rId110" xr:uid="{22900142-D326-6E4A-9EF3-E78B11E3C4DF}"/>
+    <hyperlink ref="AJ94" r:id="rId111" xr:uid="{1AAFEBDA-B464-2C4F-B7F8-F6E93BC43DEB}"/>
+    <hyperlink ref="AJ95" r:id="rId112" xr:uid="{0ED21344-B267-7542-B6E6-35CB137D6861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D09CA-50E6-EE4F-9A77-352F6E720975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A062F-64D7-014B-9F7F-0743CEB6D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AL$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="713">
   <si>
     <t>city</t>
   </si>
@@ -1586,9 +1586,6 @@
   </si>
   <si>
     <t>Kanwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peer Ayoub Jaan Sarhandi </t>
   </si>
   <si>
     <t>Naukot Mirpurkhas Sindh:
@@ -2255,6 +2252,145 @@
   </si>
   <si>
     <t>Azmat Mari</t>
+  </si>
+  <si>
+    <t>case_95</t>
+  </si>
+  <si>
+    <t>Tando Muhammad Khan Sindh:
+ A 13-year-old Hindu girl Marvi d/o Chetan Kolhi, was tired to physically abused by landlord Ashiq Gheelaro while he was drunk; her clothes were torn, and now the police and Ashiq Gheelaro are threatening to family.
+#SaveMinoritiesInPakistan</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1665400576601907201</t>
+  </si>
+  <si>
+    <t>d/o Chetan Kolhi</t>
+  </si>
+  <si>
+    <t>Physical Abuse</t>
+  </si>
+  <si>
+    <t>Molestation; physical abuse</t>
+  </si>
+  <si>
+    <t>Ashiq Gheelaro</t>
+  </si>
+  <si>
+    <t>case_96</t>
+  </si>
+  <si>
+    <t>Sandhiya Kumari now became Sandhiya Shah.
+  On the morning of 01/6/2023, after being abducted from the road in Tando Adam, 17-year-old Sandhiya Kumari became a Muslim in one day and got married in one day of Sayed Muhammad Imran.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1665218381933342721</t>
+  </si>
+  <si>
+    <t>Tando Adam</t>
+  </si>
+  <si>
+    <t>Sandhiya</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Sayed Muhammad Imran s/o Sayed Abdul rasheed</t>
+  </si>
+  <si>
+    <t>case_97</t>
+  </si>
+  <si>
+    <t>16 Years Old #Sangeeta D/o Manthar Oad a minor #Hindu girl who was abducted from Karachi Gulshan Memar has been married to the abductor's Muslim Sameer Ali, after converting her religion
+ Kidnapping of Hindu girls from Sindh marriage after religious conversion is increasing.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1629877682161995776</t>
+  </si>
+  <si>
+    <t>d/o Manthan Oad</t>
+  </si>
+  <si>
+    <t>Gulshan-e-Maymar</t>
+  </si>
+  <si>
+    <t>Hameeda</t>
+  </si>
+  <si>
+    <t>Sameer Ali s/o Gul Hassan</t>
+  </si>
+  <si>
+    <t>43406-0471018-7</t>
+  </si>
+  <si>
+    <t>case_98</t>
+  </si>
+  <si>
+    <t>Februrary 16, 2023</t>
+  </si>
+  <si>
+    <t>Jam Nawaz Ali</t>
+  </si>
+  <si>
+    <t>d/o Harkoo</t>
+  </si>
+  <si>
+    <t>Shahnaz</t>
+  </si>
+  <si>
+    <t>Mukhtair</t>
+  </si>
+  <si>
+    <t>The medical board of Mirpurkhas proved the 14-year-old minor #Hindu girl #Meena Bhatt to be 18 years old in the report.This is cruelty and injustice to the Hindu community. The court released the minor girl Right now,the Hindu girl is being handed over to the abductors</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1629358738141327361</t>
+  </si>
+  <si>
+    <t>Sohail, Riyaaz, Javed Rind</t>
+  </si>
+  <si>
+    <t>44108-0402535-7</t>
+  </si>
+  <si>
+    <t>case_99</t>
+  </si>
+  <si>
+    <t>Under the leadership of SHO Kunab Manshad Kalor, Khairpur police conducted an operation in Chhachro city of Mithi district Marvi Menghwar, a 15-year-old girl from the minority community who was abducted from Kanb 6 months ago, has been rescued.
+#StopForcedConversions</t>
+  </si>
+  <si>
+    <t>Menghwar</t>
+  </si>
+  <si>
+    <t>Chachro</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1626836557188530178</t>
+  </si>
+  <si>
+    <t>case_100</t>
+  </si>
+  <si>
+    <t>Nawab Shah Sindh:
+Parsan D/o Shenbhu Kolhi, a Hindu girl from village Haji Miandad Dahari near Jam Sahib, has gone missing parents said she is abducted and will be converted into Islam married.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1623981771044843520</t>
+  </si>
+  <si>
+    <t>Parsan</t>
+  </si>
+  <si>
+    <t>d/o Shenbhu Kolhi</t>
+  </si>
+  <si>
+    <t>Jam Sahib</t>
   </si>
 </sst>
 </file>
@@ -2659,12 +2795,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AL95"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2870,7 +3006,7 @@
       <c r="AI2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AL2" t="s">
@@ -6799,6 +6935,9 @@
       <c r="K66" t="s">
         <v>476</v>
       </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
       <c r="N66">
         <v>19</v>
       </c>
@@ -6811,26 +6950,47 @@
       <c r="R66" t="b">
         <v>1</v>
       </c>
+      <c r="S66" t="b">
+        <v>0</v>
+      </c>
       <c r="T66" t="b">
         <v>1</v>
       </c>
+      <c r="W66" t="s">
+        <v>700</v>
+      </c>
+      <c r="X66" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>1</v>
+      </c>
       <c r="AA66" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="AC66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD66" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH66" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="AI66" t="s">
         <v>21</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL66" t="s">
         <v>24</v>
@@ -6838,13 +6998,13 @@
     </row>
     <row r="67" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>479</v>
+      </c>
+      <c r="B67" t="s">
         <v>480</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>481</v>
-      </c>
-      <c r="C67" t="s">
-        <v>482</v>
       </c>
       <c r="D67" t="s">
         <v>176</v>
@@ -6859,19 +7019,19 @@
         <v>43880</v>
       </c>
       <c r="H67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I67" t="s">
         <v>476</v>
       </c>
       <c r="J67" t="s">
+        <v>482</v>
+      </c>
+      <c r="K67" t="s">
         <v>483</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>484</v>
-      </c>
-      <c r="L67" t="s">
-        <v>485</v>
       </c>
       <c r="P67" t="s">
         <v>148</v>
@@ -6883,11 +7043,11 @@
         <v>1</v>
       </c>
       <c r="W67" t="s">
+        <v>485</v>
+      </c>
+      <c r="X67" t="s">
         <v>486</v>
       </c>
-      <c r="X67" t="s">
-        <v>487</v>
-      </c>
       <c r="Y67" t="b">
         <v>1</v>
       </c>
@@ -6895,21 +7055,21 @@
         <v>1</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AI67" t="s">
         <v>21</v>
       </c>
       <c r="AJ67" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="AL67" t="s">
         <v>490</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -6930,7 +7090,7 @@
         <v>45030</v>
       </c>
       <c r="I68" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J68" t="s">
         <v>33</v>
@@ -6948,13 +7108,13 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y68" t="b">
         <v>1</v>
       </c>
       <c r="AA68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AC68" t="b">
         <v>1</v>
@@ -6963,13 +7123,13 @@
         <v>1</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI68" t="s">
         <v>21</v>
       </c>
       <c r="AJ68" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AL68" t="s">
         <v>24</v>
@@ -6977,10 +7137,10 @@
     </row>
     <row r="69" spans="1:38" ht="306" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B69" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
@@ -6998,7 +7158,7 @@
         <v>45029</v>
       </c>
       <c r="I69" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J69" t="s">
         <v>56</v>
@@ -7028,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y69" t="b">
         <v>1</v>
       </c>
       <c r="AA69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AB69" t="b">
         <v>1</v>
@@ -7046,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AI69" t="s">
         <v>21</v>
       </c>
       <c r="AJ69" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL69" t="s">
         <v>24</v>
@@ -7060,10 +7220,10 @@
     </row>
     <row r="70" spans="1:38" ht="356" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -7081,22 +7241,22 @@
         <v>45029</v>
       </c>
       <c r="I70" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P70" t="s">
         <v>148</v>
       </c>
       <c r="Q70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T70" t="b">
         <v>1</v>
@@ -7105,17 +7265,17 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA70" t="s">
         <v>509</v>
       </c>
-      <c r="Y70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>508</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>510</v>
-      </c>
       <c r="AB70" t="b">
         <v>1</v>
       </c>
@@ -7123,16 +7283,16 @@
         <v>1</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AI70" t="s">
         <v>21</v>
       </c>
       <c r="AJ70" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AK70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL70" t="s">
         <v>24</v>
@@ -7140,10 +7300,10 @@
     </row>
     <row r="71" spans="1:38" ht="238" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>514</v>
+      </c>
+      <c r="B71" t="s">
         <v>515</v>
-      </c>
-      <c r="B71" t="s">
-        <v>516</v>
       </c>
       <c r="C71" t="s">
         <v>161</v>
@@ -7161,7 +7321,7 @@
         <v>45028</v>
       </c>
       <c r="I71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P71" t="s">
         <v>145</v>
@@ -7176,16 +7336,16 @@
         <v>1</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI71" t="s">
         <v>21</v>
       </c>
       <c r="AJ71" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AK71" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL71" t="s">
         <v>24</v>
@@ -7193,10 +7353,10 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C72" t="s">
         <v>161</v>
@@ -7214,7 +7374,7 @@
         <v>45028</v>
       </c>
       <c r="I72" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P72" t="s">
         <v>145</v>
@@ -7226,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AK72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AL72" t="s">
         <v>24</v>
@@ -7234,10 +7394,10 @@
     </row>
     <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B73" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
@@ -7273,25 +7433,25 @@
         <v>1</v>
       </c>
       <c r="V73" t="s">
+        <v>524</v>
+      </c>
+      <c r="W73" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="W73" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH73" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="AI73" t="s">
         <v>21</v>
       </c>
       <c r="AJ73" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL73" t="s">
         <v>24</v>
@@ -7299,13 +7459,13 @@
     </row>
     <row r="74" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>528</v>
+      </c>
+      <c r="B74" t="s">
         <v>529</v>
       </c>
-      <c r="B74" t="s">
-        <v>530</v>
-      </c>
       <c r="C74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
@@ -7320,7 +7480,7 @@
         <v>45026</v>
       </c>
       <c r="I74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J74" t="s">
         <v>56</v>
@@ -7329,7 +7489,7 @@
         <v>56</v>
       </c>
       <c r="W74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Y74" t="b">
         <v>1</v>
@@ -7338,13 +7498,13 @@
         <v>1</v>
       </c>
       <c r="AH74" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI74" t="s">
         <v>21</v>
       </c>
       <c r="AJ74" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AL74" t="s">
         <v>24</v>
@@ -7352,10 +7512,10 @@
     </row>
     <row r="75" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -7373,7 +7533,7 @@
         <v>45077</v>
       </c>
       <c r="I75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J75" t="s">
         <v>33</v>
@@ -7388,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="W75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y75" t="b">
         <v>1</v>
@@ -7400,13 +7560,13 @@
         <v>1</v>
       </c>
       <c r="AH75" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AI75" t="s">
         <v>21</v>
       </c>
       <c r="AJ75" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s">
         <v>24</v>
@@ -7414,13 +7574,13 @@
     </row>
     <row r="76" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>541</v>
+      </c>
+      <c r="B76" t="s">
         <v>542</v>
       </c>
-      <c r="B76" t="s">
-        <v>543</v>
-      </c>
       <c r="C76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D76" t="s">
         <v>36</v>
@@ -7435,7 +7595,7 @@
         <v>45074</v>
       </c>
       <c r="I76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
@@ -7444,22 +7604,22 @@
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T76" t="b">
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AH76" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AI76" t="s">
         <v>21</v>
       </c>
       <c r="AJ76" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AL76" t="s">
         <v>24</v>
@@ -7467,13 +7627,13 @@
     </row>
     <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>548</v>
+      </c>
+      <c r="B77" t="s">
         <v>549</v>
       </c>
-      <c r="B77" t="s">
-        <v>550</v>
-      </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D77" t="s">
         <v>36</v>
@@ -7488,13 +7648,13 @@
         <v>45069</v>
       </c>
       <c r="I77" t="s">
+        <v>552</v>
+      </c>
+      <c r="J77" t="s">
         <v>553</v>
       </c>
-      <c r="J77" t="s">
-        <v>554</v>
-      </c>
       <c r="O77" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P77" t="s">
         <v>148</v>
@@ -7521,13 +7681,13 @@
         <v>1</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AI77" t="s">
         <v>21</v>
       </c>
       <c r="AJ77" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AL77" t="s">
         <v>24</v>
@@ -7535,7 +7695,7 @@
     </row>
     <row r="78" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" t="s">
         <v>339</v>
@@ -7556,13 +7716,13 @@
         <v>45065</v>
       </c>
       <c r="I78" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P78" t="s">
         <v>148</v>
@@ -7571,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="W78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Y78" t="b">
         <v>1</v>
@@ -7586,13 +7746,13 @@
         <v>1</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AI78" t="s">
         <v>21</v>
       </c>
       <c r="AJ78" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AL78" t="s">
         <v>24</v>
@@ -7600,10 +7760,10 @@
     </row>
     <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B79" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -7621,7 +7781,7 @@
         <v>45047</v>
       </c>
       <c r="I79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J79" t="s">
         <v>163</v>
@@ -7642,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Y79" t="b">
         <v>1</v>
@@ -7654,13 +7814,13 @@
         <v>1</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AI79" t="s">
         <v>21</v>
       </c>
       <c r="AJ79" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AL79" t="s">
         <v>24</v>
@@ -7668,10 +7828,10 @@
     </row>
     <row r="80" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C80" t="s">
         <v>84</v>
@@ -7689,7 +7849,7 @@
         <v>45062</v>
       </c>
       <c r="I80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J80" t="s">
         <v>75</v>
@@ -7701,7 +7861,7 @@
         <v>148</v>
       </c>
       <c r="W80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Y80" t="b">
         <v>1</v>
@@ -7710,7 +7870,7 @@
         <v>89</v>
       </c>
       <c r="AA80" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB80" t="b">
         <v>1</v>
@@ -7722,13 +7882,13 @@
         <v>1</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AI80" t="s">
         <v>21</v>
       </c>
       <c r="AJ80" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AL80" t="s">
         <v>24</v>
@@ -7736,10 +7896,10 @@
     </row>
     <row r="81" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>572</v>
+      </c>
+      <c r="B81" t="s">
         <v>573</v>
-      </c>
-      <c r="B81" t="s">
-        <v>574</v>
       </c>
       <c r="C81" t="s">
         <v>161</v>
@@ -7757,13 +7917,13 @@
         <v>45053</v>
       </c>
       <c r="H81" t="s">
+        <v>575</v>
+      </c>
+      <c r="I81" t="s">
         <v>576</v>
       </c>
-      <c r="I81" t="s">
-        <v>577</v>
-      </c>
       <c r="J81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O81" t="s">
         <v>33</v>
@@ -7787,16 +7947,16 @@
         <v>1</v>
       </c>
       <c r="AH81" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AI81" t="s">
         <v>21</v>
       </c>
       <c r="AJ81" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AK81" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AL81" t="s">
         <v>24</v>
@@ -7804,10 +7964,10 @@
     </row>
     <row r="82" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C82" t="s">
         <v>161</v>
@@ -7825,10 +7985,10 @@
         <v>45053</v>
       </c>
       <c r="I82" t="s">
+        <v>579</v>
+      </c>
+      <c r="J82" t="s">
         <v>580</v>
-      </c>
-      <c r="J82" t="s">
-        <v>581</v>
       </c>
       <c r="M82">
         <v>14</v>
@@ -7852,16 +8012,16 @@
         <v>1</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AI82" t="s">
         <v>21</v>
       </c>
       <c r="AJ82" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL82" t="s">
         <v>24</v>
@@ -7869,10 +8029,10 @@
     </row>
     <row r="83" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C83" t="s">
         <v>161</v>
@@ -7890,10 +8050,10 @@
         <v>45053</v>
       </c>
       <c r="I83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M83">
         <v>12</v>
@@ -7917,16 +8077,16 @@
         <v>1</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AI83" t="s">
         <v>21</v>
       </c>
       <c r="AJ83" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL83" t="s">
         <v>24</v>
@@ -7934,7 +8094,7 @@
     </row>
     <row r="84" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -7955,10 +8115,10 @@
         <v>45058</v>
       </c>
       <c r="I84" t="s">
+        <v>589</v>
+      </c>
+      <c r="J84" t="s">
         <v>590</v>
-      </c>
-      <c r="J84" t="s">
-        <v>591</v>
       </c>
       <c r="O84" t="s">
         <v>33</v>
@@ -7976,13 +8136,13 @@
         <v>1</v>
       </c>
       <c r="AH84" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AI84" t="s">
         <v>21</v>
       </c>
       <c r="AJ84" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AL84" t="s">
         <v>24</v>
@@ -7990,13 +8150,13 @@
     </row>
     <row r="85" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>595</v>
+      </c>
+      <c r="B85" t="s">
         <v>596</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>597</v>
-      </c>
-      <c r="C85" t="s">
-        <v>598</v>
       </c>
       <c r="D85" t="s">
         <v>36</v>
@@ -8011,10 +8171,10 @@
         <v>45054</v>
       </c>
       <c r="I85" t="s">
+        <v>598</v>
+      </c>
+      <c r="J85" t="s">
         <v>599</v>
-      </c>
-      <c r="J85" t="s">
-        <v>600</v>
       </c>
       <c r="O85" t="s">
         <v>33</v>
@@ -8026,13 +8186,13 @@
         <v>1</v>
       </c>
       <c r="AH85" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AI85" t="s">
         <v>21</v>
       </c>
       <c r="AJ85" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AL85" t="s">
         <v>24</v>
@@ -8040,10 +8200,10 @@
     </row>
     <row r="86" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C86" t="s">
         <v>161</v>
@@ -8061,10 +8221,10 @@
         <v>45051</v>
       </c>
       <c r="I86" t="s">
+        <v>604</v>
+      </c>
+      <c r="J86" t="s">
         <v>605</v>
-      </c>
-      <c r="J86" t="s">
-        <v>606</v>
       </c>
       <c r="O86" t="s">
         <v>163</v>
@@ -8073,19 +8233,19 @@
         <v>145</v>
       </c>
       <c r="W86" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AD86" t="b">
         <v>1</v>
       </c>
       <c r="AH86" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AI86" t="s">
         <v>21</v>
       </c>
       <c r="AJ86" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AL86" t="s">
         <v>24</v>
@@ -8093,13 +8253,13 @@
     </row>
     <row r="87" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C87" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D87" t="s">
         <v>36</v>
@@ -8114,19 +8274,19 @@
         <v>45043</v>
       </c>
       <c r="H87" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I87" t="s">
+        <v>608</v>
+      </c>
+      <c r="J87" t="s">
         <v>609</v>
       </c>
-      <c r="J87" t="s">
-        <v>610</v>
-      </c>
       <c r="K87" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N87">
         <v>25</v>
@@ -8141,13 +8301,13 @@
         <v>1</v>
       </c>
       <c r="W87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Y87" t="b">
         <v>1</v>
       </c>
       <c r="Z87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AB87" t="b">
         <v>1</v>
@@ -8156,13 +8316,13 @@
         <v>1</v>
       </c>
       <c r="AH87" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AI87" t="s">
         <v>21</v>
       </c>
       <c r="AJ87" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AL87" t="s">
         <v>24</v>
@@ -8170,10 +8330,10 @@
     </row>
     <row r="88" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
@@ -8194,16 +8354,16 @@
         <v>32</v>
       </c>
       <c r="J88" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K88" t="s">
+        <v>483</v>
+      </c>
+      <c r="L88" t="s">
         <v>484</v>
       </c>
-      <c r="L88" t="s">
-        <v>485</v>
-      </c>
       <c r="O88" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P88" t="s">
         <v>148</v>
@@ -8212,16 +8372,16 @@
         <v>1</v>
       </c>
       <c r="W88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y88" t="b">
         <v>1</v>
       </c>
       <c r="Z88" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA88" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AB88" t="b">
         <v>1</v>
@@ -8230,13 +8390,13 @@
         <v>1</v>
       </c>
       <c r="AH88" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AI88" t="s">
         <v>21</v>
       </c>
       <c r="AJ88" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AL88" t="s">
         <v>24</v>
@@ -8244,7 +8404,7 @@
     </row>
     <row r="89" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -8268,16 +8428,16 @@
         <v>149</v>
       </c>
       <c r="J89" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M89">
         <v>16</v>
       </c>
       <c r="O89" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P89" t="s">
         <v>148</v>
@@ -8289,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="W89" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y89" t="b">
         <v>1</v>
@@ -8301,13 +8461,13 @@
         <v>1</v>
       </c>
       <c r="AH89" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI89" t="s">
         <v>21</v>
       </c>
       <c r="AJ89" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AL89" t="s">
         <v>24</v>
@@ -8315,10 +8475,10 @@
     </row>
     <row r="90" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B90" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C90" t="s">
         <v>53</v>
@@ -8336,10 +8496,10 @@
         <v>45047</v>
       </c>
       <c r="I90" t="s">
+        <v>634</v>
+      </c>
+      <c r="J90" t="s">
         <v>635</v>
-      </c>
-      <c r="J90" t="s">
-        <v>636</v>
       </c>
       <c r="O90" t="s">
         <v>75</v>
@@ -8363,13 +8523,13 @@
         <v>1</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AI90" t="s">
         <v>21</v>
       </c>
       <c r="AJ90" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL90" t="s">
         <v>24</v>
@@ -8377,10 +8537,10 @@
     </row>
     <row r="91" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B91" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C91" t="s">
         <v>161</v>
@@ -8398,10 +8558,10 @@
         <v>45031</v>
       </c>
       <c r="I91" t="s">
+        <v>641</v>
+      </c>
+      <c r="J91" t="s">
         <v>642</v>
-      </c>
-      <c r="J91" t="s">
-        <v>643</v>
       </c>
       <c r="M91">
         <v>17</v>
@@ -8431,13 +8591,13 @@
         <v>1</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI91" t="s">
         <v>21</v>
       </c>
       <c r="AJ91" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AL91" t="s">
         <v>24</v>
@@ -8445,10 +8605,10 @@
     </row>
     <row r="92" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>645</v>
+      </c>
+      <c r="B92" t="s">
         <v>646</v>
-      </c>
-      <c r="B92" t="s">
-        <v>647</v>
       </c>
       <c r="C92" t="s">
         <v>35</v>
@@ -8466,16 +8626,16 @@
         <v>45044</v>
       </c>
       <c r="I92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J92" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K92" t="s">
         <v>377</v>
       </c>
       <c r="L92" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N92">
         <v>22</v>
@@ -8493,16 +8653,16 @@
         <v>1</v>
       </c>
       <c r="W92" t="s">
+        <v>650</v>
+      </c>
+      <c r="X92" t="s">
         <v>651</v>
       </c>
-      <c r="X92" t="s">
-        <v>652</v>
-      </c>
       <c r="Y92" t="b">
         <v>1</v>
       </c>
       <c r="Z92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB92" t="b">
         <v>1</v>
@@ -8511,13 +8671,13 @@
         <v>1</v>
       </c>
       <c r="AH92" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AI92" t="s">
         <v>21</v>
       </c>
       <c r="AJ92" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AL92" t="s">
         <v>24</v>
@@ -8525,7 +8685,7 @@
     </row>
     <row r="93" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B93" t="s">
         <v>335</v>
@@ -8546,7 +8706,7 @@
         <v>45037</v>
       </c>
       <c r="I93" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J93" t="s">
         <v>56</v>
@@ -8555,7 +8715,7 @@
         <v>56</v>
       </c>
       <c r="P93" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -8567,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="AH93" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AI93" t="s">
         <v>21</v>
       </c>
       <c r="AJ93" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AL93" t="s">
         <v>24</v>
@@ -8581,13 +8741,13 @@
     </row>
     <row r="94" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D94" t="s">
         <v>36</v>
@@ -8602,7 +8762,7 @@
         <v>45040</v>
       </c>
       <c r="I94" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J94" t="s">
         <v>33</v>
@@ -8614,7 +8774,7 @@
         <v>145</v>
       </c>
       <c r="Q94" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T94" t="b">
         <v>1</v>
@@ -8626,13 +8786,13 @@
         <v>1</v>
       </c>
       <c r="AH94" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AI94" t="s">
         <v>21</v>
       </c>
       <c r="AJ94" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AL94" t="s">
         <v>24</v>
@@ -8640,10 +8800,10 @@
     </row>
     <row r="95" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B95" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C95" t="s">
         <v>53</v>
@@ -8661,44 +8821,461 @@
         <v>45036</v>
       </c>
       <c r="I95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P95" t="s">
         <v>148</v>
       </c>
       <c r="Q95" t="s">
+        <v>668</v>
+      </c>
+      <c r="T95" t="b">
+        <v>1</v>
+      </c>
+      <c r="W95" t="s">
         <v>669</v>
       </c>
-      <c r="T95" t="b">
-        <v>1</v>
-      </c>
-      <c r="W95" t="s">
-        <v>670</v>
-      </c>
       <c r="Y95" t="b">
         <v>1</v>
       </c>
       <c r="AH95" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AI95" t="s">
         <v>21</v>
       </c>
       <c r="AJ95" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AL95" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="96" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>670</v>
+      </c>
+      <c r="B96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96">
+        <v>25.1266963116528</v>
+      </c>
+      <c r="F96">
+        <v>68.5436709367699</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45081</v>
+      </c>
+      <c r="I96" t="s">
+        <v>336</v>
+      </c>
+      <c r="J96" t="s">
+        <v>673</v>
+      </c>
+      <c r="M96">
+        <v>13</v>
+      </c>
+      <c r="O96" t="s">
+        <v>56</v>
+      </c>
+      <c r="P96" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>197</v>
+      </c>
+      <c r="R96" t="b">
+        <v>1</v>
+      </c>
+      <c r="T96" t="b">
+        <v>1</v>
+      </c>
+      <c r="U96" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" t="s">
+        <v>675</v>
+      </c>
+      <c r="W96" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ96" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>677</v>
+      </c>
+      <c r="B97" t="s">
+        <v>680</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97">
+        <v>25.769431668795502</v>
+      </c>
+      <c r="F97">
+        <v>68.657428853894601</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45078</v>
+      </c>
+      <c r="I97" t="s">
+        <v>681</v>
+      </c>
+      <c r="J97" t="s">
+        <v>178</v>
+      </c>
+      <c r="K97" t="s">
+        <v>681</v>
+      </c>
+      <c r="L97" t="s">
+        <v>682</v>
+      </c>
+      <c r="M97">
+        <v>17</v>
+      </c>
+      <c r="P97" t="s">
+        <v>148</v>
+      </c>
+      <c r="R97" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97" t="b">
+        <v>1</v>
+      </c>
+      <c r="W97" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH97" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ97" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>684</v>
+      </c>
+      <c r="B98" t="s">
+        <v>688</v>
+      </c>
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98">
+        <v>25.022260158126301</v>
+      </c>
+      <c r="F98">
+        <v>67.133251277192898</v>
+      </c>
+      <c r="G98" s="2">
+        <v>44982</v>
+      </c>
+      <c r="I98" t="s">
+        <v>552</v>
+      </c>
+      <c r="J98" t="s">
+        <v>687</v>
+      </c>
+      <c r="K98" t="s">
+        <v>689</v>
+      </c>
+      <c r="M98">
+        <v>16</v>
+      </c>
+      <c r="O98" t="s">
+        <v>553</v>
+      </c>
+      <c r="P98" t="s">
+        <v>148</v>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
+      </c>
+      <c r="T98" t="b">
+        <v>1</v>
+      </c>
+      <c r="W98" t="s">
+        <v>690</v>
+      </c>
+      <c r="X98" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y98" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB98" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD98" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ98" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>692</v>
+      </c>
+      <c r="B99" t="s">
+        <v>694</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99">
+        <v>25.783344390726899</v>
+      </c>
+      <c r="F99">
+        <v>68.857436965971203</v>
+      </c>
+      <c r="G99" t="s">
+        <v>693</v>
+      </c>
+      <c r="I99" t="s">
+        <v>62</v>
+      </c>
+      <c r="J99" t="s">
+        <v>695</v>
+      </c>
+      <c r="K99" t="s">
+        <v>696</v>
+      </c>
+      <c r="M99">
+        <v>12</v>
+      </c>
+      <c r="N99">
+        <v>22</v>
+      </c>
+      <c r="P99" t="s">
+        <v>148</v>
+      </c>
+      <c r="R99" t="b">
+        <v>1</v>
+      </c>
+      <c r="S99" t="b">
+        <v>0</v>
+      </c>
+      <c r="T99" t="b">
+        <v>1</v>
+      </c>
+      <c r="W99" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ99" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>702</v>
+      </c>
+      <c r="B100" t="s">
+        <v>705</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100">
+        <v>25.115688689005701</v>
+      </c>
+      <c r="F100">
+        <v>70.255989522360395</v>
+      </c>
+      <c r="G100" s="2">
+        <v>44975</v>
+      </c>
+      <c r="I100" t="s">
+        <v>336</v>
+      </c>
+      <c r="J100" t="s">
+        <v>704</v>
+      </c>
+      <c r="M100">
+        <v>15</v>
+      </c>
+      <c r="O100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" t="s">
+        <v>145</v>
+      </c>
+      <c r="R100" t="b">
+        <v>1</v>
+      </c>
+      <c r="T100" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD100" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ100" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>707</v>
+      </c>
+      <c r="B101" t="s">
+        <v>712</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101">
+        <v>26.2978369574864</v>
+      </c>
+      <c r="F101">
+        <v>68.632971231290895</v>
+      </c>
+      <c r="G101" s="2">
+        <v>44977</v>
+      </c>
+      <c r="I101" t="s">
+        <v>710</v>
+      </c>
+      <c r="J101" t="s">
+        <v>711</v>
+      </c>
+      <c r="O101" t="s">
+        <v>56</v>
+      </c>
+      <c r="P101" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD101" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH101" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ101" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL93" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AL101" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AJ3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AJ4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -8812,6 +9389,13 @@
     <hyperlink ref="AJ93" r:id="rId110" xr:uid="{22900142-D326-6E4A-9EF3-E78B11E3C4DF}"/>
     <hyperlink ref="AJ94" r:id="rId111" xr:uid="{1AAFEBDA-B464-2C4F-B7F8-F6E93BC43DEB}"/>
     <hyperlink ref="AJ95" r:id="rId112" xr:uid="{0ED21344-B267-7542-B6E6-35CB137D6861}"/>
+    <hyperlink ref="AJ96" r:id="rId113" xr:uid="{4C62F848-E12F-AD44-B291-48E05468816C}"/>
+    <hyperlink ref="AJ97" r:id="rId114" xr:uid="{8BF275D5-80F3-004C-AED5-F3535CD3EF44}"/>
+    <hyperlink ref="AJ98" r:id="rId115" xr:uid="{0D278090-289C-9E43-B4F0-505F06E90777}"/>
+    <hyperlink ref="AJ99" r:id="rId116" xr:uid="{CB66479D-9DE0-4544-8A98-886A0A21B915}"/>
+    <hyperlink ref="AJ100" r:id="rId117" xr:uid="{9D26D152-928B-1844-9005-DC9A78EED9F2}"/>
+    <hyperlink ref="AJ2" r:id="rId118" xr:uid="{6DF516B2-1C90-674E-8A4A-E690AC6121B0}"/>
+    <hyperlink ref="AJ101" r:id="rId119" xr:uid="{6F53B1C2-7C8F-0A4A-A298-F6189AB2B6BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A062F-64D7-014B-9F7F-0743CEB6D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A2A4BA-E148-8E47-9D81-D99D6CED35E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -2798,9 +2798,9 @@
   <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3428,7 +3428,7 @@
         <v>69.563337765019099</v>
       </c>
       <c r="G10" s="2">
-        <v>45285</v>
+        <v>44950</v>
       </c>
       <c r="I10" t="s">
         <v>100</v>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF70FB4-DC72-9841-82E8-1FDAFA015585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A88B323-3E22-A148-8338-7FDA797ABAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="753">
   <si>
     <t>city</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Karachi</t>
   </si>
   <si>
-    <t>Sonu/Urmila</t>
-  </si>
-  <si>
     <t>Maheshwari</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
   </si>
   <si>
     <t>Saira</t>
-  </si>
-  <si>
-    <t>Rashid</t>
   </si>
   <si>
     <t>Tando Muhammad Khan Sindh:
@@ -1978,12 +1972,6 @@
     <t>d/o Kanhaiya Lal Meghwar</t>
   </si>
   <si>
-    <t>Sanghar Sindh:
-Pooja kumari d/o khaniya Kal meghwar, With victims of force conversion at High Court of Sindh at Hyderabad, their Daughter has been forcefully abducted and converted to Islam.
- #StopForcedConversions
-#saveminoritygirls</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1657076074453549057</t>
   </si>
   <si>
@@ -2458,6 +2446,89 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>case_104</t>
+  </si>
+  <si>
+    <t>Parwan d/o Nirbhav</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1642849323141545984</t>
+  </si>
+  <si>
+    <t>Umerkot Sindh 
+A hindu girl Parwan d/o Nirbhav Meghwar has been converted to Islam at Sufi shrine of Samaro and married to Allah Dino.
+#StopForcedConversions #SaveMinoritiesInPakistan</t>
+  </si>
+  <si>
+    <t>Allah Dino</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1639671975940444164</t>
+  </si>
+  <si>
+    <t>case_105</t>
+  </si>
+  <si>
+    <t>Mirpur Mathelo</t>
+  </si>
+  <si>
+    <t>Sheela</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1639278331508948992</t>
+  </si>
+  <si>
+    <t>Mirpur Mathelo Sindh:
+6 days ago a Hindu girl Sheela Meghwar had gone missing while she was going to Mandir from home.
+It is not yet known where she went, police are not helping properly.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>w/o Rashid</t>
+  </si>
+  <si>
+    <t>Sonu/Urmila d/o Teja</t>
+  </si>
+  <si>
+    <t>44403-7376034-2</t>
+  </si>
+  <si>
+    <t>44107-3678607-1</t>
+  </si>
+  <si>
+    <t>Mir s/o Allah Bux</t>
+  </si>
+  <si>
+    <t>Sanghar Sindh:
+Pooja kumari d/o khaniya Kal meghwar, With victims of force conversion at High Court of Sindh at Hyderabad, their Daughter has been forcefully abducted and converted to Islam.
+The father is being tortured and threatened. The victim's parents were promised that the girl would be returned and now the paperwork by the perpetrator's family has been done and now the victim's family has been called to courts where the girl's affidavit will be shown. The perpetrator has been made to flee by his family to avoid any consequences.
+ #StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Narain Das Bheel, Mr. Mulani for his help in translation</t>
+  </si>
+  <si>
+    <t>case_106</t>
+  </si>
+  <si>
+    <t>Qazi Ahmed</t>
+  </si>
+  <si>
+    <t>Sohana Kumari, a Hindu girl, at gunpoint, has been kidnapped from her home, Qazi Ahmed, Shaheed Benazirabad.
+The girl's father said kidnappers kidnapped his daughter and stole gold and one lakh rupees.</t>
+  </si>
+  <si>
+    <t>Veengas</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VeengasJ/status/1666142853540478989</t>
+  </si>
+  <si>
+    <t>Sohana</t>
   </si>
 </sst>
 </file>
@@ -2876,12 +2947,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM104"/>
+  <dimension ref="A1:AM107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2904,7 +2975,9 @@
     <col min="35" max="35" width="91.83203125" style="3" customWidth="1"/>
     <col min="36" max="36" width="10.83203125" style="3"/>
     <col min="37" max="37" width="40.1640625" style="3" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="3"/>
+    <col min="38" max="38" width="10.83203125" style="3"/>
+    <col min="39" max="39" width="29" style="3" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2930,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>49</v>
@@ -2948,7 +3021,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>45</v>
@@ -3146,7 +3219,7 @@
         <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N3" s="3">
         <v>11</v>
@@ -3182,7 +3255,7 @@
         <v>21</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>24</v>
@@ -3239,7 +3312,7 @@
         <v>65</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>24</v>
@@ -3323,7 +3396,7 @@
         <v>74</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O6" s="3">
         <v>20</v>
@@ -3362,7 +3435,7 @@
         <v>79</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>24</v>
@@ -3509,7 +3582,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U9" s="3" t="b">
         <v>1</v>
@@ -3644,7 +3717,7 @@
         <v>107</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>108</v>
@@ -3662,13 +3735,13 @@
         <v>110</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AJ11" s="3" t="s">
         <v>21</v>
@@ -3725,10 +3798,10 @@
         <v>1</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z12" s="3" t="b">
         <v>1</v>
@@ -3749,7 +3822,7 @@
         <v>21</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL12" s="6" t="s">
         <v>117</v>
@@ -3785,10 +3858,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>121</v>
@@ -3800,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z13" s="3" t="b">
         <v>1</v>
@@ -3830,7 +3903,7 @@
         <v>124</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM13" s="3" t="s">
         <v>24</v>
@@ -3841,7 +3914,7 @@
         <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>53</v>
@@ -3866,7 +3939,7 @@
         <v>130</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>75</v>
@@ -3875,7 +3948,7 @@
         <v>129</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S14" s="3" t="b">
         <v>0</v>
@@ -3899,7 +3972,7 @@
         <v>128</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AM14" s="3" t="s">
         <v>24</v>
@@ -4057,7 +4130,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -4082,10 +4155,10 @@
         <v>149</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N17" s="3">
         <v>13</v>
@@ -4106,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z17" s="3" t="b">
         <v>1</v>
@@ -4124,19 +4197,19 @@
         <v>1</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AK17" s="6" t="s">
         <v>147</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="153" x14ac:dyDescent="0.2">
@@ -4144,7 +4217,7 @@
         <v>150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
@@ -4169,10 +4242,10 @@
         <v>151</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N18" s="3">
         <v>11</v>
@@ -4190,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z18" s="3" t="b">
         <v>1</v>
@@ -4208,13 +4281,13 @@
         <v>1</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AJ18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AM18" s="3" t="s">
         <v>24</v>
@@ -4250,7 +4323,7 @@
         <v>158</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>145</v>
@@ -4265,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE19" s="3" t="b">
         <v>1</v>
@@ -4288,7 +4361,7 @@
         <v>160</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>161</v>
@@ -4310,16 +4383,16 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="L20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>166</v>
+        <v>740</v>
       </c>
       <c r="N20" s="3">
         <v>15</v>
@@ -4334,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Z20" s="3" t="b">
         <v>1</v>
@@ -4346,16 +4419,16 @@
         <v>1</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>24</v>
@@ -4363,13 +4436,13 @@
     </row>
     <row r="21" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
@@ -4391,7 +4464,7 @@
         <v>148</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U21" s="3" t="b">
         <v>1</v>
@@ -4406,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AM21" s="3" t="s">
         <v>24</v>
@@ -4420,16 +4493,16 @@
     </row>
     <row r="22" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="3">
         <v>29.5557738233809</v>
@@ -4445,55 +4518,55 @@
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="AC22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM22" s="3" t="s">
         <v>24</v>
@@ -4501,13 +4574,13 @@
     </row>
     <row r="23" spans="1:39" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
@@ -4526,10 +4599,10 @@
         <v>7</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O23" s="3">
         <v>22</v>
@@ -4538,7 +4611,7 @@
         <v>129</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T23" s="3" t="b">
         <v>0</v>
@@ -4547,22 +4620,22 @@
         <v>1</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM23" s="3" t="s">
         <v>24</v>
@@ -4570,13 +4643,13 @@
     </row>
     <row r="24" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>36</v>
@@ -4595,16 +4668,16 @@
         <v>7</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>129</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U24" s="3" t="b">
         <v>1</v>
@@ -4613,22 +4686,22 @@
         <v>1</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AJ24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>24</v>
@@ -4636,13 +4709,13 @@
     </row>
     <row r="25" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>36</v>
@@ -4661,16 +4734,16 @@
         <v>7</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>129</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U25" s="3" t="b">
         <v>1</v>
@@ -4679,22 +4752,22 @@
         <v>1</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AJ25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AM25" s="3" t="s">
         <v>24</v>
@@ -4702,7 +4775,7 @@
     </row>
     <row r="26" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>161</v>
@@ -4727,10 +4800,10 @@
         <v>7</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N26" s="3">
         <v>14</v>
@@ -4742,7 +4815,7 @@
         <v>148</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S26" s="3" t="b">
         <v>1</v>
@@ -4751,14 +4824,14 @@
         <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="Z26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="AC26" s="3" t="b">
         <v>1</v>
       </c>
@@ -4775,16 +4848,16 @@
         <v>1</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AM26" s="3" t="s">
         <v>24</v>
@@ -4792,10 +4865,10 @@
     </row>
     <row r="27" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -4817,10 +4890,10 @@
         <v>6</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N27" s="3">
         <v>14</v>
@@ -4829,7 +4902,7 @@
         <v>148</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S27" s="3" t="b">
         <v>1</v>
@@ -4838,22 +4911,22 @@
         <v>1</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AJ27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM27" s="3" t="s">
         <v>24</v>
@@ -4861,10 +4934,10 @@
     </row>
     <row r="28" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>53</v>
@@ -4886,10 +4959,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N28" s="3">
         <v>12</v>
@@ -4901,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC28" s="3" t="b">
         <v>1</v>
@@ -4910,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AJ28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>24</v>
@@ -4924,13 +4997,13 @@
     </row>
     <row r="29" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>36</v>
@@ -4949,16 +5022,16 @@
         <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="O29" s="3">
         <v>23</v>
@@ -4967,7 +5040,7 @@
         <v>148</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T29" s="3" t="b">
         <v>0</v>
@@ -4982,7 +5055,7 @@
         <v>76</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC29" s="3" t="b">
         <v>1</v>
@@ -4994,16 +5067,16 @@
         <v>1</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AJ29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AM29" s="3" t="s">
         <v>24</v>
@@ -5011,10 +5084,10 @@
     </row>
     <row r="30" spans="1:39" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>161</v>
@@ -5036,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N30" s="3">
         <v>13</v>
@@ -5051,7 +5124,7 @@
         <v>148</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S30" s="3" t="b">
         <v>1</v>
@@ -5060,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z30" s="3" t="b">
         <v>1</v>
@@ -5075,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AJ30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AM30" s="3" t="s">
         <v>24</v>
@@ -5089,16 +5162,16 @@
     </row>
     <row r="31" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E31" s="3">
         <v>28.260044969103699</v>
@@ -5114,16 +5187,16 @@
         <v>6</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S31" s="3" t="b">
         <v>0</v>
@@ -5135,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD31" s="3" t="b">
         <v>1</v>
@@ -5144,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AJ31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AM31" s="3" t="s">
         <v>24</v>
@@ -5158,7 +5231,7 @@
     </row>
     <row r="32" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>119</v>
@@ -5180,13 +5253,13 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z32" s="3" t="b">
         <v>1</v>
@@ -5195,7 +5268,7 @@
         <v>76</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD32" s="3" t="b">
         <v>1</v>
@@ -5204,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="AI32" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AJ32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM32" s="3" t="s">
         <v>24</v>
@@ -5218,13 +5291,13 @@
     </row>
     <row r="33" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>36</v>
@@ -5243,13 +5316,13 @@
         <v>6</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N33" s="3">
         <v>13</v>
@@ -5261,7 +5334,7 @@
         <v>148</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S33" s="3" t="b">
         <v>1</v>
@@ -5279,7 +5352,7 @@
         <v>109</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z33" s="3" t="b">
         <v>1</v>
@@ -5297,16 +5370,16 @@
         <v>1</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AJ33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK33" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL33" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>24</v>
@@ -5314,10 +5387,10 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
@@ -5339,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>33</v>
@@ -5351,7 +5424,7 @@
         <v>148</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S34" s="3" t="b">
         <v>1</v>
@@ -5360,48 +5433,48 @@
         <v>1</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK34" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="AM34" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="AD34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK34" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM34" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>36</v>
@@ -5420,16 +5493,16 @@
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N35" s="3">
         <v>17</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>145</v>
@@ -5438,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AE35" s="3" t="b">
         <v>1</v>
@@ -5450,24 +5523,24 @@
         <v>1</v>
       </c>
       <c r="AJ35" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AM35" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>36</v>
@@ -5486,16 +5559,16 @@
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="N36" s="3">
         <v>18</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>145</v>
@@ -5504,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AE36" s="3" t="b">
         <v>1</v>
@@ -5516,21 +5589,21 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AK36" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AM36" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>36</v>
@@ -5558,39 +5631,39 @@
         <v>1</v>
       </c>
       <c r="X37" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AE37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="3" t="s">
+      <c r="AK37" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AJ37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK37" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="AM37" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>36</v>
@@ -5603,7 +5676,7 @@
       </c>
       <c r="H38" s="10"/>
       <c r="J38" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>33</v>
@@ -5615,27 +5688,27 @@
         <v>1</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AE38" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI38" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AJ38" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM38" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>73</v>
@@ -5654,7 +5727,7 @@
       </c>
       <c r="H39" s="10"/>
       <c r="J39" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>33</v>
@@ -5669,24 +5742,24 @@
         <v>1</v>
       </c>
       <c r="AJ39" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM39" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>36</v>
@@ -5699,7 +5772,7 @@
       </c>
       <c r="H40" s="10"/>
       <c r="J40" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>145</v>
@@ -5708,24 +5781,24 @@
         <v>1</v>
       </c>
       <c r="AJ40" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM40" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>36</v>
@@ -5738,7 +5811,7 @@
       </c>
       <c r="H41" s="10"/>
       <c r="J41" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>145</v>
@@ -5747,24 +5820,24 @@
         <v>1</v>
       </c>
       <c r="AJ41" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM41" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>36</v>
@@ -5783,7 +5856,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>56</v>
@@ -5801,19 +5874,19 @@
         <v>1</v>
       </c>
       <c r="X42" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="AE42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="AJ42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM42" s="3" t="s">
         <v>24</v>
@@ -5821,7 +5894,7 @@
     </row>
     <row r="43" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>61</v>
@@ -5846,7 +5919,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>75</v>
@@ -5855,7 +5928,7 @@
         <v>148</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T43" s="3" t="b">
         <v>1</v>
@@ -5870,13 +5943,13 @@
         <v>1</v>
       </c>
       <c r="AI43" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AJ43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK43" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM43" s="3" t="s">
         <v>24</v>
@@ -5884,7 +5957,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>84</v>
@@ -5906,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>148</v>
@@ -5927,13 +6000,13 @@
         <v>1</v>
       </c>
       <c r="AI44" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AJ44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK44" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AM44" s="3" t="s">
         <v>24</v>
@@ -5941,10 +6014,10 @@
     </row>
     <row r="45" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>35</v>
@@ -5966,16 +6039,16 @@
         <v>7</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T45" s="3" t="b">
         <v>1</v>
@@ -5987,13 +6060,13 @@
         <v>1</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AJ45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK45" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM45" s="3" t="s">
         <v>24</v>
@@ -6001,10 +6074,10 @@
     </row>
     <row r="46" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>84</v>
@@ -6026,7 +6099,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>33</v>
@@ -6035,7 +6108,7 @@
         <v>148</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S46" s="3" t="b">
         <v>0</v>
@@ -6059,13 +6132,13 @@
         <v>1</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK46" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM46" s="3" t="s">
         <v>24</v>
@@ -6073,7 +6146,7 @@
     </row>
     <row r="47" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>61</v>
@@ -6098,10 +6171,10 @@
         <v>6</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>148</v>
@@ -6125,7 +6198,7 @@
         <v>109</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Z47" s="3" t="b">
         <v>1</v>
@@ -6137,13 +6210,13 @@
         <v>1</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AJ47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK47" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM47" s="3" t="s">
         <v>24</v>
@@ -6151,10 +6224,10 @@
     </row>
     <row r="48" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>72</v>
@@ -6168,9 +6241,15 @@
       <c r="F48" s="3">
         <v>69.806400998791403</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="G48" s="4">
+        <v>44879</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J48" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>75</v>
@@ -6182,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Z48" s="3" t="b">
         <v>1</v>
@@ -6191,7 +6270,7 @@
         <v>89</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AC48" s="3" t="b">
         <v>1</v>
@@ -6203,16 +6282,16 @@
         <v>1</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AJ48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL48" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AM48" s="3" t="s">
         <v>24</v>
@@ -6220,10 +6299,10 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>39</v>
@@ -6237,27 +6316,36 @@
       <c r="F49" s="3">
         <v>69.377192279353196</v>
       </c>
+      <c r="G49" s="4">
+        <v>44868</v>
+      </c>
       <c r="H49" s="10"/>
+      <c r="I49" s="3" t="s">
+        <v>742</v>
+      </c>
       <c r="J49" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N49" s="3">
         <v>17</v>
       </c>
+      <c r="O49" s="3">
+        <v>28</v>
+      </c>
       <c r="Q49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S49" s="3" t="b">
         <v>1</v>
@@ -6266,16 +6354,19 @@
         <v>1</v>
       </c>
       <c r="X49" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="Z49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="Z49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="AB49" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AC49" s="3" t="b">
         <v>1</v>
@@ -6290,7 +6381,7 @@
         <v>21</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM49" s="3" t="s">
         <v>24</v>
@@ -6298,10 +6389,10 @@
     </row>
     <row r="50" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>84</v>
@@ -6323,16 +6414,16 @@
         <v>7</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S50" s="3" t="b">
         <v>1</v>
@@ -6341,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z50" s="3" t="b">
         <v>1</v>
@@ -6350,7 +6441,7 @@
         <v>89</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AC50" s="3" t="b">
         <v>1</v>
@@ -6362,13 +6453,13 @@
         <v>1</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AJ50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK50" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AM50" s="3" t="s">
         <v>24</v>
@@ -6376,10 +6467,10 @@
     </row>
     <row r="51" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>84</v>
@@ -6401,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>56</v>
@@ -6410,13 +6501,13 @@
         <v>148</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U51" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Z51" s="3" t="b">
         <v>1</v>
@@ -6428,16 +6519,16 @@
         <v>1</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AJ51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AM51" s="3" t="s">
         <v>24</v>
@@ -6445,10 +6536,10 @@
     </row>
     <row r="52" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>72</v>
@@ -6470,43 +6561,43 @@
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U52" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X52" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="Z52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="AJ52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK52" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AM52" s="3" t="s">
         <v>24</v>
@@ -6514,13 +6605,13 @@
     </row>
     <row r="53" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>36</v>
@@ -6533,7 +6624,7 @@
       </c>
       <c r="H53" s="10"/>
       <c r="J53" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>75</v>
@@ -6542,19 +6633,19 @@
         <v>148</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Z53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AC53" s="3" t="b">
         <v>1</v>
@@ -6563,13 +6654,13 @@
         <v>1</v>
       </c>
       <c r="AI53" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AJ53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK53" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AM53" s="3" t="s">
         <v>24</v>
@@ -6577,13 +6668,13 @@
     </row>
     <row r="54" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>36</v>
@@ -6596,16 +6687,16 @@
       </c>
       <c r="H54" s="10"/>
       <c r="J54" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U54" s="3" t="b">
         <v>1</v>
@@ -6614,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD54" s="3" t="b">
         <v>1</v>
@@ -6623,13 +6714,13 @@
         <v>1</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK54" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AM54" s="3" t="s">
         <v>24</v>
@@ -6637,10 +6728,10 @@
     </row>
     <row r="55" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>84</v>
@@ -6662,28 +6753,28 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U55" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z55" s="3" t="b">
         <v>1</v>
@@ -6692,16 +6783,16 @@
         <v>1</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AJ55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL55" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM55" s="3" t="s">
         <v>24</v>
@@ -6709,10 +6800,10 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>72</v>
@@ -6740,7 +6831,7 @@
         <v>148</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U56" s="3" t="b">
         <v>1</v>
@@ -6755,7 +6846,7 @@
         <v>21</v>
       </c>
       <c r="AK56" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AM56" s="3" t="s">
         <v>24</v>
@@ -6763,13 +6854,13 @@
     </row>
     <row r="57" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>36</v>
@@ -6788,16 +6879,16 @@
         <v>6</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U57" s="3" t="b">
         <v>1</v>
@@ -6806,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AJ57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK57" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AM57" s="3" t="s">
         <v>24</v>
@@ -6820,23 +6911,23 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AC58" s="3" t="b">
         <v>0</v>
@@ -6845,7 +6936,7 @@
         <v>21</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM58" s="3" t="s">
         <v>24</v>
@@ -6853,23 +6944,23 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="10"/>
       <c r="J59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AC59" s="3" t="b">
         <v>0</v>
@@ -6878,7 +6969,7 @@
         <v>21</v>
       </c>
       <c r="AK59" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM59" s="3" t="s">
         <v>24</v>
@@ -6886,7 +6977,7 @@
     </row>
     <row r="60" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>61</v>
@@ -6917,13 +7008,13 @@
         <v>145</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U60" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC60" s="3" t="b">
         <v>1</v>
@@ -6932,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AJ60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM60" s="3" t="s">
         <v>24</v>
@@ -6946,7 +7037,7 @@
     </row>
     <row r="61" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>53</v>
@@ -6968,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>109</v>
@@ -6980,19 +7071,19 @@
         <v>1</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AJ61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AM61" s="3" t="s">
         <v>24</v>
@@ -7000,10 +7091,10 @@
     </row>
     <row r="62" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>72</v>
@@ -7025,7 +7116,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>75</v>
@@ -7037,13 +7128,13 @@
         <v>0</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AJ62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK62" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AM62" s="3" t="s">
         <v>24</v>
@@ -7051,7 +7142,7 @@
     </row>
     <row r="63" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
@@ -7076,10 +7167,10 @@
         <v>5</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O63" s="3">
         <v>22</v>
@@ -7094,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AJ63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK63" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AM63" s="3" t="s">
         <v>24</v>
@@ -7108,10 +7199,10 @@
     </row>
     <row r="64" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>72</v>
@@ -7133,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>33</v>
@@ -7151,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AJ64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK64" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AM64" s="3" t="s">
         <v>24</v>
@@ -7165,16 +7256,16 @@
     </row>
     <row r="65" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E65" s="3">
         <v>29.101389427692101</v>
@@ -7190,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>129</v>
@@ -7205,19 +7296,19 @@
         <v>1</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AC65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI65" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AJ65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK65" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AM65" s="3" t="s">
         <v>24</v>
@@ -7225,10 +7316,10 @@
     </row>
     <row r="66" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>84</v>
@@ -7250,13 +7341,13 @@
         <v>7</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K66" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="N66" s="3">
         <v>15</v>
@@ -7268,7 +7359,7 @@
         <v>148</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S66" s="3" t="b">
         <v>1</v>
@@ -7280,16 +7371,16 @@
         <v>1</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="Z66" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AD66" s="3" t="b">
         <v>1</v>
@@ -7307,13 +7398,13 @@
         <v>1</v>
       </c>
       <c r="AI66" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AJ66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK66" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AM66" s="3" t="s">
         <v>24</v>
@@ -7321,16 +7412,16 @@
     </row>
     <row r="67" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E67" s="3">
         <v>28.517991037086102</v>
@@ -7342,23 +7433,23 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H104" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H107" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K67" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="Q67" s="3" t="s">
         <v>148</v>
@@ -7370,33 +7461,33 @@
         <v>1</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y67" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="Z67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="AJ67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK67" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AM67" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>73</v>
@@ -7421,7 +7512,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>33</v>
@@ -7439,13 +7530,13 @@
         <v>1</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Z68" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AD68" s="3" t="b">
         <v>1</v>
@@ -7454,13 +7545,13 @@
         <v>1</v>
       </c>
       <c r="AI68" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AJ68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK68" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AM68" s="3" t="s">
         <v>24</v>
@@ -7468,10 +7559,10 @@
     </row>
     <row r="69" spans="1:39" ht="289" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>84</v>
@@ -7493,7 +7584,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>56</v>
@@ -7523,31 +7614,31 @@
         <v>0</v>
       </c>
       <c r="X69" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="Z69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE69" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="AJ69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK69" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AM69" s="3" t="s">
         <v>24</v>
@@ -7555,10 +7646,10 @@
     </row>
     <row r="70" spans="1:39" ht="356" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>72</v>
@@ -7580,22 +7671,22 @@
         <v>5</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="P70" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="U70" s="3" t="b">
         <v>1</v>
@@ -7604,17 +7695,17 @@
         <v>0</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Z70" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA70" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB70" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="AB70" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="AC70" s="3" t="b">
         <v>1</v>
       </c>
@@ -7622,16 +7713,16 @@
         <v>1</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AJ70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK70" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AL70" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AM70" s="3" t="s">
         <v>24</v>
@@ -7639,10 +7730,10 @@
     </row>
     <row r="71" spans="1:39" ht="204" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>161</v>
@@ -7664,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>145</v>
@@ -7679,16 +7770,16 @@
         <v>1</v>
       </c>
       <c r="AI71" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AJ71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK71" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AL71" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="AL71" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="AM71" s="3" t="s">
         <v>24</v>
@@ -7696,10 +7787,10 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>161</v>
@@ -7721,7 +7812,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>145</v>
@@ -7733,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AM72" s="3" t="s">
         <v>24</v>
@@ -7741,10 +7832,10 @@
     </row>
     <row r="73" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>53</v>
@@ -7784,10 +7875,10 @@
         <v>1</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Z73" s="3" t="b">
         <v>1</v>
@@ -7796,13 +7887,13 @@
         <v>1</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AJ73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK73" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AM73" s="3" t="s">
         <v>24</v>
@@ -7810,13 +7901,13 @@
     </row>
     <row r="74" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>36</v>
@@ -7835,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>56</v>
@@ -7844,7 +7935,7 @@
         <v>56</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z74" s="3" t="b">
         <v>1</v>
@@ -7853,13 +7944,13 @@
         <v>1</v>
       </c>
       <c r="AI74" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AJ74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK74" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM74" s="3" t="s">
         <v>24</v>
@@ -7867,10 +7958,10 @@
     </row>
     <row r="75" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>72</v>
@@ -7892,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>33</v>
@@ -7907,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z75" s="3" t="b">
         <v>1</v>
@@ -7919,13 +8010,13 @@
         <v>1</v>
       </c>
       <c r="AI75" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AJ75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK75" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AM75" s="3" t="s">
         <v>24</v>
@@ -7933,13 +8024,13 @@
     </row>
     <row r="76" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>36</v>
@@ -7958,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>75</v>
@@ -7967,22 +8058,22 @@
         <v>75</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="U76" s="3" t="b">
         <v>0</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AJ76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK76" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AM76" s="3" t="s">
         <v>24</v>
@@ -7990,13 +8081,13 @@
     </row>
     <row r="77" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>36</v>
@@ -8015,13 +8106,13 @@
         <v>3</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>148</v>
@@ -8048,13 +8139,13 @@
         <v>1</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AJ77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK77" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AM77" s="3" t="s">
         <v>24</v>
@@ -8062,10 +8153,10 @@
     </row>
     <row r="78" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>84</v>
@@ -8087,13 +8178,13 @@
         <v>6</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>148</v>
@@ -8102,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Z78" s="3" t="b">
         <v>1</v>
@@ -8117,13 +8208,13 @@
         <v>1</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AJ78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK78" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM78" s="3" t="s">
         <v>24</v>
@@ -8131,10 +8222,10 @@
     </row>
     <row r="79" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>35</v>
@@ -8156,13 +8247,13 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>148</v>
@@ -8177,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Z79" s="3" t="b">
         <v>1</v>
@@ -8189,13 +8280,13 @@
         <v>1</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AJ79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK79" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AM79" s="3" t="s">
         <v>24</v>
@@ -8203,10 +8294,10 @@
     </row>
     <row r="80" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>84</v>
@@ -8228,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>75</v>
@@ -8240,7 +8331,7 @@
         <v>148</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="Z80" s="3" t="b">
         <v>1</v>
@@ -8249,7 +8340,7 @@
         <v>89</v>
       </c>
       <c r="AB80" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AC80" s="3" t="b">
         <v>1</v>
@@ -8261,13 +8352,13 @@
         <v>1</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK80" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM80" s="3" t="s">
         <v>24</v>
@@ -8275,10 +8366,10 @@
     </row>
     <row r="81" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>161</v>
@@ -8300,13 +8391,13 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>33</v>
@@ -8330,16 +8421,16 @@
         <v>1</v>
       </c>
       <c r="AI81" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AJ81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK81" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AL81" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AM81" s="3" t="s">
         <v>24</v>
@@ -8347,10 +8438,10 @@
     </row>
     <row r="82" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>161</v>
@@ -8372,10 +8463,10 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N82" s="3">
         <v>14</v>
@@ -8399,16 +8490,16 @@
         <v>1</v>
       </c>
       <c r="AI82" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK82" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AL82" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM82" s="3" t="s">
         <v>24</v>
@@ -8416,10 +8507,10 @@
     </row>
     <row r="83" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>161</v>
@@ -8441,10 +8532,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N83" s="3">
         <v>12</v>
@@ -8468,24 +8559,24 @@
         <v>1</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK83" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AL83" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM83" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" ht="187" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>53</v>
@@ -8510,10 +8601,10 @@
         <v>6</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>33</v>
@@ -8524,34 +8615,43 @@
       <c r="U84" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="X84" s="3" t="s">
+        <v>744</v>
+      </c>
       <c r="Z84" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AE84" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="AF84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="AI84" s="5" t="s">
-        <v>590</v>
+        <v>745</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK84" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AM84" s="3" t="s">
-        <v>24</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>36</v>
@@ -8570,10 +8670,10 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>33</v>
@@ -8585,13 +8685,13 @@
         <v>1</v>
       </c>
       <c r="AI85" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK85" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AM85" s="3" t="s">
         <v>24</v>
@@ -8599,10 +8699,10 @@
     </row>
     <row r="86" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>161</v>
@@ -8624,31 +8724,31 @@
         <v>6</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>145</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AE86" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AJ86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK86" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AM86" s="3" t="s">
         <v>24</v>
@@ -8656,13 +8756,13 @@
     </row>
     <row r="87" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>36</v>
@@ -8681,19 +8781,19 @@
         <v>5</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K87" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="L87" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="M87" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O87" s="3">
         <v>25</v>
@@ -8708,13 +8808,13 @@
         <v>1</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Z87" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA87" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AC87" s="3" t="b">
         <v>1</v>
@@ -8723,13 +8823,13 @@
         <v>1</v>
       </c>
       <c r="AI87" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AJ87" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK87" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AM87" s="3" t="s">
         <v>24</v>
@@ -8737,10 +8837,10 @@
     </row>
     <row r="88" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>53</v>
@@ -8765,16 +8865,16 @@
         <v>32</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>148</v>
@@ -8783,16 +8883,16 @@
         <v>1</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Z88" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AC88" s="3" t="b">
         <v>1</v>
@@ -8801,13 +8901,13 @@
         <v>1</v>
       </c>
       <c r="AI88" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AJ88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK88" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AM88" s="3" t="s">
         <v>24</v>
@@ -8815,7 +8915,7 @@
     </row>
     <row r="89" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
@@ -8843,16 +8943,16 @@
         <v>149</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N89" s="3">
         <v>16</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>148</v>
@@ -8864,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
@@ -8876,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="AI89" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AJ89" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK89" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AM89" s="3" t="s">
         <v>24</v>
@@ -8890,10 +8990,10 @@
     </row>
     <row r="90" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>53</v>
@@ -8915,10 +9015,10 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>75</v>
@@ -8942,13 +9042,13 @@
         <v>1</v>
       </c>
       <c r="AI90" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AJ90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK90" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AM90" s="3" t="s">
         <v>24</v>
@@ -8956,10 +9056,10 @@
     </row>
     <row r="91" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>161</v>
@@ -8981,10 +9081,10 @@
         <v>7</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="N91" s="3">
         <v>17</v>
@@ -8993,7 +9093,7 @@
         <v>17</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>148</v>
@@ -9014,13 +9114,13 @@
         <v>1</v>
       </c>
       <c r="AI91" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK91" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AM91" s="3" t="s">
         <v>24</v>
@@ -9028,10 +9128,10 @@
     </row>
     <row r="92" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>35</v>
@@ -9053,16 +9153,16 @@
         <v>6</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="O92" s="3">
         <v>22</v>
@@ -9080,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="X92" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AC92" s="3" t="b">
         <v>1</v>
@@ -9098,13 +9198,13 @@
         <v>1</v>
       </c>
       <c r="AI92" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AJ92" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK92" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AM92" s="3" t="s">
         <v>24</v>
@@ -9112,10 +9212,10 @@
     </row>
     <row r="93" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>72</v>
@@ -9137,7 +9237,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>56</v>
@@ -9146,7 +9246,7 @@
         <v>56</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="T93" s="3" t="b">
         <v>1</v>
@@ -9158,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="AI93" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AJ93" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK93" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AM93" s="3" t="s">
         <v>24</v>
@@ -9172,13 +9272,13 @@
     </row>
     <row r="94" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>36</v>
@@ -9197,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>33</v>
@@ -9209,7 +9309,7 @@
         <v>145</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U94" s="3" t="b">
         <v>1</v>
@@ -9221,13 +9321,13 @@
         <v>1</v>
       </c>
       <c r="AI94" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AJ94" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK94" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AM94" s="3" t="s">
         <v>24</v>
@@ -9235,10 +9335,10 @@
     </row>
     <row r="95" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>53</v>
@@ -9260,37 +9360,37 @@
         <v>5</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>148</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="U95" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X95" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AJ95" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK95" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AM95" s="3" t="s">
         <v>24</v>
@@ -9298,13 +9398,13 @@
     </row>
     <row r="96" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>36</v>
@@ -9323,10 +9423,10 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N96" s="3">
         <v>13</v>
@@ -9335,10 +9435,10 @@
         <v>56</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S96" s="3" t="b">
         <v>1</v>
@@ -9350,10 +9450,10 @@
         <v>1</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="X96" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>0</v>
@@ -9365,13 +9465,13 @@
         <v>0</v>
       </c>
       <c r="AI96" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AJ96" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK96" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM96" s="3" t="s">
         <v>24</v>
@@ -9379,10 +9479,10 @@
     </row>
     <row r="97" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>53</v>
@@ -9404,16 +9504,16 @@
         <v>5</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="N97" s="3">
         <v>17</v>
@@ -9428,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
@@ -9440,13 +9540,13 @@
         <v>1</v>
       </c>
       <c r="AI97" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AJ97" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK97" s="6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AM97" s="3" t="s">
         <v>24</v>
@@ -9454,10 +9554,10 @@
     </row>
     <row r="98" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>161</v>
@@ -9479,19 +9579,19 @@
         <v>7</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="N98" s="3">
         <v>16</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>148</v>
@@ -9503,10 +9603,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
@@ -9518,13 +9618,13 @@
         <v>1</v>
       </c>
       <c r="AI98" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AJ98" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK98" s="6" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AM98" s="3" t="s">
         <v>24</v>
@@ -9532,10 +9632,10 @@
     </row>
     <row r="99" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>53</v>
@@ -9560,10 +9660,10 @@
         <v>62</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N99" s="3">
         <v>12</v>
@@ -9584,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Z99" s="3" t="b">
         <v>1</v>
@@ -9602,13 +9702,13 @@
         <v>1</v>
       </c>
       <c r="AI99" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AJ99" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK99" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AM99" s="3" t="s">
         <v>24</v>
@@ -9616,10 +9716,10 @@
     </row>
     <row r="100" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>703</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>72</v>
@@ -9641,10 +9741,10 @@
         <v>7</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N100" s="3">
         <v>15</v>
@@ -9671,13 +9771,13 @@
         <v>0</v>
       </c>
       <c r="AI100" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK100" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AM100" s="3" t="s">
         <v>24</v>
@@ -9685,13 +9785,13 @@
     </row>
     <row r="101" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>36</v>
@@ -9710,10 +9810,10 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>56</v>
@@ -9725,13 +9825,13 @@
         <v>1</v>
       </c>
       <c r="AI101" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK101" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AM101" s="3" t="s">
         <v>24</v>
@@ -9739,13 +9839,13 @@
     </row>
     <row r="102" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>36</v>
@@ -9764,10 +9864,13 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="N102" s="3">
         <v>13</v>
@@ -9788,16 +9891,16 @@
         <v>1</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Y102" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="Z102" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AC102" s="3" t="b">
         <v>1</v>
@@ -9808,14 +9911,23 @@
       <c r="AF102" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="AG102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="AI102" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AJ102" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK102" s="6" t="s">
-        <v>713</v>
+        <v>710</v>
+      </c>
+      <c r="AL102" s="3" t="s">
+        <v>734</v>
       </c>
       <c r="AM102" s="3" t="s">
         <v>24</v>
@@ -9823,10 +9935,10 @@
     </row>
     <row r="103" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>53</v>
@@ -9848,13 +9960,13 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="O103" s="3">
         <v>20</v>
@@ -9872,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="Z103" s="3" t="b">
         <v>1</v>
@@ -9887,13 +9999,13 @@
         <v>1</v>
       </c>
       <c r="AI103" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AJ103" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AM103" s="3" t="s">
         <v>24</v>
@@ -9901,7 +10013,7 @@
     </row>
     <row r="104" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>73</v>
@@ -9926,13 +10038,13 @@
         <v>5</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O104" s="3">
         <v>20</v>
@@ -9950,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Z104" s="3" t="b">
         <v>1</v>
@@ -9959,7 +10071,7 @@
         <v>89</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AC104" s="3" t="b">
         <v>1</v>
@@ -9971,20 +10083,209 @@
         <v>1</v>
       </c>
       <c r="AI104" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AM104" s="3" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="105" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="3">
+        <v>25.3552606252847</v>
+      </c>
+      <c r="F105" s="3">
+        <v>69.736109886528993</v>
+      </c>
+      <c r="G105" s="4">
+        <v>45002</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB105" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="AJ105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK105" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AM105" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" ht="102" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="3">
+        <v>28.0219728724676</v>
+      </c>
+      <c r="F106" s="3">
+        <v>69.555691437992394</v>
+      </c>
+      <c r="G106" s="4">
+        <v>45003</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI106" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AJ106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK106" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AM106" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="3">
+        <v>26.291100333092199</v>
+      </c>
+      <c r="F107" s="3">
+        <v>68.112659100529399</v>
+      </c>
+      <c r="G107" s="4">
+        <v>45083</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK107" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AM107" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM104" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AM106" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AK3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AK4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -10108,6 +10409,9 @@
     <hyperlink ref="AK102" r:id="rId120" xr:uid="{14709406-D3DB-9148-B68D-97298D22C76C}"/>
     <hyperlink ref="AK103" r:id="rId121" xr:uid="{4B5E014D-0821-DF4F-812D-B228DB05162E}"/>
     <hyperlink ref="AK104" r:id="rId122" xr:uid="{36A9B452-CEC8-A744-91C4-86AD4AC5F4A1}"/>
+    <hyperlink ref="AK105" r:id="rId123" xr:uid="{161FE759-E448-A749-A840-BE3DB023CD43}"/>
+    <hyperlink ref="AK106" r:id="rId124" xr:uid="{DC0D86EB-1BD6-8D42-A44A-B4CCBF588BBA}"/>
+    <hyperlink ref="AK107" r:id="rId125" xr:uid="{8E848CC0-3E3C-864E-B797-D778F447BD8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A88B323-3E22-A148-8338-7FDA797ABAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731064D-302B-0D49-B348-A0C41AEC7589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="756">
   <si>
     <t>city</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>Dhoronaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lachhmi</t>
   </si>
   <si>
     <t>Murder</t>
@@ -2053,12 +2050,6 @@
     <t>case_87</t>
   </si>
   <si>
-    <t>Mirpurkhas Sindh:
-A minor Hindu Ggirl Lachmi d/o Pahalwan Bhaat resident of sindhri, Sindh has been converted to Islam by Molvi Munir Ahmed of Rahim yar khan Punjab and married of to Imtiaz Ali. Lachmi became Aisha Bibi.
-#StopForcedConversions
-#saveminoritygirls</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1653979445567590404</t>
   </si>
   <si>
@@ -2515,20 +2506,43 @@
     <t>case_106</t>
   </si>
   <si>
-    <t>Qazi Ahmed</t>
-  </si>
-  <si>
-    <t>Sohana Kumari, a Hindu girl, at gunpoint, has been kidnapped from her home, Qazi Ahmed, Shaheed Benazirabad.
-The girl's father said kidnappers kidnapped his daughter and stole gold and one lakh rupees.</t>
-  </si>
-  <si>
     <t>Veengas</t>
   </si>
   <si>
     <t>https://twitter.com/VeengasJ/status/1666142853540478989</t>
   </si>
   <si>
-    <t>Sohana</t>
+    <t>Sohana d/o Dileep Kumar</t>
+  </si>
+  <si>
+    <t>45401-4457490-7</t>
+  </si>
+  <si>
+    <t>Village Dost Muhammad, Qazi Ahmed</t>
+  </si>
+  <si>
+    <t>Akhtiar Ali s/o Mohammad Bux Gabol, Faizan Jat,and Sarang Khaskheli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sohana Kumari, a Hindu girl, at gunpoint, has been kidnapped from her home, Qazi Ahmed, Shaheed Benazirabad. 
+Married to Akhtiar Ali
+Witnesses to Affidavit of Freewill:
+1. Abdul Latif s/o Sain Dino Solangi (CNIC: 45401-4301658-5)
+2. Muhammad Bux s/o Muhammad Ali Gabol (CNIC: 45401-1993806-5)
+The girl's father said kidnappers kidnapped his daughter and stole gold and one lakh rupees.
+Married on June 2, 2023 -- The girl was abducted around May 22, 2023 and wasn't married to the abductor until Jun 2, 2023. Between these dates, the girl's family was prevented from taking any action by authorities using a mix of false hope and threats. This goes to suggest that the administration is hand in glove with the conversion lobby.  </t>
+  </si>
+  <si>
+    <t>Sharma Kumari</t>
+  </si>
+  <si>
+    <t>Mirpurkhas Sindh:
+A minor Hindu Girl Lachmi d/o Pahalwan Bhaat resident of sindhri, Sindh has been converted to Islam by Molvi Munir Ahmed of Rahim yar khan Punjab and married of to Imtiaz Ali. Lachmi became Aisha Bibi.
+#StopForcedConversions
+#saveminoritygirls</t>
+  </si>
+  <si>
+    <t>Lachhmi</t>
   </si>
 </sst>
 </file>
@@ -2949,10 +2963,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
   <dimension ref="A1:AM107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,7 +3017,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>49</v>
@@ -3021,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>45</v>
@@ -3078,7 +3092,7 @@
         <v>14</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>15</v>
@@ -3219,7 +3233,7 @@
         <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N3" s="3">
         <v>11</v>
@@ -3255,7 +3269,7 @@
         <v>21</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>24</v>
@@ -3312,7 +3326,7 @@
         <v>65</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>24</v>
@@ -3396,7 +3410,7 @@
         <v>74</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O6" s="3">
         <v>20</v>
@@ -3435,7 +3449,7 @@
         <v>79</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>24</v>
@@ -3582,7 +3596,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U9" s="3" t="b">
         <v>1</v>
@@ -3645,7 +3659,7 @@
         <v>101</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U10" s="3" t="b">
         <v>1</v>
@@ -3681,7 +3695,7 @@
         <v>104</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM10" s="3" t="s">
         <v>24</v>
@@ -3714,16 +3728,19 @@
         <v>4</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="U11" s="3" t="b">
         <v>0</v>
@@ -3732,22 +3749,22 @@
         <v>1</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AJ11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM11" s="3" t="s">
         <v>24</v>
@@ -3755,7 +3772,7 @@
     </row>
     <row r="12" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>89</v>
@@ -3780,16 +3797,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U12" s="3" t="b">
         <v>1</v>
@@ -3798,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z12" s="3" t="b">
         <v>1</v>
@@ -3816,16 +3833,16 @@
         <v>1</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM12" s="3" t="s">
         <v>24</v>
@@ -3833,13 +3850,13 @@
     </row>
     <row r="13" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
@@ -3858,28 +3875,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="Z13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="S13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AC13" s="3" t="b">
         <v>1</v>
@@ -3894,16 +3911,16 @@
         <v>1</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM13" s="3" t="s">
         <v>24</v>
@@ -3911,10 +3928,10 @@
     </row>
     <row r="14" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>53</v>
@@ -3936,19 +3953,19 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S14" s="3" t="b">
         <v>0</v>
@@ -3963,16 +3980,16 @@
         <v>1</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM14" s="3" t="s">
         <v>24</v>
@@ -3980,13 +3997,13 @@
     </row>
     <row r="15" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>36</v>
@@ -3999,16 +4016,16 @@
       </c>
       <c r="H15" s="10"/>
       <c r="J15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="S15" s="3" t="b">
         <v>0</v>
@@ -4023,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z15" s="3" t="b">
         <v>1</v>
@@ -4032,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM15" s="3" t="s">
         <v>24</v>
@@ -4046,13 +4063,13 @@
     </row>
     <row r="16" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>36</v>
@@ -4071,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>33</v>
@@ -4083,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S16" s="3" t="b">
         <v>1</v>
@@ -4092,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z16" s="3" t="b">
         <v>1</v>
@@ -4110,16 +4127,16 @@
         <v>1</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM16" s="3" t="s">
         <v>24</v>
@@ -4127,10 +4144,10 @@
     </row>
     <row r="17" spans="1:39" ht="289" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -4152,13 +4169,13 @@
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="N17" s="3">
         <v>13</v>
@@ -4167,7 +4184,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S17" s="3" t="b">
         <v>1</v>
@@ -4179,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z17" s="3" t="b">
         <v>1</v>
@@ -4197,27 +4214,27 @@
         <v>1</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AJ17" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="AK17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL17" s="7" t="s">
+      <c r="AM17" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
@@ -4239,13 +4256,13 @@
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N18" s="3">
         <v>11</v>
@@ -4254,7 +4271,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S18" s="3" t="b">
         <v>1</v>
@@ -4263,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z18" s="3" t="b">
         <v>1</v>
@@ -4281,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AJ18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM18" s="3" t="s">
         <v>24</v>
@@ -4295,7 +4312,7 @@
     </row>
     <row r="19" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>89</v>
@@ -4320,16 +4337,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="S19" s="3" t="b">
         <v>0</v>
@@ -4338,19 +4355,19 @@
         <v>0</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AE19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM19" s="3" t="s">
         <v>24</v>
@@ -4358,13 +4375,13 @@
     </row>
     <row r="20" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>36</v>
@@ -4383,22 +4400,22 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N20" s="3">
         <v>15</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S20" s="3" t="b">
         <v>1</v>
@@ -4407,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z20" s="3" t="b">
         <v>1</v>
@@ -4419,16 +4436,16 @@
         <v>1</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AJ20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>24</v>
@@ -4436,13 +4453,13 @@
     </row>
     <row r="21" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
@@ -4461,10 +4478,10 @@
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U21" s="3" t="b">
         <v>1</v>
@@ -4479,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AJ21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM21" s="3" t="s">
         <v>24</v>
@@ -4493,16 +4510,16 @@
     </row>
     <row r="22" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E22" s="3">
         <v>29.5557738233809</v>
@@ -4518,55 +4535,55 @@
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="Z22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="AJ22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM22" s="3" t="s">
         <v>24</v>
@@ -4574,13 +4591,13 @@
     </row>
     <row r="23" spans="1:39" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
@@ -4599,19 +4616,19 @@
         <v>7</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="O23" s="3">
         <v>22</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T23" s="3" t="b">
         <v>0</v>
@@ -4620,22 +4637,22 @@
         <v>1</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM23" s="3" t="s">
         <v>24</v>
@@ -4643,13 +4660,13 @@
     </row>
     <row r="24" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>36</v>
@@ -4668,40 +4685,40 @@
         <v>7</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="Q24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="U24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="U24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="Z24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL24" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>24</v>
@@ -4709,13 +4726,13 @@
     </row>
     <row r="25" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>36</v>
@@ -4734,40 +4751,40 @@
         <v>7</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="U25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="U25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="Z25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL25" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="AM25" s="3" t="s">
         <v>24</v>
@@ -4775,13 +4792,13 @@
     </row>
     <row r="26" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>36</v>
@@ -4800,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="N26" s="3">
         <v>14</v>
@@ -4812,10 +4829,10 @@
         <v>18</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S26" s="3" t="b">
         <v>1</v>
@@ -4824,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC26" s="3" t="b">
         <v>1</v>
@@ -4848,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM26" s="3" t="s">
         <v>24</v>
@@ -4865,10 +4882,10 @@
     </row>
     <row r="27" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -4890,19 +4907,19 @@
         <v>6</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="N27" s="3">
         <v>14</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S27" s="3" t="b">
         <v>1</v>
@@ -4911,22 +4928,22 @@
         <v>1</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM27" s="3" t="s">
         <v>24</v>
@@ -4934,10 +4951,10 @@
     </row>
     <row r="28" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>53</v>
@@ -4959,22 +4976,22 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="N28" s="3">
         <v>12</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC28" s="3" t="b">
         <v>1</v>
@@ -4983,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM28" s="3" t="s">
         <v>24</v>
@@ -4997,13 +5014,13 @@
     </row>
     <row r="29" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>36</v>
@@ -5022,25 +5039,25 @@
         <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="O29" s="3">
         <v>23</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T29" s="3" t="b">
         <v>0</v>
@@ -5055,7 +5072,7 @@
         <v>76</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC29" s="3" t="b">
         <v>1</v>
@@ -5067,16 +5084,16 @@
         <v>1</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM29" s="3" t="s">
         <v>24</v>
@@ -5084,13 +5101,13 @@
     </row>
     <row r="30" spans="1:39" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
@@ -5109,10 +5126,10 @@
         <v>3</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="N30" s="3">
         <v>13</v>
@@ -5121,10 +5138,10 @@
         <v>13</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S30" s="3" t="b">
         <v>1</v>
@@ -5133,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z30" s="3" t="b">
         <v>1</v>
@@ -5148,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM30" s="3" t="s">
         <v>24</v>
@@ -5162,16 +5179,16 @@
     </row>
     <row r="31" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E31" s="3">
         <v>28.260044969103699</v>
@@ -5187,16 +5204,16 @@
         <v>6</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="Q31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S31" s="3" t="b">
         <v>0</v>
@@ -5208,7 +5225,7 @@
         <v>76</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD31" s="3" t="b">
         <v>1</v>
@@ -5217,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM31" s="3" t="s">
         <v>24</v>
@@ -5231,10 +5248,10 @@
     </row>
     <row r="32" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>36</v>
@@ -5253,13 +5270,13 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z32" s="3" t="b">
         <v>1</v>
@@ -5268,7 +5285,7 @@
         <v>76</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD32" s="3" t="b">
         <v>1</v>
@@ -5277,13 +5294,13 @@
         <v>1</v>
       </c>
       <c r="AI32" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM32" s="3" t="s">
         <v>24</v>
@@ -5291,13 +5308,13 @@
     </row>
     <row r="33" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>36</v>
@@ -5316,13 +5333,13 @@
         <v>6</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N33" s="3">
         <v>13</v>
@@ -5331,10 +5348,10 @@
         <v>18</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S33" s="3" t="b">
         <v>1</v>
@@ -5349,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z33" s="3" t="b">
         <v>1</v>
@@ -5370,16 +5387,16 @@
         <v>1</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL33" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM33" s="3" t="s">
         <v>24</v>
@@ -5387,10 +5404,10 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
@@ -5412,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>33</v>
@@ -5421,10 +5438,10 @@
         <v>14</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S34" s="3" t="b">
         <v>1</v>
@@ -5433,48 +5450,48 @@
         <v>1</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z34" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AB34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="3" t="s">
+      <c r="AK34" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AK34" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="AM34" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>36</v>
@@ -5493,26 +5510,26 @@
         <v>4</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="N35" s="3">
         <v>17</v>
       </c>
       <c r="P35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="S35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="AE35" s="3" t="b">
         <v>1</v>
       </c>
@@ -5523,24 +5540,24 @@
         <v>1</v>
       </c>
       <c r="AJ35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK35" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AK35" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="AM35" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>36</v>
@@ -5559,25 +5576,25 @@
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N36" s="3">
         <v>18</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S36" s="3" t="b">
         <v>0</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE36" s="3" t="b">
         <v>1</v>
@@ -5589,21 +5606,21 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK36" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AK36" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="AM36" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>36</v>
@@ -5616,13 +5633,13 @@
       </c>
       <c r="H37" s="10"/>
       <c r="J37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S37" s="3" t="b">
         <v>0</v>
@@ -5631,39 +5648,39 @@
         <v>1</v>
       </c>
       <c r="X37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AE37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="3" t="s">
+      <c r="AJ37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AJ37" s="3" t="s">
+      <c r="AK37" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AK37" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AM37" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>36</v>
@@ -5676,39 +5693,39 @@
       </c>
       <c r="H38" s="10"/>
       <c r="J38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U38" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X38" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AE38" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="AJ38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK38" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AK38" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AM38" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>73</v>
@@ -5727,7 +5744,7 @@
       </c>
       <c r="H39" s="10"/>
       <c r="J39" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>33</v>
@@ -5736,30 +5753,30 @@
         <v>14</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AJ39" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK39" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AK39" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AM39" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>36</v>
@@ -5772,33 +5789,33 @@
       </c>
       <c r="H40" s="10"/>
       <c r="J40" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE40" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AJ40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK40" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AK40" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AM40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>36</v>
@@ -5811,33 +5828,33 @@
       </c>
       <c r="H41" s="10"/>
       <c r="J41" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AJ41" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK41" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AK41" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="AM41" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>36</v>
@@ -5856,7 +5873,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>56</v>
@@ -5865,7 +5882,7 @@
         <v>15</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S42" s="3" t="b">
         <v>1</v>
@@ -5874,19 +5891,19 @@
         <v>1</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE42" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM42" s="3" t="s">
         <v>24</v>
@@ -5894,7 +5911,7 @@
     </row>
     <row r="43" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>61</v>
@@ -5919,16 +5936,16 @@
         <v>6</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T43" s="3" t="b">
         <v>1</v>
@@ -5943,13 +5960,13 @@
         <v>1</v>
       </c>
       <c r="AI43" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AJ43" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK43" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM43" s="3" t="s">
         <v>24</v>
@@ -5957,7 +5974,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>84</v>
@@ -5979,13 +5996,13 @@
         <v>2</v>
       </c>
       <c r="J44" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="Q44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S44" s="3" t="b">
         <v>0</v>
@@ -6000,13 +6017,13 @@
         <v>1</v>
       </c>
       <c r="AI44" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AJ44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK44" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM44" s="3" t="s">
         <v>24</v>
@@ -6014,10 +6031,10 @@
     </row>
     <row r="45" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>35</v>
@@ -6039,16 +6056,16 @@
         <v>7</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T45" s="3" t="b">
         <v>1</v>
@@ -6060,13 +6077,13 @@
         <v>1</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AJ45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK45" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM45" s="3" t="s">
         <v>24</v>
@@ -6074,10 +6091,10 @@
     </row>
     <row r="46" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>84</v>
@@ -6099,16 +6116,16 @@
         <v>7</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S46" s="3" t="b">
         <v>0</v>
@@ -6132,13 +6149,13 @@
         <v>1</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK46" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM46" s="3" t="s">
         <v>24</v>
@@ -6146,7 +6163,7 @@
     </row>
     <row r="47" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>61</v>
@@ -6171,16 +6188,16 @@
         <v>6</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="Q47" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S47" s="3" t="b">
         <v>0</v>
@@ -6195,10 +6212,10 @@
         <v>1</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z47" s="3" t="b">
         <v>1</v>
@@ -6210,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ47" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK47" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AM47" s="3" t="s">
         <v>24</v>
@@ -6224,10 +6241,10 @@
     </row>
     <row r="48" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>72</v>
@@ -6249,19 +6266,19 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U48" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z48" s="3" t="b">
         <v>1</v>
@@ -6270,7 +6287,7 @@
         <v>89</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AC48" s="3" t="b">
         <v>1</v>
@@ -6282,16 +6299,16 @@
         <v>1</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AJ48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL48" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM48" s="3" t="s">
         <v>24</v>
@@ -6299,10 +6316,10 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>39</v>
@@ -6321,19 +6338,19 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N49" s="3">
         <v>17</v>
@@ -6342,10 +6359,10 @@
         <v>28</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S49" s="3" t="b">
         <v>1</v>
@@ -6354,19 +6371,19 @@
         <v>1</v>
       </c>
       <c r="X49" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB49" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="Z49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="AC49" s="3" t="b">
         <v>1</v>
@@ -6381,7 +6398,7 @@
         <v>21</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM49" s="3" t="s">
         <v>24</v>
@@ -6389,10 +6406,10 @@
     </row>
     <row r="50" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>84</v>
@@ -6414,25 +6431,25 @@
         <v>7</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K50" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="Z50" s="3" t="b">
         <v>1</v>
@@ -6441,7 +6458,7 @@
         <v>89</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AC50" s="3" t="b">
         <v>1</v>
@@ -6453,13 +6470,13 @@
         <v>1</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK50" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM50" s="3" t="s">
         <v>24</v>
@@ -6467,10 +6484,10 @@
     </row>
     <row r="51" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>84</v>
@@ -6492,22 +6509,22 @@
         <v>4</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U51" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z51" s="3" t="b">
         <v>1</v>
@@ -6519,16 +6536,16 @@
         <v>1</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AJ51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM51" s="3" t="s">
         <v>24</v>
@@ -6536,10 +6553,10 @@
     </row>
     <row r="52" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>72</v>
@@ -6561,23 +6578,23 @@
         <v>2</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K52" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="Z52" s="3" t="b">
         <v>1</v>
       </c>
@@ -6588,16 +6605,16 @@
         <v>1</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK52" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM52" s="3" t="s">
         <v>24</v>
@@ -6605,13 +6622,13 @@
     </row>
     <row r="53" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>36</v>
@@ -6624,29 +6641,29 @@
       </c>
       <c r="H53" s="10"/>
       <c r="J53" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X53" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="Z53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="AC53" s="3" t="b">
         <v>1</v>
       </c>
@@ -6654,13 +6671,13 @@
         <v>1</v>
       </c>
       <c r="AI53" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK53" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM53" s="3" t="s">
         <v>24</v>
@@ -6668,13 +6685,13 @@
     </row>
     <row r="54" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>36</v>
@@ -6687,16 +6704,16 @@
       </c>
       <c r="H54" s="10"/>
       <c r="J54" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U54" s="3" t="b">
         <v>1</v>
@@ -6705,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD54" s="3" t="b">
         <v>1</v>
@@ -6714,13 +6731,13 @@
         <v>1</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK54" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM54" s="3" t="s">
         <v>24</v>
@@ -6728,10 +6745,10 @@
     </row>
     <row r="55" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>84</v>
@@ -6753,29 +6770,29 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="M55" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X55" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="Z55" s="3" t="b">
         <v>1</v>
       </c>
@@ -6783,16 +6800,16 @@
         <v>1</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AJ55" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL55" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM55" s="3" t="s">
         <v>24</v>
@@ -6800,10 +6817,10 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>72</v>
@@ -6828,10 +6845,10 @@
         <v>33</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U56" s="3" t="b">
         <v>1</v>
@@ -6846,7 +6863,7 @@
         <v>21</v>
       </c>
       <c r="AK56" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM56" s="3" t="s">
         <v>24</v>
@@ -6854,13 +6871,13 @@
     </row>
     <row r="57" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>36</v>
@@ -6879,16 +6896,16 @@
         <v>6</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="Q57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U57" s="3" t="b">
         <v>1</v>
@@ -6897,13 +6914,13 @@
         <v>1</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AJ57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK57" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM57" s="3" t="s">
         <v>24</v>
@@ -6911,23 +6928,23 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="10"/>
       <c r="J58" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="AC58" s="3" t="b">
         <v>0</v>
@@ -6936,7 +6953,7 @@
         <v>21</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM58" s="3" t="s">
         <v>24</v>
@@ -6944,23 +6961,23 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="10"/>
       <c r="J59" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="X59" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="AC59" s="3" t="b">
         <v>0</v>
@@ -6969,7 +6986,7 @@
         <v>21</v>
       </c>
       <c r="AK59" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM59" s="3" t="s">
         <v>24</v>
@@ -6977,7 +6994,7 @@
     </row>
     <row r="60" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>61</v>
@@ -7005,31 +7022,31 @@
         <v>33</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U60" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X60" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="AC60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="AJ60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM60" s="3" t="s">
         <v>24</v>
@@ -7037,7 +7054,7 @@
     </row>
     <row r="61" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>53</v>
@@ -7059,31 +7076,31 @@
         <v>3</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U61" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC61" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM61" s="3" t="s">
         <v>24</v>
@@ -7091,10 +7108,10 @@
     </row>
     <row r="62" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>72</v>
@@ -7116,25 +7133,25 @@
         <v>7</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U62" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AJ62" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK62" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM62" s="3" t="s">
         <v>24</v>
@@ -7142,7 +7159,7 @@
     </row>
     <row r="63" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
@@ -7167,16 +7184,16 @@
         <v>5</v>
       </c>
       <c r="J63" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="O63" s="3">
         <v>22</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T63" s="3" t="b">
         <v>0</v>
@@ -7185,13 +7202,13 @@
         <v>0</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AJ63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK63" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM63" s="3" t="s">
         <v>24</v>
@@ -7199,10 +7216,10 @@
     </row>
     <row r="64" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>72</v>
@@ -7224,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>33</v>
@@ -7233,7 +7250,7 @@
         <v>19</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T64" s="3" t="b">
         <v>0</v>
@@ -7242,13 +7259,13 @@
         <v>0</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ64" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK64" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AM64" s="3" t="s">
         <v>24</v>
@@ -7256,16 +7273,16 @@
     </row>
     <row r="65" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E65" s="3">
         <v>29.101389427692101</v>
@@ -7281,13 +7298,13 @@
         <v>7</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S65" s="3" t="b">
         <v>0</v>
@@ -7296,19 +7313,19 @@
         <v>1</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AC65" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AI65" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AJ65" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK65" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM65" s="3" t="s">
         <v>24</v>
@@ -7316,10 +7333,10 @@
     </row>
     <row r="66" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>84</v>
@@ -7341,13 +7358,13 @@
         <v>7</v>
       </c>
       <c r="J66" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N66" s="3">
         <v>15</v>
@@ -7356,10 +7373,10 @@
         <v>19</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S66" s="3" t="b">
         <v>1</v>
@@ -7371,16 +7388,16 @@
         <v>1</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Z66" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AD66" s="3" t="b">
         <v>1</v>
@@ -7398,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="AI66" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AJ66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK66" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AM66" s="3" t="s">
         <v>24</v>
@@ -7412,16 +7429,16 @@
     </row>
     <row r="67" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E67" s="3">
         <v>28.517991037086102</v>
@@ -7437,57 +7454,57 @@
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y67" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="S67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X67" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y67" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="AJ67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK67" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM67" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="AM67" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>73</v>
@@ -7512,7 +7529,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>33</v>
@@ -7521,7 +7538,7 @@
         <v>33</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S68" s="3" t="b">
         <v>1</v>
@@ -7530,13 +7547,13 @@
         <v>1</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z68" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AD68" s="3" t="b">
         <v>1</v>
@@ -7545,13 +7562,13 @@
         <v>1</v>
       </c>
       <c r="AI68" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AJ68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK68" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM68" s="3" t="s">
         <v>24</v>
@@ -7559,10 +7576,10 @@
     </row>
     <row r="69" spans="1:39" ht="289" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>84</v>
@@ -7584,7 +7601,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>56</v>
@@ -7599,7 +7616,7 @@
         <v>56</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S69" s="3" t="b">
         <v>1</v>
@@ -7614,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Z69" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC69" s="3" t="b">
         <v>1</v>
@@ -7632,13 +7649,13 @@
         <v>1</v>
       </c>
       <c r="AI69" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK69" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM69" s="3" t="s">
         <v>24</v>
@@ -7646,10 +7663,10 @@
     </row>
     <row r="70" spans="1:39" ht="356" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>72</v>
@@ -7671,22 +7688,22 @@
         <v>5</v>
       </c>
       <c r="J70" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R70" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="U70" s="3" t="b">
         <v>1</v>
@@ -7695,17 +7712,17 @@
         <v>0</v>
       </c>
       <c r="X70" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB70" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="Z70" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB70" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="AC70" s="3" t="b">
         <v>1</v>
       </c>
@@ -7713,16 +7730,16 @@
         <v>1</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK70" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL70" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM70" s="3" t="s">
         <v>24</v>
@@ -7730,13 +7747,13 @@
     </row>
     <row r="71" spans="1:39" ht="204" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>36</v>
@@ -7755,10 +7772,10 @@
         <v>4</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S71" s="3" t="b">
         <v>0</v>
@@ -7770,16 +7787,16 @@
         <v>1</v>
       </c>
       <c r="AI71" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AJ71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK71" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL71" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM71" s="3" t="s">
         <v>24</v>
@@ -7787,13 +7804,13 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>36</v>
@@ -7812,10 +7829,10 @@
         <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S72" s="3" t="b">
         <v>0</v>
@@ -7824,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AL72" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM72" s="3" t="s">
         <v>24</v>
@@ -7832,10 +7849,10 @@
     </row>
     <row r="73" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>53</v>
@@ -7863,10 +7880,10 @@
         <v>56</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U73" s="3" t="b">
         <v>1</v>
@@ -7875,25 +7892,25 @@
         <v>1</v>
       </c>
       <c r="W73" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="X73" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="Z73" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="5" t="s">
-        <v>522</v>
       </c>
       <c r="AJ73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK73" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM73" s="3" t="s">
         <v>24</v>
@@ -7901,13 +7918,13 @@
     </row>
     <row r="74" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>36</v>
@@ -7926,7 +7943,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>56</v>
@@ -7935,7 +7952,7 @@
         <v>56</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z74" s="3" t="b">
         <v>1</v>
@@ -7944,13 +7961,13 @@
         <v>1</v>
       </c>
       <c r="AI74" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK74" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM74" s="3" t="s">
         <v>24</v>
@@ -7958,10 +7975,10 @@
     </row>
     <row r="75" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>72</v>
@@ -7983,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>33</v>
@@ -7992,13 +8009,13 @@
         <v>33</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U75" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z75" s="3" t="b">
         <v>1</v>
@@ -8010,13 +8027,13 @@
         <v>1</v>
       </c>
       <c r="AI75" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AJ75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK75" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM75" s="3" t="s">
         <v>24</v>
@@ -8024,13 +8041,13 @@
     </row>
     <row r="76" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>36</v>
@@ -8049,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>75</v>
@@ -8058,22 +8075,22 @@
         <v>75</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="U76" s="3" t="b">
         <v>0</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK76" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM76" s="3" t="s">
         <v>24</v>
@@ -8081,13 +8098,13 @@
     </row>
     <row r="77" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>546</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>36</v>
@@ -8106,16 +8123,16 @@
         <v>3</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="P77" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U77" s="3" t="b">
         <v>1</v>
@@ -8139,13 +8156,13 @@
         <v>1</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AJ77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK77" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM77" s="3" t="s">
         <v>24</v>
@@ -8153,10 +8170,10 @@
     </row>
     <row r="78" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>84</v>
@@ -8178,22 +8195,22 @@
         <v>6</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q78" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U78" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X78" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="Z78" s="3" t="b">
         <v>1</v>
@@ -8208,13 +8225,13 @@
         <v>1</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AJ78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK78" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM78" s="3" t="s">
         <v>24</v>
@@ -8222,10 +8239,10 @@
     </row>
     <row r="79" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>35</v>
@@ -8247,29 +8264,29 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="S79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="Z79" s="3" t="b">
         <v>1</v>
       </c>
@@ -8280,13 +8297,13 @@
         <v>1</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AJ79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK79" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AM79" s="3" t="s">
         <v>24</v>
@@ -8294,10 +8311,10 @@
     </row>
     <row r="80" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>84</v>
@@ -8319,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>75</v>
@@ -8328,10 +8345,10 @@
         <v>75</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z80" s="3" t="b">
         <v>1</v>
@@ -8340,7 +8357,7 @@
         <v>89</v>
       </c>
       <c r="AB80" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AC80" s="3" t="b">
         <v>1</v>
@@ -8352,13 +8369,13 @@
         <v>1</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK80" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AM80" s="3" t="s">
         <v>24</v>
@@ -8366,13 +8383,13 @@
     </row>
     <row r="81" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>36</v>
@@ -8391,19 +8408,19 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="K81" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S81" s="3" t="b">
         <v>0</v>
@@ -8421,16 +8438,16 @@
         <v>1</v>
       </c>
       <c r="AI81" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AJ81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK81" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AL81" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AM81" s="3" t="s">
         <v>24</v>
@@ -8438,13 +8455,13 @@
     </row>
     <row r="82" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>36</v>
@@ -8463,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="N82" s="3">
         <v>14</v>
@@ -8475,7 +8492,7 @@
         <v>33</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S82" s="3" t="b">
         <v>1</v>
@@ -8490,16 +8507,16 @@
         <v>1</v>
       </c>
       <c r="AI82" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AJ82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK82" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AL82" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM82" s="3" t="s">
         <v>24</v>
@@ -8507,13 +8524,13 @@
     </row>
     <row r="83" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>36</v>
@@ -8532,10 +8549,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N83" s="3">
         <v>12</v>
@@ -8544,7 +8561,7 @@
         <v>33</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S83" s="3" t="b">
         <v>1</v>
@@ -8559,16 +8576,16 @@
         <v>1</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AJ83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK83" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AL83" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM83" s="3" t="s">
         <v>24</v>
@@ -8576,7 +8593,7 @@
     </row>
     <row r="84" spans="1:39" ht="187" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>53</v>
@@ -8601,22 +8618,22 @@
         <v>6</v>
       </c>
       <c r="J84" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U84" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z84" s="3" t="b">
         <v>1</v>
@@ -8631,27 +8648,27 @@
         <v>1</v>
       </c>
       <c r="AI84" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK84" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM84" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>36</v>
@@ -8670,28 +8687,28 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE85" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI85" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK85" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM85" s="3" t="s">
         <v>24</v>
@@ -8699,13 +8716,13 @@
     </row>
     <row r="86" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>36</v>
@@ -8724,31 +8741,31 @@
         <v>6</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>601</v>
-      </c>
       <c r="P86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AE86" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AJ86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK86" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM86" s="3" t="s">
         <v>24</v>
@@ -8756,13 +8773,13 @@
     </row>
     <row r="87" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>36</v>
@@ -8781,19 +8798,19 @@
         <v>5</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>605</v>
-      </c>
       <c r="L87" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O87" s="3">
         <v>25</v>
@@ -8802,19 +8819,19 @@
         <v>75</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U87" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Z87" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA87" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AC87" s="3" t="b">
         <v>1</v>
@@ -8823,13 +8840,13 @@
         <v>1</v>
       </c>
       <c r="AI87" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AJ87" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK87" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AM87" s="3" t="s">
         <v>24</v>
@@ -8837,10 +8854,10 @@
     </row>
     <row r="88" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>53</v>
@@ -8865,35 +8882,35 @@
         <v>32</v>
       </c>
       <c r="K88" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB88" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="L88" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U88" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X88" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z88" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB88" s="3" t="s">
-        <v>616</v>
-      </c>
       <c r="AC88" s="3" t="b">
         <v>1</v>
       </c>
@@ -8901,13 +8918,13 @@
         <v>1</v>
       </c>
       <c r="AI88" s="5" t="s">
-        <v>612</v>
+        <v>754</v>
       </c>
       <c r="AJ88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK88" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM88" s="3" t="s">
         <v>24</v>
@@ -8915,7 +8932,7 @@
     </row>
     <row r="89" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
@@ -8940,32 +8957,32 @@
         <v>2</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K89" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="L89" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="N89" s="3">
         <v>16</v>
       </c>
       <c r="P89" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U89" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X89" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="S89" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U89" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
       </c>
@@ -8976,13 +8993,13 @@
         <v>1</v>
       </c>
       <c r="AI89" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AJ89" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK89" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM89" s="3" t="s">
         <v>24</v>
@@ -8990,10 +9007,10 @@
     </row>
     <row r="90" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>53</v>
@@ -9015,16 +9032,16 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S90" s="3" t="b">
         <v>0</v>
@@ -9042,13 +9059,13 @@
         <v>1</v>
       </c>
       <c r="AI90" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AJ90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK90" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM90" s="3" t="s">
         <v>24</v>
@@ -9056,13 +9073,13 @@
     </row>
     <row r="91" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>36</v>
@@ -9081,10 +9098,10 @@
         <v>7</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N91" s="3">
         <v>17</v>
@@ -9093,10 +9110,10 @@
         <v>17</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S91" s="3" t="b">
         <v>1</v>
@@ -9114,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="AI91" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK91" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AM91" s="3" t="s">
         <v>24</v>
@@ -9128,10 +9145,10 @@
     </row>
     <row r="92" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>35</v>
@@ -9153,16 +9170,16 @@
         <v>6</v>
       </c>
       <c r="J92" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>645</v>
-      </c>
       <c r="L92" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O92" s="3">
         <v>22</v>
@@ -9171,7 +9188,7 @@
         <v>56</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T92" s="3" t="b">
         <v>0</v>
@@ -9180,16 +9197,16 @@
         <v>1</v>
       </c>
       <c r="X92" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AC92" s="3" t="b">
         <v>1</v>
@@ -9198,13 +9215,13 @@
         <v>1</v>
       </c>
       <c r="AI92" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AJ92" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK92" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AM92" s="3" t="s">
         <v>24</v>
@@ -9212,10 +9229,10 @@
     </row>
     <row r="93" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>72</v>
@@ -9237,7 +9254,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>56</v>
@@ -9246,7 +9263,7 @@
         <v>56</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T93" s="3" t="b">
         <v>1</v>
@@ -9258,13 +9275,13 @@
         <v>0</v>
       </c>
       <c r="AI93" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AJ93" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK93" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM93" s="3" t="s">
         <v>24</v>
@@ -9272,13 +9289,13 @@
     </row>
     <row r="94" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>36</v>
@@ -9297,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>33</v>
@@ -9306,10 +9323,10 @@
         <v>33</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U94" s="3" t="b">
         <v>1</v>
@@ -9321,13 +9338,13 @@
         <v>1</v>
       </c>
       <c r="AI94" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AJ94" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK94" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AM94" s="3" t="s">
         <v>24</v>
@@ -9335,10 +9352,10 @@
     </row>
     <row r="95" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>53</v>
@@ -9360,37 +9377,37 @@
         <v>5</v>
       </c>
       <c r="J95" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="U95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X95" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="U95" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X95" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AJ95" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK95" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AM95" s="3" t="s">
         <v>24</v>
@@ -9398,13 +9415,13 @@
     </row>
     <row r="96" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>36</v>
@@ -9423,10 +9440,10 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N96" s="3">
         <v>13</v>
@@ -9435,25 +9452,25 @@
         <v>56</v>
       </c>
       <c r="Q96" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="X96" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="R96" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="S96" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U96" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V96" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W96" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="X96" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>0</v>
@@ -9465,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="AI96" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AJ96" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK96" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AM96" s="3" t="s">
         <v>24</v>
@@ -9479,10 +9496,10 @@
     </row>
     <row r="97" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>53</v>
@@ -9504,22 +9521,22 @@
         <v>5</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N97" s="3">
         <v>17</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S97" s="3" t="b">
         <v>1</v>
@@ -9528,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
@@ -9540,13 +9557,13 @@
         <v>1</v>
       </c>
       <c r="AI97" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AJ97" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK97" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM97" s="3" t="s">
         <v>24</v>
@@ -9554,13 +9571,13 @@
     </row>
     <row r="98" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>36</v>
@@ -9579,22 +9596,22 @@
         <v>7</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K98" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>685</v>
       </c>
       <c r="N98" s="3">
         <v>16</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S98" s="3" t="b">
         <v>1</v>
@@ -9603,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Y98" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
@@ -9618,13 +9635,13 @@
         <v>1</v>
       </c>
       <c r="AI98" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AJ98" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK98" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AM98" s="3" t="s">
         <v>24</v>
@@ -9632,10 +9649,10 @@
     </row>
     <row r="99" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>53</v>
@@ -9660,10 +9677,10 @@
         <v>62</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N99" s="3">
         <v>12</v>
@@ -9672,7 +9689,7 @@
         <v>22</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S99" s="3" t="b">
         <v>1</v>
@@ -9684,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Z99" s="3" t="b">
         <v>1</v>
@@ -9702,13 +9719,13 @@
         <v>1</v>
       </c>
       <c r="AI99" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AJ99" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK99" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM99" s="3" t="s">
         <v>24</v>
@@ -9716,10 +9733,10 @@
     </row>
     <row r="100" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>72</v>
@@ -9741,10 +9758,10 @@
         <v>7</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N100" s="3">
         <v>15</v>
@@ -9753,7 +9770,7 @@
         <v>33</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S100" s="3" t="b">
         <v>1</v>
@@ -9771,13 +9788,13 @@
         <v>0</v>
       </c>
       <c r="AI100" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK100" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AM100" s="3" t="s">
         <v>24</v>
@@ -9785,13 +9802,13 @@
     </row>
     <row r="101" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>36</v>
@@ -9810,28 +9827,28 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE101" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI101" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK101" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AM101" s="3" t="s">
         <v>24</v>
@@ -9839,13 +9856,13 @@
     </row>
     <row r="102" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>36</v>
@@ -9864,13 +9881,13 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N102" s="3">
         <v>13</v>
@@ -9879,7 +9896,7 @@
         <v>19</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S102" s="3" t="b">
         <v>1</v>
@@ -9891,16 +9908,16 @@
         <v>1</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Y102" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Z102" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA102" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC102" s="3" t="b">
         <v>1</v>
@@ -9918,16 +9935,16 @@
         <v>0</v>
       </c>
       <c r="AI102" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AJ102" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK102" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AL102" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AM102" s="3" t="s">
         <v>24</v>
@@ -9935,10 +9952,10 @@
     </row>
     <row r="103" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>53</v>
@@ -9960,13 +9977,13 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L103" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>720</v>
       </c>
       <c r="O103" s="3">
         <v>20</v>
@@ -9975,7 +9992,7 @@
         <v>56</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T103" s="3" t="b">
         <v>0</v>
@@ -9984,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Z103" s="3" t="b">
         <v>1</v>
@@ -9999,13 +10016,13 @@
         <v>1</v>
       </c>
       <c r="AI103" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AJ103" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AM103" s="3" t="s">
         <v>24</v>
@@ -10013,7 +10030,7 @@
     </row>
     <row r="104" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>73</v>
@@ -10038,13 +10055,13 @@
         <v>5</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O104" s="3">
         <v>20</v>
@@ -10053,7 +10070,7 @@
         <v>75</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T104" s="3" t="b">
         <v>0</v>
@@ -10062,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Z104" s="3" t="b">
         <v>1</v>
@@ -10071,7 +10088,7 @@
         <v>89</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC104" s="3" t="b">
         <v>1</v>
@@ -10083,13 +10100,13 @@
         <v>1</v>
       </c>
       <c r="AI104" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AM104" s="3" t="s">
         <v>24</v>
@@ -10097,7 +10114,7 @@
     </row>
     <row r="105" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>39</v>
@@ -10122,7 +10139,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>33</v>
@@ -10131,13 +10148,13 @@
         <v>33</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U105" s="3" t="b">
         <v>1</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Z105" s="3" t="b">
         <v>1</v>
@@ -10146,7 +10163,7 @@
         <v>89</v>
       </c>
       <c r="AB105" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AC105" s="3" t="b">
         <v>1</v>
@@ -10158,13 +10175,13 @@
         <v>1</v>
       </c>
       <c r="AI105" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AJ105" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AM105" s="3" t="s">
         <v>24</v>
@@ -10172,13 +10189,13 @@
     </row>
     <row r="106" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>36</v>
@@ -10197,7 +10214,7 @@
         <v>7</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>33</v>
@@ -10206,7 +10223,7 @@
         <v>33</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE106" s="3" t="b">
         <v>1</v>
@@ -10218,27 +10235,27 @@
         <v>1</v>
       </c>
       <c r="AI106" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AJ106" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AM106" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" ht="238" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>36</v>
@@ -10250,42 +10267,72 @@
         <v>68.112659100529399</v>
       </c>
       <c r="G107" s="4">
-        <v>45083</v>
+        <v>45068</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="J107" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="N107" s="3">
+        <v>14</v>
+      </c>
+      <c r="O107" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="S107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q107" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE107" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI107" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="AJ107" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="AM107" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM106" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AM107" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AK3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AK4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731064D-302B-0D49-B348-A0C41AEC7589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484670EE-98C4-794B-8EE0-5A872357011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="762">
   <si>
     <t>city</t>
   </si>
@@ -2543,6 +2543,25 @@
   </si>
   <si>
     <t>Lachhmi</t>
+  </si>
+  <si>
+    <t>case_107</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1666682798126649346</t>
+  </si>
+  <si>
+    <t>Village Bhader Jalbani near Chambar town</t>
+  </si>
+  <si>
+    <t>Raveena</t>
+  </si>
+  <si>
+    <t>Jumoon Pathan, Akhtar Pathan</t>
+  </si>
+  <si>
+    <t>Tando Allahyar, Sindh
+A Minor Hindu girl Raveena Meghwar, 15, of village Bhader Jalbani near Chambar town, was abducted at gunpoint by Jumoon Pathan and Akhtar Pathan. FIR has been filed against kidnappers. While her school leaving certificate proves Raveena was born on April 18, 2008 making her a minor, the conversion certificate fabricated an age of 22 to claim she is an adult.</t>
   </si>
 </sst>
 </file>
@@ -2961,12 +2980,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM107"/>
+  <dimension ref="A1:AM108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7450,7 +7469,7 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H107" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H108" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -10329,6 +10348,90 @@
       </c>
       <c r="AM107" s="3" t="s">
         <v>746</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" ht="85" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="3">
+        <v>25.292684680917802</v>
+      </c>
+      <c r="F108" s="3">
+        <v>68.818482632061205</v>
+      </c>
+      <c r="G108" s="4">
+        <v>45056</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N108" s="3">
+        <v>15</v>
+      </c>
+      <c r="O108" s="3">
+        <v>22</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI108" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AJ108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK108" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM108" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10459,6 +10562,7 @@
     <hyperlink ref="AK105" r:id="rId123" xr:uid="{161FE759-E448-A749-A840-BE3DB023CD43}"/>
     <hyperlink ref="AK106" r:id="rId124" xr:uid="{DC0D86EB-1BD6-8D42-A44A-B4CCBF588BBA}"/>
     <hyperlink ref="AK107" r:id="rId125" xr:uid="{8E848CC0-3E3C-864E-B797-D778F447BD8C}"/>
+    <hyperlink ref="AK108" r:id="rId126" xr:uid="{CC1936A8-EB33-8247-A5FD-9AA49D3877FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484670EE-98C4-794B-8EE0-5A872357011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF987653-273A-6B44-ACC4-92B372E5E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="789">
   <si>
     <t>city</t>
   </si>
@@ -2562,6 +2562,97 @@
   <si>
     <t>Tando Allahyar, Sindh
 A Minor Hindu girl Raveena Meghwar, 15, of village Bhader Jalbani near Chambar town, was abducted at gunpoint by Jumoon Pathan and Akhtar Pathan. FIR has been filed against kidnappers. While her school leaving certificate proves Raveena was born on April 18, 2008 making her a minor, the conversion certificate fabricated an age of 22 to claim she is an adult.</t>
+  </si>
+  <si>
+    <t>case_108</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1668267414050463747</t>
+  </si>
+  <si>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Muhammad Arshad Punjabi</t>
+  </si>
+  <si>
+    <t>Sanjana d/o Nathio</t>
+  </si>
+  <si>
+    <t>Hyderabad, Sindh
+On May 11, Sanjana Meghwar, a young Hindu girl, was forcefully converted to Islam and married off to her abductor, Arshad Punjabi. Despite the heartbreaking pleas of her parents, the court has handed her over to the abductor today.
+Court case details:
+Court: Circuit Court, Hyderabad, Sindh
+Case #: 994
+Advocate for the perp: Ghulam Hussain Palari
+Judges who exonerated the perp: Muhammad Karim Khan Agha, Muhammad Saleem Jessar</t>
+  </si>
+  <si>
+    <t>case_109</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1678306639646998530</t>
+  </si>
+  <si>
+    <t>Tando Ghulam Hyder</t>
+  </si>
+  <si>
+    <t>Sana d/o Prem</t>
+  </si>
+  <si>
+    <t>TandoGulamHyder
+A 13y minor Hindu girl #Sana was kidnapped by six armed men forcibly entered their house and abducted their daughter,from the #Meghwar colony,We reported the incident to the Nazarpur police post parents,Lachmi and Prem Meghwar,along with other  relatives,protest</t>
+  </si>
+  <si>
+    <t>case_110</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1679102511544762368</t>
+  </si>
+  <si>
+    <t>Kunri Umerkot Sindh:
+A married Hindu woman named Lakhman Kolhi, who is the mother of four children, was converted to Islam along with her children in the village of Amer Hussain Khaskheli in kunri. She was then married to Azeem Khaskheli.</t>
+  </si>
+  <si>
+    <t>Azeem Khaskheli</t>
+  </si>
+  <si>
+    <t>Lakhman</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1678701077636472834</t>
+  </si>
+  <si>
+    <t>case_111</t>
+  </si>
+  <si>
+    <t>Amro d/o Bhatio</t>
+  </si>
+  <si>
+    <t>Abducted at gunpoint (weapons)</t>
+  </si>
+  <si>
+    <t>Farooq Sheikh, Other 1, Other 2</t>
+  </si>
+  <si>
+    <t>Kunri Umerkot Sindh:
+In Kunri, a minor #Hindu girl named #Amro, daughter of Bhatio Kolhi, was abducted by Farooq Sheikh and two others using weapons. It is known that Farooq Sheikh is already married and has two children.</t>
+  </si>
+  <si>
+    <t>case_112</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1678693475951206400</t>
+  </si>
+  <si>
+    <t>Mirpurkhas Sindh:
+Hussain Ali, formerly known as Ramesh, converted to Islam six years ago in Mirpurkhas. He has been causing trouble for Shama Meghwar and her innocent children by making threats to kidnap them. We request IG and DIG Mirpurkhas to take notice of this situation.</t>
+  </si>
+  <si>
+    <t>Hussain Ali, neé Ramesh</t>
+  </si>
+  <si>
+    <t>Shama</t>
   </si>
 </sst>
 </file>
@@ -2980,12 +3071,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM108"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7469,7 +7560,7 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H108" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H113" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -10434,8 +10525,347 @@
         <v>24</v>
       </c>
     </row>
+    <row r="109" spans="1:39" ht="170" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="4">
+        <v>45057</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T109" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI109" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="AJ109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK109" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="AM109" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" ht="85" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="3">
+        <v>24.966673601714401</v>
+      </c>
+      <c r="F110" s="3">
+        <v>68.678022289481603</v>
+      </c>
+      <c r="G110" s="4">
+        <v>45117</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" s="3">
+        <v>13</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI110" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="AJ110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK110" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM110" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="3">
+        <v>25.180065572807599</v>
+      </c>
+      <c r="F111" s="3">
+        <v>69.562032918669402</v>
+      </c>
+      <c r="G111" s="4">
+        <v>45119</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X111" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI111" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK111" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AM111" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="3">
+        <v>25.180065572807599</v>
+      </c>
+      <c r="F112" s="3">
+        <v>69.562032918669402</v>
+      </c>
+      <c r="G112" s="4">
+        <v>45118</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W112" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="X112" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="AJ112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK112" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AM112" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="3">
+        <v>25.508011375624001</v>
+      </c>
+      <c r="F113" s="3">
+        <v>69.007236470461805</v>
+      </c>
+      <c r="G113" s="4">
+        <v>45118</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="AC113" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI113" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="AJ113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK113" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM113" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM107" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AM108" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AK3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AK4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -10563,6 +10993,11 @@
     <hyperlink ref="AK106" r:id="rId124" xr:uid="{DC0D86EB-1BD6-8D42-A44A-B4CCBF588BBA}"/>
     <hyperlink ref="AK107" r:id="rId125" xr:uid="{8E848CC0-3E3C-864E-B797-D778F447BD8C}"/>
     <hyperlink ref="AK108" r:id="rId126" xr:uid="{CC1936A8-EB33-8247-A5FD-9AA49D3877FC}"/>
+    <hyperlink ref="AK109" r:id="rId127" xr:uid="{B5F15347-653B-F24C-910E-5AC96C01343E}"/>
+    <hyperlink ref="AK110" r:id="rId128" xr:uid="{F5B318AE-92FC-1547-AB61-A5182F34EF7F}"/>
+    <hyperlink ref="AK111" r:id="rId129" xr:uid="{DF57C7D5-1DB0-CE4A-AD6A-E4A5516A077C}"/>
+    <hyperlink ref="AK112" r:id="rId130" xr:uid="{FAE47F1D-22DE-824F-9ECC-F63DEB17631A}"/>
+    <hyperlink ref="AK113" r:id="rId131" xr:uid="{04F7AEA5-DEBF-CD4D-943E-BDA0F8DC4729}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF987653-273A-6B44-ACC4-92B372E5E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE9FEA9-443A-BA47-B367-FCE3AB26D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="790">
   <si>
     <t>city</t>
   </si>
@@ -2653,6 +2653,9 @@
   </si>
   <si>
     <t>Shama</t>
+  </si>
+  <si>
+    <t>44402-4840647-9</t>
   </si>
 </sst>
 </file>
@@ -3076,7 +3079,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomLeft" activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3089,7 @@
     <col min="5" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="10.83203125" style="3"/>
     <col min="14" max="15" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="10.83203125" style="3"/>
@@ -10755,11 +10758,14 @@
         <v>69.562032918669402</v>
       </c>
       <c r="G112" s="4">
-        <v>45118</v>
+        <v>45116</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>789</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>780</v>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE9FEA9-443A-BA47-B367-FCE3AB26D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1437C28-5CAA-FC4B-AA4C-B10C3E7F6BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="1" r:id="rId1"/>
@@ -3079,7 +3079,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L112" sqref="L112"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1437C28-5CAA-FC4B-AA4C-B10C3E7F6BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368415E8-74A4-DD41-BB6B-7DE5FF8B0623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368415E8-74A4-DD41-BB6B-7DE5FF8B0623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDA3134-D580-4E41-B331-372891A96929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="795">
   <si>
     <t>city</t>
   </si>
@@ -2656,6 +2656,22 @@
   </si>
   <si>
     <t>44402-4840647-9</t>
+  </si>
+  <si>
+    <t>case_113</t>
+  </si>
+  <si>
+    <t>Sukkur Sindh:
+A few days ago, a Hindu girl, Riya Kumari, was abducted from Sukkur, converted to Islam and  married to Muhammad Raza Qureshi.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1679864614962577410</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Muhammad Raza Qureshi</t>
   </si>
 </sst>
 </file>
@@ -3074,12 +3090,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AM114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomLeft" activeCell="AJ114" sqref="AJ114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7563,7 +7579,7 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H113" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H114" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -10870,8 +10886,71 @@
         <v>24</v>
       </c>
     </row>
+    <row r="114" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="3">
+        <v>27.725658113185499</v>
+      </c>
+      <c r="F114" s="3">
+        <v>68.821808554497906</v>
+      </c>
+      <c r="G114" s="4">
+        <v>45121</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Z114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE114" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI114" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK114" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="AM114" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM108" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AM113" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AK3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AK4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -11004,6 +11083,7 @@
     <hyperlink ref="AK111" r:id="rId129" xr:uid="{DF57C7D5-1DB0-CE4A-AD6A-E4A5516A077C}"/>
     <hyperlink ref="AK112" r:id="rId130" xr:uid="{FAE47F1D-22DE-824F-9ECC-F63DEB17631A}"/>
     <hyperlink ref="AK113" r:id="rId131" xr:uid="{04F7AEA5-DEBF-CD4D-943E-BDA0F8DC4729}"/>
+    <hyperlink ref="AK114" r:id="rId132" xr:uid="{8091E0DF-5902-9840-BA05-BCDCC81E6506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDA3134-D580-4E41-B331-372891A96929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC5F81-3BA7-2C4E-82A8-4ABF0EBBC209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$A$1:$AM$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="808">
   <si>
     <t>city</t>
   </si>
@@ -1748,12 +1748,6 @@
     <t>Rape by multiple people - reported</t>
   </si>
   <si>
-    <t>Khipro Sanghar Sindh:
-A few days ago, the kidnapped Hindu girl #Meena_Kolhi reached her home. She says that after she was abducted and forcefully converted to islam, she was married to Iqbal Bhambhro was r@ped by many peoples.
-#StopForcedConversions
-#saveminoritygirls</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1645683663361777666</t>
   </si>
   <si>
@@ -2672,6 +2666,54 @@
   </si>
   <si>
     <t>Muhammad Raza Qureshi</t>
+  </si>
+  <si>
+    <t>case_114</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1683766912147234816</t>
+  </si>
+  <si>
+    <t>Badin,Sindh
+Rajokhanani near Bhondri an innocent 7 year old Lachmi d/o Veerji Kolhi, was killed and her body organs were removed, 
+The girl was also raped.</t>
+  </si>
+  <si>
+    <t>d/o Veerji Kolhi</t>
+  </si>
+  <si>
+    <t>Abduction, Rape</t>
+  </si>
+  <si>
+    <t>Rape, Disbowelment</t>
+  </si>
+  <si>
+    <t>Rajo Khanani</t>
+  </si>
+  <si>
+    <t>case_115</t>
+  </si>
+  <si>
+    <t>d/o Rano Kolhi</t>
+  </si>
+  <si>
+    <t>Yar Muhmmad s/o Muhammad Yousuf</t>
+  </si>
+  <si>
+    <t>44202-3971096-5</t>
+  </si>
+  <si>
+    <t>Umerkot, Sindh
+A minor Christian dalit girl of hindu ancestry, Maryam d/o Rano Kolhi was abducted on her way back from school by multipler perpetrators and converted and married off to Yar Muhammad on the same day. According to the affidavit fo freewill, the girl is 16 years old (proving that she is a minor). On the other hand, the nikanama and conversion certificate both duly signed by authorities state that her age is 18 and 19 years respectively (considering her as a adult). Question is: how can a minor girl's affidavit of freewill be legally binding without consent of legal guardians?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1688607808499982337</t>
+  </si>
+  <si>
+    <t>Khipro Sanghar Sindh:
+A few days ago, the kidnapped Hindu girl #Meena_Kolhi reached her home. She says that after she was abducted and forcefully converted to islam, she was married to Iqbal Bhambhro was r@ped by many people.
+#StopForcedConversions
+#saveminoritygirls</t>
   </si>
 </sst>
 </file>
@@ -3090,12 +3132,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM114"/>
+  <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AJ114" sqref="AJ114"/>
+      <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>49</v>
@@ -3857,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>408</v>
@@ -4529,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>161</v>
@@ -4538,7 +4580,7 @@
         <v>163</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N20" s="3">
         <v>15</v>
@@ -5521,7 +5563,7 @@
       <c r="AJ33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AK33" s="6" t="s">
+      <c r="AK33" s="1" t="s">
         <v>263</v>
       </c>
       <c r="AL33" s="6" t="s">
@@ -6094,14 +6136,14 @@
       <c r="AJ43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AK43" s="6" t="s">
+      <c r="AK43" s="1" t="s">
         <v>304</v>
       </c>
       <c r="AM43" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>301</v>
       </c>
@@ -6145,7 +6187,7 @@
       <c r="AE44" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="AI44" s="3" t="s">
+      <c r="AI44" s="5" t="s">
         <v>308</v>
       </c>
       <c r="AJ44" s="3" t="s">
@@ -6467,7 +6509,7 @@
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>337</v>
@@ -6503,7 +6545,7 @@
         <v>433</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z49" s="3" t="b">
         <v>1</v>
@@ -7517,10 +7559,10 @@
         <v>1</v>
       </c>
       <c r="X66" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y66" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>694</v>
       </c>
       <c r="Z66" s="3" t="b">
         <v>1</v>
@@ -7579,7 +7621,7 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H114" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H116" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -8024,7 +8066,7 @@
         <v>520</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z73" s="3" t="b">
         <v>1</v>
@@ -8033,13 +8075,13 @@
         <v>1</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>521</v>
+        <v>807</v>
       </c>
       <c r="AJ73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK73" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AM73" s="3" t="s">
         <v>24</v>
@@ -8047,13 +8089,13 @@
     </row>
     <row r="74" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>36</v>
@@ -8072,7 +8114,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>56</v>
@@ -8081,7 +8123,7 @@
         <v>56</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Z74" s="3" t="b">
         <v>1</v>
@@ -8090,13 +8132,13 @@
         <v>1</v>
       </c>
       <c r="AI74" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK74" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AM74" s="3" t="s">
         <v>24</v>
@@ -8104,10 +8146,10 @@
     </row>
     <row r="75" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>72</v>
@@ -8129,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>33</v>
@@ -8144,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z75" s="3" t="b">
         <v>1</v>
@@ -8156,13 +8198,13 @@
         <v>1</v>
       </c>
       <c r="AI75" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK75" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM75" s="3" t="s">
         <v>24</v>
@@ -8170,13 +8212,13 @@
     </row>
     <row r="76" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>36</v>
@@ -8195,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>75</v>
@@ -8204,22 +8246,22 @@
         <v>75</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="U76" s="3" t="b">
         <v>0</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK76" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM76" s="3" t="s">
         <v>24</v>
@@ -8227,13 +8269,13 @@
     </row>
     <row r="77" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>36</v>
@@ -8252,13 +8294,13 @@
         <v>3</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>549</v>
-      </c>
       <c r="P77" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>147</v>
@@ -8285,13 +8327,13 @@
         <v>1</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ77" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK77" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM77" s="3" t="s">
         <v>24</v>
@@ -8299,7 +8341,7 @@
     </row>
     <row r="78" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>336</v>
@@ -8324,13 +8366,13 @@
         <v>6</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>147</v>
@@ -8339,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z78" s="3" t="b">
         <v>1</v>
@@ -8354,13 +8396,13 @@
         <v>1</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AJ78" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK78" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM78" s="3" t="s">
         <v>24</v>
@@ -8368,10 +8410,10 @@
     </row>
     <row r="79" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>35</v>
@@ -8393,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>161</v>
@@ -8414,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z79" s="3" t="b">
         <v>1</v>
@@ -8426,13 +8468,13 @@
         <v>1</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AJ79" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK79" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM79" s="3" t="s">
         <v>24</v>
@@ -8440,10 +8482,10 @@
     </row>
     <row r="80" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>84</v>
@@ -8465,7 +8507,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>75</v>
@@ -8477,7 +8519,7 @@
         <v>147</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z80" s="3" t="b">
         <v>1</v>
@@ -8486,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="AB80" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AC80" s="3" t="b">
         <v>1</v>
@@ -8498,13 +8540,13 @@
         <v>1</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AJ80" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK80" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AM80" s="3" t="s">
         <v>24</v>
@@ -8512,10 +8554,10 @@
     </row>
     <row r="81" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>160</v>
@@ -8537,13 +8579,13 @@
         <v>1</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="K81" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>33</v>
@@ -8567,16 +8609,16 @@
         <v>1</v>
       </c>
       <c r="AI81" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AJ81" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK81" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AL81" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM81" s="3" t="s">
         <v>24</v>
@@ -8584,10 +8626,10 @@
     </row>
     <row r="82" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>160</v>
@@ -8609,10 +8651,10 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="N82" s="3">
         <v>14</v>
@@ -8636,16 +8678,16 @@
         <v>1</v>
       </c>
       <c r="AI82" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK82" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AL82" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM82" s="3" t="s">
         <v>24</v>
@@ -8653,10 +8695,10 @@
     </row>
     <row r="83" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>160</v>
@@ -8678,10 +8720,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N83" s="3">
         <v>12</v>
@@ -8705,16 +8747,16 @@
         <v>1</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ83" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK83" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AL83" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AM83" s="3" t="s">
         <v>24</v>
@@ -8722,7 +8764,7 @@
     </row>
     <row r="84" spans="1:39" ht="187" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>53</v>
@@ -8747,10 +8789,10 @@
         <v>6</v>
       </c>
       <c r="J84" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>33</v>
@@ -8762,42 +8804,42 @@
         <v>1</v>
       </c>
       <c r="X84" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="Z84" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF84" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG84" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI84" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="AJ84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK84" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AM84" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>36</v>
@@ -8816,10 +8858,10 @@
         <v>2</v>
       </c>
       <c r="J85" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>33</v>
@@ -8831,13 +8873,13 @@
         <v>1</v>
       </c>
       <c r="AI85" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK85" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM85" s="3" t="s">
         <v>24</v>
@@ -8845,10 +8887,10 @@
     </row>
     <row r="86" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>160</v>
@@ -8870,10 +8912,10 @@
         <v>6</v>
       </c>
       <c r="J86" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>161</v>
@@ -8882,19 +8924,19 @@
         <v>144</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AE86" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI86" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AJ86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK86" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM86" s="3" t="s">
         <v>24</v>
@@ -8902,13 +8944,13 @@
     </row>
     <row r="87" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>36</v>
@@ -8927,16 +8969,16 @@
         <v>5</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J87" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>604</v>
-      </c>
       <c r="L87" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>480</v>
@@ -8954,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Z87" s="3" t="b">
         <v>1</v>
@@ -8969,13 +9011,13 @@
         <v>1</v>
       </c>
       <c r="AI87" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AJ87" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK87" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AM87" s="3" t="s">
         <v>24</v>
@@ -8983,10 +9025,10 @@
     </row>
     <row r="88" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>53</v>
@@ -9011,7 +9053,7 @@
         <v>32</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>479</v>
@@ -9020,7 +9062,7 @@
         <v>480</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>147</v>
@@ -9029,16 +9071,16 @@
         <v>1</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z88" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AC88" s="3" t="b">
         <v>1</v>
@@ -9047,13 +9089,13 @@
         <v>1</v>
       </c>
       <c r="AI88" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AJ88" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK88" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM88" s="3" t="s">
         <v>24</v>
@@ -9061,7 +9103,7 @@
     </row>
     <row r="89" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
@@ -9089,16 +9131,16 @@
         <v>148</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N89" s="3">
         <v>16</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>147</v>
@@ -9110,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Z89" s="3" t="b">
         <v>1</v>
@@ -9122,13 +9164,13 @@
         <v>1</v>
       </c>
       <c r="AI89" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AJ89" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK89" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM89" s="3" t="s">
         <v>24</v>
@@ -9136,10 +9178,10 @@
     </row>
     <row r="90" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>53</v>
@@ -9161,10 +9203,10 @@
         <v>2</v>
       </c>
       <c r="J90" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>75</v>
@@ -9188,13 +9230,13 @@
         <v>1</v>
       </c>
       <c r="AI90" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AJ90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK90" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AM90" s="3" t="s">
         <v>24</v>
@@ -9202,10 +9244,10 @@
     </row>
     <row r="91" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>160</v>
@@ -9227,10 +9269,10 @@
         <v>7</v>
       </c>
       <c r="J91" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="N91" s="3">
         <v>17</v>
@@ -9260,13 +9302,13 @@
         <v>1</v>
       </c>
       <c r="AI91" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AJ91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK91" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM91" s="3" t="s">
         <v>24</v>
@@ -9274,10 +9316,10 @@
     </row>
     <row r="92" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>640</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>35</v>
@@ -9299,16 +9341,16 @@
         <v>6</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>374</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O92" s="3">
         <v>22</v>
@@ -9326,16 +9368,16 @@
         <v>1</v>
       </c>
       <c r="X92" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y92" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="Y92" s="3" t="s">
-        <v>645</v>
-      </c>
       <c r="Z92" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA92" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AC92" s="3" t="b">
         <v>1</v>
@@ -9344,13 +9386,13 @@
         <v>1</v>
       </c>
       <c r="AI92" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AJ92" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK92" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM92" s="3" t="s">
         <v>24</v>
@@ -9358,7 +9400,7 @@
     </row>
     <row r="93" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>332</v>
@@ -9383,7 +9425,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>56</v>
@@ -9392,7 +9434,7 @@
         <v>56</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T93" s="3" t="b">
         <v>1</v>
@@ -9404,13 +9446,13 @@
         <v>0</v>
       </c>
       <c r="AI93" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AJ93" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK93" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM93" s="3" t="s">
         <v>24</v>
@@ -9418,13 +9460,13 @@
     </row>
     <row r="94" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>36</v>
@@ -9443,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>33</v>
@@ -9455,7 +9497,7 @@
         <v>144</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="U94" s="3" t="b">
         <v>1</v>
@@ -9467,13 +9509,13 @@
         <v>1</v>
       </c>
       <c r="AI94" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AJ94" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK94" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM94" s="3" t="s">
         <v>24</v>
@@ -9481,10 +9523,10 @@
     </row>
     <row r="95" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>53</v>
@@ -9506,37 +9548,37 @@
         <v>5</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>147</v>
       </c>
       <c r="R95" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="U95" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X95" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="U95" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X95" s="3" t="s">
-        <v>663</v>
-      </c>
       <c r="Z95" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AJ95" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK95" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AM95" s="3" t="s">
         <v>24</v>
@@ -9544,7 +9586,7 @@
     </row>
     <row r="96" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>167</v>
@@ -9572,7 +9614,7 @@
         <v>333</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N96" s="3">
         <v>13</v>
@@ -9581,7 +9623,7 @@
         <v>56</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>194</v>
@@ -9596,10 +9638,10 @@
         <v>1</v>
       </c>
       <c r="W96" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="X96" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="X96" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="Z96" s="3" t="b">
         <v>0</v>
@@ -9611,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="AI96" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AJ96" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK96" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM96" s="3" t="s">
         <v>24</v>
@@ -9625,10 +9667,10 @@
     </row>
     <row r="97" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>53</v>
@@ -9650,16 +9692,16 @@
         <v>5</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>175</v>
       </c>
       <c r="L97" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="M97" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>676</v>
       </c>
       <c r="N97" s="3">
         <v>17</v>
@@ -9674,7 +9716,7 @@
         <v>1</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z97" s="3" t="b">
         <v>1</v>
@@ -9686,13 +9728,13 @@
         <v>1</v>
       </c>
       <c r="AI97" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ97" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK97" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AM97" s="3" t="s">
         <v>24</v>
@@ -9700,10 +9742,10 @@
     </row>
     <row r="98" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>160</v>
@@ -9725,19 +9767,19 @@
         <v>7</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N98" s="3">
         <v>16</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>147</v>
@@ -9749,11 +9791,11 @@
         <v>1</v>
       </c>
       <c r="X98" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y98" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="Y98" s="3" t="s">
-        <v>685</v>
-      </c>
       <c r="Z98" s="3" t="b">
         <v>1</v>
       </c>
@@ -9764,13 +9806,13 @@
         <v>1</v>
       </c>
       <c r="AI98" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ98" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK98" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM98" s="3" t="s">
         <v>24</v>
@@ -9778,10 +9820,10 @@
     </row>
     <row r="99" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>53</v>
@@ -9806,10 +9848,10 @@
         <v>62</v>
       </c>
       <c r="K99" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L99" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="N99" s="3">
         <v>12</v>
@@ -9830,31 +9872,31 @@
         <v>1</v>
       </c>
       <c r="X99" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="5" t="s">
         <v>690</v>
-      </c>
-      <c r="Z99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI99" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="AJ99" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK99" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AM99" s="3" t="s">
         <v>24</v>
@@ -9862,10 +9904,10 @@
     </row>
     <row r="100" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>72</v>
@@ -9890,7 +9932,7 @@
         <v>333</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N100" s="3">
         <v>15</v>
@@ -9917,13 +9959,13 @@
         <v>0</v>
       </c>
       <c r="AI100" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK100" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM100" s="3" t="s">
         <v>24</v>
@@ -9931,10 +9973,10 @@
     </row>
     <row r="101" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>193</v>
@@ -9956,10 +9998,10 @@
         <v>2</v>
       </c>
       <c r="J101" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>704</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>56</v>
@@ -9971,13 +10013,13 @@
         <v>1</v>
       </c>
       <c r="AI101" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK101" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AM101" s="3" t="s">
         <v>24</v>
@@ -9985,13 +10027,13 @@
     </row>
     <row r="102" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>36</v>
@@ -10010,10 +10052,10 @@
         <v>2</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>374</v>
@@ -10037,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>712</v>
       </c>
       <c r="Z102" s="3" t="b">
         <v>1</v>
@@ -10064,16 +10106,16 @@
         <v>0</v>
       </c>
       <c r="AI102" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AJ102" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK102" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AL102" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AM102" s="3" t="s">
         <v>24</v>
@@ -10081,10 +10123,10 @@
     </row>
     <row r="103" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>53</v>
@@ -10106,13 +10148,13 @@
         <v>2</v>
       </c>
       <c r="J103" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="L103" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="O103" s="3">
         <v>20</v>
@@ -10130,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z103" s="3" t="b">
         <v>1</v>
@@ -10145,13 +10187,13 @@
         <v>1</v>
       </c>
       <c r="AI103" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AJ103" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AM103" s="3" t="s">
         <v>24</v>
@@ -10159,7 +10201,7 @@
     </row>
     <row r="104" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>73</v>
@@ -10184,13 +10226,13 @@
         <v>5</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>75</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O104" s="3">
         <v>20</v>
@@ -10208,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Z104" s="3" t="b">
         <v>1</v>
@@ -10229,13 +10271,13 @@
         <v>1</v>
       </c>
       <c r="AI104" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AM104" s="3" t="s">
         <v>24</v>
@@ -10243,7 +10285,7 @@
     </row>
     <row r="105" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>39</v>
@@ -10268,7 +10310,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>33</v>
@@ -10283,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z105" s="3" t="b">
         <v>1</v>
@@ -10304,13 +10346,13 @@
         <v>1</v>
       </c>
       <c r="AI105" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AJ105" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AM105" s="3" t="s">
         <v>24</v>
@@ -10318,13 +10360,13 @@
     </row>
     <row r="106" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="C106" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>36</v>
@@ -10343,7 +10385,7 @@
         <v>7</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>33</v>
@@ -10364,13 +10406,13 @@
         <v>1</v>
       </c>
       <c r="AI106" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AJ106" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AM106" s="3" t="s">
         <v>24</v>
@@ -10378,10 +10420,10 @@
     </row>
     <row r="107" spans="1:39" ht="238" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>193</v>
@@ -10403,13 +10445,13 @@
         <v>2</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N107" s="3">
         <v>14</v>
@@ -10421,7 +10463,7 @@
         <v>144</v>
       </c>
       <c r="R107" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S107" s="3" t="b">
         <v>1</v>
@@ -10433,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Z107" s="3" t="b">
         <v>1</v>
@@ -10448,24 +10490,24 @@
         <v>1</v>
       </c>
       <c r="AI107" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AJ107" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AM107" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -10487,7 +10529,7 @@
         <v>4</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>33</v>
@@ -10517,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Z108" s="3" t="b">
         <v>1</v>
@@ -10532,13 +10574,13 @@
         <v>1</v>
       </c>
       <c r="AI108" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AJ108" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AM108" s="3" t="s">
         <v>24</v>
@@ -10546,7 +10588,7 @@
     </row>
     <row r="109" spans="1:39" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>255</v>
@@ -10562,13 +10604,13 @@
         <v>5</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>480</v>
@@ -10586,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Z109" s="3" t="b">
         <v>1</v>
@@ -10607,13 +10649,13 @@
         <v>1</v>
       </c>
       <c r="AI109" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AJ109" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK109" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AM109" s="3" t="s">
         <v>24</v>
@@ -10621,10 +10663,10 @@
     </row>
     <row r="110" spans="1:39" ht="85" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>167</v>
@@ -10646,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>33</v>
@@ -10676,13 +10718,13 @@
         <v>1</v>
       </c>
       <c r="AI110" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AJ110" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK110" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AM110" s="3" t="s">
         <v>24</v>
@@ -10690,7 +10732,7 @@
     </row>
     <row r="111" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>61</v>
@@ -10715,7 +10757,7 @@
         <v>4</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>56</v>
@@ -10733,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Z111" s="3" t="b">
         <v>1</v>
@@ -10742,13 +10784,13 @@
         <v>1</v>
       </c>
       <c r="AI111" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AJ111" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AM111" s="3" t="s">
         <v>24</v>
@@ -10756,7 +10798,7 @@
     </row>
     <row r="112" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>61</v>
@@ -10781,10 +10823,10 @@
         <v>1</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>56</v>
@@ -10805,22 +10847,22 @@
         <v>1</v>
       </c>
       <c r="W112" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="X112" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="X112" s="3" t="s">
+      <c r="AE112" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="AE112" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI112" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="AJ112" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AM112" s="3" t="s">
         <v>24</v>
@@ -10828,7 +10870,7 @@
     </row>
     <row r="113" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>84</v>
@@ -10853,7 +10895,7 @@
         <v>3</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>33</v>
@@ -10868,19 +10910,19 @@
         <v>1</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AC113" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AI113" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AJ113" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AM113" s="3" t="s">
         <v>24</v>
@@ -10888,7 +10930,7 @@
     </row>
     <row r="114" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>271</v>
@@ -10913,7 +10955,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>175</v>
@@ -10925,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Z114" s="3" t="b">
         <v>1</v>
@@ -10937,20 +10979,179 @@
         <v>1</v>
       </c>
       <c r="AI114" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AJ114" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AM114" s="3" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="115" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="3">
+        <v>24.9833031704243</v>
+      </c>
+      <c r="F115" s="3">
+        <v>68.855734700877903</v>
+      </c>
+      <c r="G115" s="4">
+        <v>45132</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="N115" s="3">
+        <v>7</v>
+      </c>
+      <c r="O115" s="3">
+        <v>7</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE115" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI115" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="AJ115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK115" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AM115" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" ht="136" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="3">
+        <v>25.510954275134701</v>
+      </c>
+      <c r="F116" s="3">
+        <v>69.3760031734855</v>
+      </c>
+      <c r="G116" s="4">
+        <v>45143</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="N116" s="3">
+        <v>16</v>
+      </c>
+      <c r="O116" s="3">
+        <v>18</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X116" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y116" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="Z116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI116" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="AJ116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK116" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AM116" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM113" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
+  <autoFilter ref="A1:AM116" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}"/>
   <hyperlinks>
     <hyperlink ref="AK3" r:id="rId1" display="https://twitter.com/NarainDasBheel8/status/1620065868813328387?s=20&amp;t=Ltd0v4nT-kPYw66t6kNWdQ" xr:uid="{7D36CF03-D602-604F-9081-06B44641DFED}"/>
     <hyperlink ref="AK4" r:id="rId2" xr:uid="{BACCB937-A5FB-A547-AC6D-BEE6543D6916}"/>
@@ -11084,6 +11285,8 @@
     <hyperlink ref="AK112" r:id="rId130" xr:uid="{FAE47F1D-22DE-824F-9ECC-F63DEB17631A}"/>
     <hyperlink ref="AK113" r:id="rId131" xr:uid="{04F7AEA5-DEBF-CD4D-943E-BDA0F8DC4729}"/>
     <hyperlink ref="AK114" r:id="rId132" xr:uid="{8091E0DF-5902-9840-BA05-BCDCC81E6506}"/>
+    <hyperlink ref="AK115" r:id="rId133" xr:uid="{EF492A6F-E433-264C-88E7-58575B339902}"/>
+    <hyperlink ref="AK116" r:id="rId134" xr:uid="{CDCC03B3-84C4-334F-AEB9-9A785AFD1877}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
+++ b/data/daahip-w/20230131_list_violence_abductions_forced_conversions_hindu_women_in_pakistan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/daahip-w/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC5F81-3BA7-2C4E-82A8-4ABF0EBBC209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6788CB1-1C8F-7441-B838-20F15C62A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{7834C0CA-90C6-1E41-85BA-104BC8C7D625}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="812">
   <si>
     <t>city</t>
   </si>
@@ -2714,6 +2714,20 @@
 A few days ago, the kidnapped Hindu girl #Meena_Kolhi reached her home. She says that after she was abducted and forcefully converted to islam, she was married to Iqbal Bhambhro was r@ped by many people.
 #StopForcedConversions
 #saveminoritygirls</t>
+  </si>
+  <si>
+    <t>case_116</t>
+  </si>
+  <si>
+    <t>Hyderabad Sindh Pakistan:
+13-year-old Hindu girl Shanti Kolhi from Kohsar, Hyderabad Sindh has been abducted and converted.
+Protest demonstration in front of  Press Club Hyderabad…</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1690315060844130304</t>
+  </si>
+  <si>
+    <t>Kohsar</t>
   </si>
 </sst>
 </file>
@@ -3132,12 +3146,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2FE676-F03D-4E4C-8907-AA9304B213EE}">
-  <dimension ref="A1:AM116"/>
+  <dimension ref="A1:AM117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AK47" sqref="AK47"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7621,7 +7635,7 @@
         <v>43880</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H116" si="1">WEEKDAY(G67)</f>
+        <f t="shared" ref="H67:H117" si="1">WEEKDAY(G67)</f>
         <v>4</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -11147,6 +11161,72 @@
         <v>806</v>
       </c>
       <c r="AM116" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="3">
+        <v>25.3341223610492</v>
+      </c>
+      <c r="F117" s="3">
+        <v>68.364220234733594</v>
+      </c>
+      <c r="G117" s="4">
+        <v>45149</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N117" s="3">
+        <v>13</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q117" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE117" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI117" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="AJ117" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK117" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AM117" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11287,6 +11367,7 @@
     <hyperlink ref="AK114" r:id="rId132" xr:uid="{8091E0DF-5902-9840-BA05-BCDCC81E6506}"/>
     <hyperlink ref="AK115" r:id="rId133" xr:uid="{EF492A6F-E433-264C-88E7-58575B339902}"/>
     <hyperlink ref="AK116" r:id="rId134" xr:uid="{CDCC03B3-84C4-334F-AEB9-9A785AFD1877}"/>
+    <hyperlink ref="AK117" r:id="rId135" xr:uid="{FA5FA8CD-C223-4A4D-A19C-B2EA358D5CFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
